--- a/data/Final_nutrient_data.xlsx
+++ b/data/Final_nutrient_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\OneDrive\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77573CB-4B61-425B-8BE8-47F2D7799895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F10991-E5B2-42D2-AA4D-D9E4970BDCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{EE80FFE4-52A9-4067-882B-EC09130D2648}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EE80FFE4-52A9-4067-882B-EC09130D2648}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{F846957E-5C1C-4758-B13F-5E120EAF2B71}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{F846957E-5C1C-4758-B13F-5E120EAF2B71}">
       <text>
         <r>
           <rPr>
@@ -636,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{64F215EE-2565-4240-B5A7-6249E0FC6580}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{64F215EE-2565-4240-B5A7-6249E0FC6580}">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{4D663904-346E-4D16-ABF9-AFA438FC9AA8}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{4D663904-346E-4D16-ABF9-AFA438FC9AA8}">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{72C3F24D-ED4F-4D33-8E78-04EF89AA7D2E}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{72C3F24D-ED4F-4D33-8E78-04EF89AA7D2E}">
       <text>
         <r>
           <rPr>
@@ -708,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{847E324C-0A3B-498B-ACE7-8B58F2AA30E5}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{D4F412A8-E94F-4A9C-946E-BA08331BFA02}">
       <text>
         <r>
           <rPr>
@@ -732,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{849042D7-CFF2-4CB3-A1B4-E3510AC59931}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{4CBFF07C-676B-4200-8DE7-3F2456CA86B2}">
       <text>
         <r>
           <rPr>
@@ -756,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{2D46BB8C-5CAE-49A0-BB84-8BA40339598B}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{D6453C63-E868-4B07-95FE-91518490E6D5}">
       <text>
         <r>
           <rPr>
@@ -780,7 +780,199 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{A238EF33-8631-4B01-B4E3-3C74CA9282D9}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{51838EF4-3B70-4489-8712-95E968A9C7FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{847E324C-0A3B-498B-ACE7-8B58F2AA30E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{849042D7-CFF2-4CB3-A1B4-E3510AC59931}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{2D46BB8C-5CAE-49A0-BB84-8BA40339598B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{A238EF33-8631-4B01-B4E3-3C74CA9282D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{ECDD2E25-AE2C-414B-B231-E03AE1B6B442}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{FD084D12-2430-4D48-8C71-F8F8B66F15D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{B3C5CB59-5C4D-4022-9298-817FE33F4E02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{CD8F7E74-3148-4ECC-90B7-EA1D36CFF228}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{FDA79931-9843-4256-A235-193A75D22D54}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{FDA79931-9843-4256-A235-193A75D22D54}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{40C4F4F1-BFD9-47C5-9886-6BD246B12D48}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{40C4F4F1-BFD9-47C5-9886-6BD246B12D48}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{EAA9CBDB-22AB-49D4-B4B3-9FD19FFAF29B}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{EAA9CBDB-22AB-49D4-B4B3-9FD19FFAF29B}">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{120B1F82-A1F9-4532-8AC1-651E09D59EEC}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{120B1F82-A1F9-4532-8AC1-651E09D59EEC}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{FE4EAADC-FE40-486F-9503-08F662524306}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{A1B0392B-FF1B-49FE-A8CF-735A9EC7C3EB}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{D5A327ED-1686-4CD6-9C96-52EBDF147155}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{8D163CB6-3340-4021-B66B-DD2D1595651B}">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{69269D43-108F-4074-A6B6-92AE40858B3D}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{C85A2B55-B384-4676-BC14-2704E9842C0B}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1490,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{B5B33667-732D-42C5-8A43-2407C5FE113C}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{FBAC59EC-845E-40E6-87BC-E83967F18551}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{B64000B1-5520-4ACD-B903-DDD094A5A805}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{A01A3F54-90F0-4929-B99F-5473357D3894}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{A9818C50-6810-4C9C-9F1C-E5F33FB298DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{D7A6FEDC-50DE-408A-AC54-B2C8550AB259}">
       <text>
         <r>
           <rPr>
@@ -1648,7 +1936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{08A45297-824A-4F7E-BF57-9C4CB590657F}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{08A45297-824A-4F7E-BF57-9C4CB590657F}">
       <text>
         <r>
           <rPr>
@@ -1672,7 +1960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{F908B95E-7BAF-44C3-8849-9AF9800C07BB}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{F908B95E-7BAF-44C3-8849-9AF9800C07BB}">
       <text>
         <r>
           <rPr>
@@ -1696,7 +1984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{57D5BE19-1F3C-4510-A114-B056E848B64C}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{57D5BE19-1F3C-4510-A114-B056E848B64C}">
       <text>
         <r>
           <rPr>
@@ -1720,7 +2008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{7500AE20-8D9F-4144-A747-F04E0AE3E50B}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{7500AE20-8D9F-4144-A747-F04E0AE3E50B}">
       <text>
         <r>
           <rPr>
@@ -1744,7 +2032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{5701AF99-4314-4659-85AC-6AE11BC53F0E}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{2658D066-152C-4EF5-802E-B9F58D5425B4}">
       <text>
         <r>
           <rPr>
@@ -1768,7 +2056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{19B5CF74-2103-4767-A6CC-996D553F81C9}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{9B48D056-CA8C-49CA-822D-5B6C910DA43A}">
       <text>
         <r>
           <rPr>
@@ -1792,7 +2080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{40A900BC-3F3A-44FF-BE09-21454A888C12}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{2DC82146-F8E1-44BF-BFA4-ABFE3A8E0DB6}">
       <text>
         <r>
           <rPr>
@@ -1816,7 +2104,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{8061DC5A-E1F2-41AC-98C2-77E3F4A1C71F}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{CFB579BD-BB15-498B-B6D1-0A67D438A477}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{1390F51C-B405-4F03-80F5-8B1777015BAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{98DE837E-8BAA-4244-A2DB-1999E7D77E05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{C32DB0DC-B596-4E5C-9EB5-27F4328D7E08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{5338AA46-1511-4091-BABA-33DABC4B5A46}">
       <text>
         <r>
           <rPr>
@@ -2190,7 +2574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{D57E1C5E-8FA5-42AE-9FC1-D81F1E2F8302}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{D57E1C5E-8FA5-42AE-9FC1-D81F1E2F8302}">
       <text>
         <r>
           <rPr>
@@ -2214,7 +2598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{5F5CDB1C-1291-410D-9014-08320D86AF82}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{5F5CDB1C-1291-410D-9014-08320D86AF82}">
       <text>
         <r>
           <rPr>
@@ -2238,7 +2622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{013B81F3-D5E7-4AC3-A4A4-ABC787903467}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{013B81F3-D5E7-4AC3-A4A4-ABC787903467}">
       <text>
         <r>
           <rPr>
@@ -2262,7 +2646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{A1845352-C18D-48D6-991C-79068419023D}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{A1845352-C18D-48D6-991C-79068419023D}">
       <text>
         <r>
           <rPr>
@@ -2286,7 +2670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{A52F4BCF-ADD1-4901-846A-4F6EED324883}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{3C93F7C9-50A3-42D9-ADD3-BB6FA98A55A1}">
       <text>
         <r>
           <rPr>
@@ -2310,7 +2694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{D7F2C888-87C5-453D-BD15-9ECE066C016D}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{8D76EB7A-803D-4C15-8D98-CF2A9E9EBA68}">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{B488AC86-1E2C-426A-A5B6-B1FF27D99794}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{C0E0E63C-93FC-4DF3-A04B-6DCC228A6105}">
       <text>
         <r>
           <rPr>
@@ -2358,7 +2742,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{45A87AEE-2C64-4790-BC49-D10B7762E113}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{7B351E8D-2FEC-49F6-A1A9-E2934218AD3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{72386032-1E86-48A9-A4DB-46771655F34C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{D69D2296-9132-4EBA-A35D-F46D9B050396}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{0154D1FF-92BD-4990-AB9C-A18ABE9F167B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/l/h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{D3A07363-DDAB-4669-BB24-6EA0D2B52765}">
       <text>
         <r>
           <rPr>
@@ -2387,7 +2867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
   <si>
     <t>T0</t>
   </si>
@@ -2592,6 +3072,24 @@
   <si>
     <t>September</t>
   </si>
+  <si>
+    <t>chl</t>
+  </si>
+  <si>
+    <t>NO3_uptake_chl</t>
+  </si>
+  <si>
+    <t>NO2_uptake_chl</t>
+  </si>
+  <si>
+    <t>NH4_uptake_chl</t>
+  </si>
+  <si>
+    <t>PO4_uptake_chl</t>
+  </si>
+  <si>
+    <t>intital_DIN:DIP</t>
+  </si>
 </sst>
 </file>
 
@@ -2712,7 +3210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2724,7 +3222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3066,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFD7092-9A0A-4E11-97AE-D5907135BCFD}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3081,7 +3578,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
@@ -3186,44 +3683,44 @@
         <v>2.0180820148530836E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1.1241970021413277</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>0.67630264097073522</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>15.417558886509635</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>0.12108492089118503</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>1.800499643112063</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>17.2180585296217</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>140.18198756840351</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>0.19792410183202472</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>-1.5613847251962881E-3</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>-0.10914822745657864</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>1.5135615111398128E-3</v>
       </c>
     </row>
@@ -3255,16 +3752,16 @@
       <c r="I5">
         <v>5.6930966773269933</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5">
         <v>9.6657149655008327E-3</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5">
         <v>-4.0521651201522717E-3</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5">
         <v>-0.29777837259100642</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5">
         <v>5.2537401786675278E-2</v>
       </c>
     </row>
@@ -3296,98 +3793,98 @@
       <c r="I6">
         <v>0.60466472844592545</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6">
         <v>7.0634070901736861E-3</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6">
         <v>-3.3458244111349029E-3</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6">
         <v>-0.1773286937901499</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6">
         <v>9.9323269831019273E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
         <v>0.62455389007851536</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>7.5660242683797287</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>1.2108492089118503</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>0.62455389007851536</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>8.1905781584582442</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>7.7045092035545277</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>0.22134487270996905</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>-4.8328574827504139E-4</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>5.4425410421127744E-2</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>8.2976805510709295E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0.12491077801570308</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>0.63704496788008569</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>1.3026409707351891</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>12.261866322247336</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>0.76195574589578885</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>2.064596716630978</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>0.17591930000827566</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>0.21874256483464191</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>-7.4351653580775716E-4</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>0.18491256245538901</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>0.16524728231621999</v>
       </c>
     </row>
@@ -3461,44 +3958,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>7.4411134903640264</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0.71199143468950754</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>2.1948608137044969</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
         <v>8.1531049250535332</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>10.347965738758031</v>
       </c>
-      <c r="I11" s="15" t="e">
+      <c r="I11" s="14" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>5.331013561741612E-2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>-9.6657149655008301E-4</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <v>0.22060135617416132</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3584,90 +4081,90 @@
         <v>8.301044021095684E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>1.7844396859386154E-2</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0.64596716630977868</v>
       </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
         <v>1.8566354536648371</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>0.6638115631691649</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>0.6638115631691649</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <v>0.36058412552717789</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <v>0.20796157506542948</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>4.0893409469426774E-4</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <v>0.26632762312633834</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <v>6.5486761381982561E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>0.7137758743754461</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>0.66202712348322623</v>
       </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
         <v>14.505973522763966</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>1.3758029978586723</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>1.3758029978586723</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <v>9.7452976693740548E-2</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <v>0.19346300261717822</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>7.4351653580777152E-5</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>0.26632762312633834</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="14">
         <v>0.11445888494241736</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -3698,7 +4195,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3740,51 +4237,51 @@
         <v>-1.1267624582929717E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>2.5695931477516059</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>2.5695931477516059</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <f t="shared" si="1"/>
         <v>2.5695931477516059</v>
       </c>
-      <c r="I18" s="13" t="e">
+      <c r="I18" s="12" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>0.15480014275517487</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3827,7 +4324,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -3869,89 +4366,89 @@
         <v>3.8948982886664464E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="13">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>2.1230222796254443</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>0.26083232652953758</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>0.20833333333333334</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>5.9937035841136584E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13">
-        <v>0</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>14.909589925734583</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>7.3580822576209723E-2</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <v>0.20833333333333334</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>0.10605020988052949</v>
       </c>
     </row>
@@ -4025,44 +4522,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>1.6416845110635263</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>0.33190578158458245</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>1.3918629550321198</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
         <v>1.9735902926481086</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>3.3654532476802284</v>
       </c>
-      <c r="I25" s="15" t="e">
+      <c r="I25" s="14" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="14">
         <v>0.19903937663573637</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="14">
         <v>2.602307875327137E-4</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <v>0.24811146799904832</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4148,85 +4645,85 @@
         <v>0.16154746528898933</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>1.7309064953604567</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>0.3640256959314776</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <v>1.4632405424696646</v>
       </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
         <v>2.0949321912919343</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>3.5581727337615989</v>
       </c>
-      <c r="I28" s="15" t="e">
+      <c r="I28" s="14" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="14">
         <v>0.19718058529621699</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="14">
         <v>-4.0893409469426682E-4</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="14">
         <v>0.24662443492743283</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="14">
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>1.85581727337616</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>0.39257673090649536</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>7.2448251249107791</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <v>14.086212463674524</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>2.2483940042826553</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>9.4932191291934345</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="14">
         <v>0.66135489529193792</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="14">
         <v>0.19457827742088984</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="14">
         <v>-1.0037473233404717E-3</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <v>0.12617475612657625</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="14">
         <v>0.12320390700678074</v>
       </c>
     </row>
@@ -4238,16 +4735,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74A7CF8-C1B6-4F9A-B6F0-9ECF419C19DF}">
-  <dimension ref="A1:AV29"/>
+  <dimension ref="A1:BN29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" activeCellId="2" sqref="Q1 S1 U1"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="56" max="56" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4327,31 +4828,49 @@
         <v>53</v>
       </c>
       <c r="AN1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP1" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BD1" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BE1" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BF1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4409,7 +4928,7 @@
         <v>0.62455389007851536</v>
       </c>
       <c r="X2" s="3">
-        <f t="shared" ref="X2:AF2" si="0">AVERAGE(M2:M5)</f>
+        <f t="shared" ref="X2:AD2" si="0">AVERAGE(M2:M5)</f>
         <v>0.60135617416131337</v>
       </c>
       <c r="Y2" s="3">
@@ -4429,7 +4948,7 @@
         <v>1.4043540328336901</v>
       </c>
       <c r="AF2" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(U2:U5)</f>
         <v>7.2488073994765641</v>
       </c>
       <c r="AI2" s="3">
@@ -4448,8 +4967,12 @@
         <f t="shared" si="1"/>
         <v>0.19373587342589604</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="3">
+        <f>(AI2+AJ2+AK2)/AL2</f>
+        <v>7.2488073994765641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4503,7 +5026,7 @@
         <v>2.9105757792053297</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -4557,7 +5080,7 @@
         <v>9.8738520104687115</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -4611,7 +5134,7 @@
         <v>12.821270521056388</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4708,40 +5231,63 @@
         <f t="shared" si="10"/>
         <v>0.19373587342589604</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="3">
+        <f>(AI6+AJ6+AK6)/AL6</f>
+        <v>7.2488073994765641</v>
+      </c>
+      <c r="AP6">
         <f>($AI$6-L6)/48</f>
         <v>5.5763740185581735E-3</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <f>($AJ$6-M6)/48</f>
         <v>-4.0893409469426367E-4</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <f>($AK$6-N6)/48</f>
         <v>3.7175826790387819E-3</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <f>($AL$6-O6)/48</f>
         <v>2.6907760198041121E-3</v>
       </c>
-      <c r="AS6">
-        <f>AVERAGE(AN6:AN9)</f>
-        <v>9.2939566975969549E-3</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" ref="AT6:AV6" si="11">AVERAGE(AO6:AO9)</f>
-        <v>3.7175826790388888E-5</v>
-      </c>
       <c r="AU6">
+        <v>3.5208471417267924</v>
+      </c>
+      <c r="AW6">
+        <f>AP6/$AU$6</f>
+        <v>1.5838159948697041E-3</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ref="AX6:AZ9" si="11">AQ6/$AU$6</f>
+        <v>-1.1614650629044428E-4</v>
+      </c>
+      <c r="AY6">
         <f t="shared" si="11"/>
-        <v>-2.5651320485367592E-2</v>
-      </c>
-      <c r="AV6">
-        <f>AVERAGE(AQ6:AQ9)</f>
-        <v>2.0180820148530836E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+        <v>1.0558773299131359E-3</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="11"/>
+        <v>7.6424107934558796E-4</v>
+      </c>
+      <c r="BC6">
+        <f>AVERAGE(AW6:AW9)</f>
+        <v>2.6396933247828398E-3</v>
+      </c>
+      <c r="BD6">
+        <f>AVERAGE(AX6:AX9)</f>
+        <v>1.0558773299131661E-5</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" ref="BE6" si="12">AVERAGE(AY6:AY9)</f>
+        <v>-7.2855535764006375E-3</v>
+      </c>
+      <c r="BF6">
+        <f>AVERAGE(AZ6:AZ9)</f>
+        <v>5.7318080950919097E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -4794,24 +5340,40 @@
         <f t="shared" si="8"/>
         <v>7.2395967166309783</v>
       </c>
-      <c r="AN7">
-        <f t="shared" ref="AN7:AN9" si="12">($AI$6-L7)/48</f>
+      <c r="AP7">
+        <f t="shared" ref="AP7:AP9" si="13">($AI$6-L7)/48</f>
         <v>5.5763740185581735E-3</v>
       </c>
-      <c r="AO7">
-        <f t="shared" ref="AO7:AO9" si="13">($AJ$6-M7)/48</f>
+      <c r="AQ7">
+        <f t="shared" ref="AQ7:AQ9" si="14">($AJ$6-M7)/48</f>
         <v>4.8328574827504145E-4</v>
       </c>
-      <c r="AP7">
-        <f t="shared" ref="AP7:AP9" si="14">($AK$6-N7)/48</f>
+      <c r="AR7">
+        <f t="shared" ref="AR7:AR8" si="15">($AK$6-N7)/48</f>
         <v>3.7175826790387819E-3</v>
       </c>
-      <c r="AQ7">
-        <f t="shared" ref="AQ7:AQ9" si="15">($AL$6-O7)/48</f>
+      <c r="AS7">
+        <f t="shared" ref="AS7:AS9" si="16">($AL$6-O7)/48</f>
         <v>1.3453880099020561E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW7">
+        <f t="shared" ref="AW7:AW9" si="17">AP7/$AU$6</f>
+        <v>1.5838159948697041E-3</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="11"/>
+        <v>1.3726405288870761E-4</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="11"/>
+        <v>1.0558773299131359E-3</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="11"/>
+        <v>3.8212053967279398E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -4864,24 +5426,40 @@
         <f t="shared" si="8"/>
         <v>6.4106352605281929</v>
       </c>
-      <c r="AN8">
-        <f t="shared" si="12"/>
+      <c r="AP8">
+        <f t="shared" si="13"/>
         <v>1.3011539376635737E-2</v>
       </c>
-      <c r="AO8">
-        <f t="shared" si="13"/>
+      <c r="AQ8">
+        <f t="shared" si="14"/>
         <v>-4.0893409469426367E-4</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="14"/>
+      <c r="AR8">
+        <f t="shared" si="15"/>
         <v>3.7175826790387819E-3</v>
       </c>
-      <c r="AQ8">
-        <f t="shared" si="15"/>
+      <c r="AS8">
+        <f t="shared" si="16"/>
         <v>2.0180820148530836E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW8">
+        <f>AP8/$AU$6</f>
+        <v>3.6955706546959758E-3</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="11"/>
+        <v>-1.1614650629044428E-4</v>
+      </c>
+      <c r="AY8">
+        <f>AR8/$AU$6</f>
+        <v>1.0558773299131359E-3</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="11"/>
+        <v>5.7318080950919087E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4934,24 +5512,40 @@
         <f t="shared" si="8"/>
         <v>64.180038068046628</v>
       </c>
-      <c r="AN9">
-        <f t="shared" si="12"/>
+      <c r="AP9">
+        <f t="shared" si="13"/>
         <v>1.3011539376635737E-2</v>
       </c>
-      <c r="AO9">
-        <f t="shared" si="13"/>
+      <c r="AQ9">
+        <f t="shared" si="14"/>
         <v>4.8328574827504145E-4</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <f>($AK$6-N9)/48</f>
         <v>-0.11375802997858671</v>
       </c>
-      <c r="AQ9">
-        <f t="shared" si="15"/>
+      <c r="AS9">
+        <f t="shared" si="16"/>
         <v>2.0180820148530836E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW9">
+        <f t="shared" si="17"/>
+        <v>3.6955706546959758E-3</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="11"/>
+        <v>1.3726405288870761E-4</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="11"/>
+        <v>-3.2309846295341955E-2</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="11"/>
+        <v>5.7318080950919087E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -5009,27 +5603,27 @@
         <v>1.1241970021413277</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" ref="X10:AF10" si="16">AVERAGE(M10:M13)</f>
+        <f t="shared" ref="X10:AF10" si="18">AVERAGE(M10:M13)</f>
         <v>0.67630264097073522</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>15.417558886509635</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.12108492089118503</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.800499643112063</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17.2180585296217</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="16"/>
+        <f>AVERAGE(U10:U13)</f>
         <v>140.18198756840351</v>
       </c>
       <c r="AI10" s="3">
@@ -5049,39 +5643,65 @@
         <v>0.19373587342589604</v>
       </c>
       <c r="AN10" s="3">
+        <f>(AI10+AJ10+AK10)/AL10</f>
+        <v>110.48214073280988</v>
+      </c>
+      <c r="AP10" s="3">
         <f>($AI$10-L10)/48</f>
         <v>0.19903937663573634</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AQ10" s="3">
         <f>($AJ$10-M10)/48</f>
         <v>-2.6394837021175357E-3</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AR10" s="3">
         <f>($AK$10-N10)/48</f>
         <v>2.7658815132048525E-2</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AS10" s="3">
         <f>($AL$10-O10)/48</f>
         <v>2.0180820148530836E-3</v>
       </c>
-      <c r="AS10" s="3">
-        <f>AVERAGE(AN10:AN13)</f>
-        <v>0.19792410183202472</v>
-      </c>
-      <c r="AT10" s="3">
-        <f t="shared" ref="AT10:AV10" si="17">AVERAGE(AO10:AO13)</f>
-        <v>-1.5613847251962881E-3</v>
-      </c>
       <c r="AU10" s="3">
-        <f t="shared" si="17"/>
-        <v>-0.10914822745657864</v>
-      </c>
-      <c r="AV10" s="3">
-        <f t="shared" si="17"/>
-        <v>1.5135615111398128E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>21.417917201337669</v>
+      </c>
+      <c r="AW10" s="3">
+        <f>AP10/$AU$10</f>
+        <v>9.2931247592695533E-3</v>
+      </c>
+      <c r="AX10" s="3">
+        <f t="shared" ref="AX10:AZ13" si="19">AQ10/$AU$10</f>
+        <v>-1.2323717928803483E-4</v>
+      </c>
+      <c r="AY10" s="3">
+        <f t="shared" si="19"/>
+        <v>1.2913867801450402E-3</v>
+      </c>
+      <c r="AZ10" s="3">
+        <f t="shared" si="19"/>
+        <v>9.4224008613080407E-5</v>
+      </c>
+      <c r="BC10" s="3">
+        <f>AVERAGE(AW10:AW13)</f>
+        <v>9.2410527116830593E-3</v>
+      </c>
+      <c r="BD10" s="3">
+        <f t="shared" ref="BD10:BE10" si="20">AVERAGE(AX10:AX13)</f>
+        <v>-7.290086662109098E-5</v>
+      </c>
+      <c r="BE10" s="3">
+        <f t="shared" si="20"/>
+        <v>-5.0961177237981723E-3</v>
+      </c>
+      <c r="BF10" s="3">
+        <f>AVERAGE(AZ10:AZ13)</f>
+        <v>7.0668006459810316E-5</v>
+      </c>
+      <c r="BG10" s="3">
+        <v>7.0668006459810302E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -5134,24 +5754,40 @@
         <f t="shared" si="8"/>
         <v>87.980442541042109</v>
       </c>
-      <c r="AN11" s="3">
-        <f t="shared" ref="AN11:AN13" si="18">($AI$10-L11)/48</f>
+      <c r="AP11" s="3">
+        <f t="shared" ref="AP11:AP13" si="21">($AI$10-L11)/48</f>
         <v>0.21093564120866046</v>
       </c>
-      <c r="AO11" s="3">
-        <f t="shared" ref="AO11:AO13" si="19">($AJ$10-M11)/48</f>
+      <c r="AQ11" s="3">
+        <f t="shared" ref="AQ11:AQ13" si="22">($AJ$10-M11)/48</f>
         <v>-1.1524506305020203E-3</v>
       </c>
-      <c r="AP11" s="3">
-        <f t="shared" ref="AP11:AP13" si="20">($AK$10-N11)/48</f>
+      <c r="AR11" s="3">
+        <f t="shared" ref="AR11:AR13" si="23">($AK$10-N11)/48</f>
         <v>-5.9481322864622188E-4</v>
       </c>
-      <c r="AQ11" s="3">
-        <f t="shared" ref="AQ11:AQ13" si="21">($AL$10-O11)/48</f>
+      <c r="AS11" s="3">
+        <f t="shared" ref="AS11:AS13" si="24">($AL$10-O11)/48</f>
         <v>1.3453880099020561E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW11" s="3">
+        <f t="shared" ref="AW11:AW13" si="25">AP11/$AU$10</f>
+        <v>9.8485599335254841E-3</v>
+      </c>
+      <c r="AX11" s="3">
+        <f t="shared" si="19"/>
+        <v>-5.3807782506043274E-5</v>
+      </c>
+      <c r="AY11" s="3">
+        <f t="shared" si="19"/>
+        <v>-2.777175871279736E-5</v>
+      </c>
+      <c r="AZ11" s="3">
+        <f t="shared" si="19"/>
+        <v>6.2816005742053618E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -5204,24 +5840,40 @@
         <f t="shared" si="8"/>
         <v>234.54082798001426</v>
       </c>
-      <c r="AN12" s="3">
-        <f t="shared" si="18"/>
+      <c r="AP12" s="3">
+        <f t="shared" si="21"/>
         <v>0.19606531049250533</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AQ12" s="3">
+        <f t="shared" si="22"/>
+        <v>-1.4498572448251243E-3</v>
+      </c>
+      <c r="AR12" s="3">
+        <f t="shared" si="23"/>
+        <v>-0.37978824649060194</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="24"/>
+        <v>1.3453880099020561E-3</v>
+      </c>
+      <c r="AW12" s="3">
+        <f t="shared" si="25"/>
+        <v>9.154265965705571E-3</v>
+      </c>
+      <c r="AX12" s="3">
         <f t="shared" si="19"/>
-        <v>-1.4498572448251243E-3</v>
-      </c>
-      <c r="AP12" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.37978824649060194</v>
-      </c>
-      <c r="AQ12" s="3">
-        <f t="shared" si="21"/>
-        <v>1.3453880099020561E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-6.769366186244162E-5</v>
+      </c>
+      <c r="AY12" s="3">
+        <f t="shared" si="19"/>
+        <v>-1.7732267938120615E-2</v>
+      </c>
+      <c r="AZ12" s="3">
+        <f t="shared" si="19"/>
+        <v>6.2816005742053618E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -5274,24 +5926,40 @@
         <f t="shared" si="8"/>
         <v>128.2679693076374</v>
       </c>
-      <c r="AN13" s="3">
-        <f t="shared" si="18"/>
+      <c r="AP13" s="3">
+        <f t="shared" si="21"/>
         <v>0.18565607899119674</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AQ13" s="3">
+        <f t="shared" si="22"/>
+        <v>-1.0037473233404717E-3</v>
+      </c>
+      <c r="AR13" s="3">
+        <f t="shared" si="23"/>
+        <v>-8.3868665239114917E-2</v>
+      </c>
+      <c r="AS13" s="3">
+        <f t="shared" si="24"/>
+        <v>1.3453880099020561E-3</v>
+      </c>
+      <c r="AW13" s="3">
+        <f t="shared" si="25"/>
+        <v>8.6682601882316305E-3</v>
+      </c>
+      <c r="AX13" s="3">
         <f t="shared" si="19"/>
-        <v>-1.0037473233404717E-3</v>
-      </c>
-      <c r="AP13" s="3">
-        <f t="shared" si="20"/>
-        <v>-8.3868665239114917E-2</v>
-      </c>
-      <c r="AQ13" s="3">
-        <f t="shared" si="21"/>
-        <v>1.3453880099020561E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+        <v>-4.686484282784425E-5</v>
+      </c>
+      <c r="AY13" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.9158179785043169E-3</v>
+      </c>
+      <c r="AZ13" s="3">
+        <f t="shared" si="19"/>
+        <v>6.2816005742053618E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -5349,27 +6017,27 @@
         <v>0.16059957173447539</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14:AF14" si="22">AVERAGE(M14:M17)</f>
+        <f t="shared" ref="X14:AF14" si="26">AVERAGE(M14:M17)</f>
         <v>0.79586009992862239</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>14.471805852962172</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.6719405876654827</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.95645967166309787</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>15.428265524625269</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5.6930966773269933</v>
       </c>
       <c r="AI14">
@@ -5377,51 +6045,74 @@
         <v>0.62455389007851536</v>
       </c>
       <c r="AJ14">
-        <f t="shared" ref="AJ14:AK14" si="23">AJ2</f>
+        <f t="shared" ref="AJ14:AK14" si="27">AJ2</f>
         <v>0.60135617416131337</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.17844396859386152</v>
       </c>
       <c r="AL14">
         <f>AL2+5</f>
         <v>5.1937358734258963</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AN14" s="3">
+        <f>(AI14+AJ14+AK14)/AL14</f>
+        <v>0.27039381036281868</v>
+      </c>
+      <c r="AP14">
         <f>($AI$14-L14)/48</f>
         <v>1.003747323340471E-2</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AQ14">
         <f>($AJ$14-M14)/48</f>
         <v>-4.1265167737330466E-3</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AR14">
         <f>($AK$14-N14)/48</f>
         <v>-0.67436949797763512</v>
       </c>
-      <c r="AQ14" s="11">
+      <c r="AS14">
         <f>($AL$14-O14)/48</f>
         <v>4.5642288235927246E-2</v>
       </c>
-      <c r="AS14">
-        <f>AVERAGE(AN14:AN17)</f>
-        <v>9.6657149655008327E-3</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" ref="AT14:AV14" si="24">AVERAGE(AO14:AO17)</f>
-        <v>-4.0521651201522717E-3</v>
-      </c>
       <c r="AU14">
-        <f t="shared" si="24"/>
-        <v>-0.29777837259100642</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="24"/>
-        <v>5.2537401786675278E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+        <v>5.1215464028892308</v>
+      </c>
+      <c r="AW14">
+        <f>AP14/$AU$14</f>
+        <v>1.9598520532279557E-3</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" ref="AX14:AZ17" si="28">AQ14/$AU$14</f>
+        <v>-8.0571695521593721E-4</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="28"/>
+        <v>-0.13167302313168566</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="28"/>
+        <v>8.9118177685901558E-3</v>
+      </c>
+      <c r="BC14">
+        <f>AVERAGE(AW14:AW17)</f>
+        <v>1.887264940145439E-3</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" ref="BD14:BF14" si="29">AVERAGE(AX14:AX17)</f>
+        <v>-7.9119953259943409E-4</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="29"/>
+        <v>-5.8142277579096041E-2</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="29"/>
+        <v>1.0258113009976288E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5474,24 +6165,40 @@
         <f t="shared" si="8"/>
         <v>2.4525624553890077</v>
       </c>
-      <c r="AN15" s="11">
-        <f t="shared" ref="AN15:AN17" si="25">($AI$14-L15)/48</f>
+      <c r="AP15">
+        <f t="shared" ref="AP15:AP17" si="30">($AI$14-L15)/48</f>
         <v>2.602307875327147E-3</v>
       </c>
-      <c r="AO15" s="11">
-        <f t="shared" ref="AO15:AO17" si="26">($AJ$14-M15)/48</f>
+      <c r="AQ15">
+        <f t="shared" ref="AQ15:AQ16" si="31">($AJ$14-M15)/48</f>
         <v>-4.4239233880561503E-3</v>
       </c>
-      <c r="AP15" s="11">
-        <f t="shared" ref="AP15:AP17" si="27">($AK$14-N15)/48</f>
+      <c r="AR15">
+        <f t="shared" ref="AR15:AR17" si="32">($AK$14-N15)/48</f>
         <v>-0.12565429455151081</v>
       </c>
-      <c r="AQ15" s="11">
-        <f t="shared" ref="AQ15:AQ17" si="28">($AL$14-O15)/48</f>
+      <c r="AS15">
+        <f t="shared" ref="AS15:AS17" si="33">($AL$14-O15)/48</f>
         <v>4.4296900226025192E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW15">
+        <f t="shared" ref="AW15:AW17" si="34">AP15/$AU$14</f>
+        <v>5.081097915776182E-4</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="28"/>
+        <v>-8.637866456819509E-4</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="28"/>
+        <v>-2.4534444221890703E-2</v>
+      </c>
+      <c r="AZ15">
+        <f>AS15/$AU$14</f>
+        <v>8.64912601417335E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5544,24 +6251,40 @@
         <f t="shared" si="8"/>
         <v>7.4614540338681472</v>
       </c>
-      <c r="AN16" s="11">
-        <f t="shared" si="25"/>
+      <c r="AP16">
+        <f t="shared" si="30"/>
         <v>1.3011539376635737E-2</v>
       </c>
-      <c r="AO16" s="11">
-        <f t="shared" si="26"/>
+      <c r="AQ16">
+        <f t="shared" si="31"/>
         <v>-3.680406852248394E-3</v>
       </c>
-      <c r="AP16" s="11">
-        <f t="shared" si="27"/>
+      <c r="AR16">
+        <f t="shared" si="32"/>
         <v>-0.32640375921960513</v>
       </c>
-      <c r="AQ16" s="11">
+      <c r="AS16">
+        <f t="shared" si="33"/>
+        <v>6.1786944354751905E-2</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="34"/>
+        <v>2.540548957888091E-3</v>
+      </c>
+      <c r="AX16">
         <f t="shared" si="28"/>
-        <v>6.1786944354751905E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+        <v>-7.1861241951691717E-4</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="28"/>
+        <v>-6.373148528644984E-2</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="28"/>
+        <v>1.206411882159183E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -5614,24 +6337,40 @@
         <f t="shared" si="8"/>
         <v>1.7057188880529348</v>
       </c>
-      <c r="AN17" s="11">
-        <f t="shared" si="25"/>
+      <c r="AP17">
+        <f t="shared" si="30"/>
         <v>1.3011539376635737E-2</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AQ17">
         <f>($AJ$14-M17)/48</f>
         <v>-3.9778134665714978E-3</v>
       </c>
-      <c r="AP17" s="11">
-        <f t="shared" si="27"/>
+      <c r="AR17">
+        <f t="shared" si="32"/>
         <v>-6.4685938615274788E-2</v>
       </c>
-      <c r="AQ17" s="11">
+      <c r="AS17">
+        <f t="shared" si="33"/>
+        <v>5.8423474329996776E-2</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="34"/>
+        <v>2.540548957888091E-3</v>
+      </c>
+      <c r="AX17">
         <f t="shared" si="28"/>
-        <v>5.8423474329996776E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-7.7668210998293097E-4</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="28"/>
+        <v>-1.2630157676357934E-2</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="28"/>
+        <v>1.1407389435549817E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -5689,27 +6428,27 @@
         <v>0.28551034975017842</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" ref="X18:AF18" si="29">AVERAGE(M18:M21)</f>
+        <f t="shared" ref="X18:AF18" si="35">AVERAGE(M18:M21)</f>
         <v>0.76195574589578874</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>8.6902212705210573</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>15.426218921536972</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1.0474660956459672</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>9.7376873661670231</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.60466472844592545</v>
       </c>
       <c r="AI18" s="3">
@@ -5717,11 +6456,11 @@
         <v>0.62455389007851536</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" ref="AJ18:AK18" si="30">AJ2</f>
+        <f t="shared" ref="AJ18:AK18" si="36">AJ2</f>
         <v>0.60135617416131337</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.17844396859386152</v>
       </c>
       <c r="AL18" s="3">
@@ -5729,39 +6468,62 @@
         <v>20.193735873425897</v>
       </c>
       <c r="AN18" s="3">
+        <f>(AI18+AJ18+AK18)/AL18</f>
+        <v>6.9544042847552584E-2</v>
+      </c>
+      <c r="AP18" s="3">
         <f>($AI$18-L18)/48</f>
         <v>-1.8587913395193903E-3</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AQ18" s="3">
         <f>($AJ$18-M18)/48</f>
         <v>-2.7881870092790867E-3</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AR18" s="3">
         <f>($AK$18-N18)/48</f>
         <v>3.7175826790387819E-3</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AS18" s="3">
         <f>($AL$18-O18)/48</f>
         <v>0.11866322247336132</v>
       </c>
-      <c r="AS18" s="3">
-        <f>AVERAGE(AN18:AN21)</f>
-        <v>7.0634070901736861E-3</v>
-      </c>
-      <c r="AT18" s="3">
-        <f t="shared" ref="AT18:AV18" si="31">AVERAGE(AO18:AO21)</f>
-        <v>-3.3458244111349029E-3</v>
-      </c>
       <c r="AU18" s="3">
-        <f t="shared" si="31"/>
-        <v>-0.1773286937901499</v>
-      </c>
-      <c r="AV18" s="3">
-        <f t="shared" si="31"/>
-        <v>9.9323269831019273E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4.388142257553616</v>
+      </c>
+      <c r="AW18" s="3">
+        <f>AP18/$AU$18</f>
+        <v>-4.2359413857190315E-4</v>
+      </c>
+      <c r="AX18" s="3">
+        <f t="shared" ref="AX18:AZ21" si="37">AQ18/$AU$18</f>
+        <v>-6.3539120785785497E-4</v>
+      </c>
+      <c r="AY18" s="3">
+        <f t="shared" si="37"/>
+        <v>8.4718827714380662E-4</v>
+      </c>
+      <c r="AZ18" s="3">
+        <f t="shared" si="37"/>
+        <v>2.7041790240299988E-2</v>
+      </c>
+      <c r="BC18" s="3">
+        <f>AVERAGE(AW18:AW21)</f>
+        <v>1.6096577265732326E-3</v>
+      </c>
+      <c r="BD18" s="3">
+        <f t="shared" ref="BD18:BE18" si="38">AVERAGE(AX18:AX21)</f>
+        <v>-7.6246944942942574E-4</v>
+      </c>
+      <c r="BE18" s="3">
+        <f t="shared" si="38"/>
+        <v>-4.0410880819759576E-2</v>
+      </c>
+      <c r="BF18" s="3">
+        <f>AVERAGE(AZ18:AZ21)</f>
+        <v>2.2634468985149054E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -5814,24 +6576,40 @@
         <f t="shared" si="8"/>
         <v>0.26595084242885481</v>
       </c>
-      <c r="AN19" s="3">
-        <f t="shared" ref="AN19:AN21" si="32">($AI$18-L19)/48</f>
+      <c r="AP19" s="3">
+        <f t="shared" ref="AP19:AP21" si="39">($AI$18-L19)/48</f>
         <v>4.08934094694266E-3</v>
       </c>
-      <c r="AO19" s="3">
-        <f t="shared" ref="AO19:AO21" si="33">($AJ$18-M19)/48</f>
+      <c r="AQ19" s="3">
+        <f t="shared" ref="AQ19:AQ21" si="40">($AJ$18-M19)/48</f>
         <v>-3.0855936236021883E-3</v>
       </c>
-      <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AP21" si="34">($AK$18-N19)/48</f>
+      <c r="AR19" s="3">
+        <f t="shared" ref="AR19:AR21" si="41">($AK$18-N19)/48</f>
         <v>-5.2789674042350694E-2</v>
       </c>
-      <c r="AQ19" s="3">
-        <f t="shared" ref="AQ19:AQ21" si="35">($AL$18-O19)/48</f>
+      <c r="AS19" s="3">
+        <f t="shared" ref="AS19:AS21" si="42">($AL$18-O19)/48</f>
         <v>0.1159724464535572</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW19" s="3">
+        <f t="shared" ref="AW19:AW21" si="43">AP19/$AU$18</f>
+        <v>9.3190710485818718E-4</v>
+      </c>
+      <c r="AX19" s="3">
+        <f>AQ19/$AU$18</f>
+        <v>-7.031662700293593E-4</v>
+      </c>
+      <c r="AY19" s="3">
+        <f t="shared" si="37"/>
+        <v>-1.2030073535442052E-2</v>
+      </c>
+      <c r="AZ19" s="3">
+        <f t="shared" si="37"/>
+        <v>2.6428597717844202E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -5884,24 +6662,40 @@
         <f t="shared" si="8"/>
         <v>0.26429695925778707</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AP20" s="3">
         <f>($AI$18-L20)/48</f>
         <v>1.3011539376635737E-2</v>
       </c>
-      <c r="AO20" s="3">
-        <f t="shared" si="33"/>
+      <c r="AQ20" s="3">
+        <f t="shared" si="40"/>
         <v>-3.680406852248394E-3</v>
       </c>
-      <c r="AP20" s="3">
-        <f t="shared" si="34"/>
+      <c r="AR20" s="3">
+        <f t="shared" si="41"/>
         <v>-6.9147037830121341E-2</v>
       </c>
-      <c r="AQ20" s="3">
-        <f t="shared" si="35"/>
+      <c r="AS20" s="3">
+        <f t="shared" si="42"/>
         <v>8.3683134215907895E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW20" s="3">
+        <f t="shared" si="43"/>
+        <v>2.9651589700033232E-3</v>
+      </c>
+      <c r="AX20" s="3">
+        <f t="shared" si="37"/>
+        <v>-8.3871639437236851E-4</v>
+      </c>
+      <c r="AY20" s="3">
+        <f t="shared" si="37"/>
+        <v>-1.5757701954874803E-2</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f t="shared" si="37"/>
+        <v>1.9070287448374825E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -5954,24 +6748,40 @@
         <f t="shared" si="8"/>
         <v>1.7884680234028563</v>
       </c>
-      <c r="AN21" s="3">
-        <f t="shared" si="32"/>
+      <c r="AP21" s="3">
+        <f t="shared" si="39"/>
         <v>1.3011539376635737E-2</v>
       </c>
-      <c r="AO21" s="3">
-        <f t="shared" si="33"/>
+      <c r="AQ21" s="3">
+        <f t="shared" si="40"/>
         <v>-3.8291101594099424E-3</v>
       </c>
-      <c r="AP21" s="3">
-        <f t="shared" si="34"/>
+      <c r="AR21" s="3">
+        <f t="shared" si="41"/>
         <v>-0.59109564596716635</v>
       </c>
-      <c r="AQ21" s="3">
-        <f t="shared" si="35"/>
+      <c r="AS21" s="3">
+        <f t="shared" si="42"/>
         <v>7.8974276181250705E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW21" s="3">
+        <f t="shared" si="43"/>
+        <v>2.9651589700033232E-3</v>
+      </c>
+      <c r="AX21" s="3">
+        <f t="shared" si="37"/>
+        <v>-8.7260392545812008E-4</v>
+      </c>
+      <c r="AY21" s="3">
+        <f t="shared" si="37"/>
+        <v>-0.13470293606586525</v>
+      </c>
+      <c r="AZ21" s="3">
+        <f t="shared" si="37"/>
+        <v>1.7997200534077207E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -6029,79 +6839,102 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:AF22" si="36">AVERAGE(M22:M25)</f>
+        <f t="shared" ref="X22:AF22" si="44">AVERAGE(M22:M25)</f>
         <v>0.62455389007851536</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>7.5660242683797287</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>1.2108492089118503</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0.62455389007851536</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>8.1905781584582442</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>7.7045092035545277</v>
       </c>
-      <c r="AI22" s="11">
+      <c r="AI22">
         <f>AI2+10</f>
         <v>10.624553890078515</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AJ22">
         <f>AJ2</f>
         <v>0.60135617416131337</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AK22">
         <f>AK2+10</f>
         <v>10.178443968593861</v>
       </c>
-      <c r="AL22" s="11">
+      <c r="AL22">
         <f>AL2+5</f>
         <v>5.1937358734258963</v>
       </c>
-      <c r="AN22" s="11">
+      <c r="AN22" s="3">
+        <f>(AI22+AJ22+AK22)/AL22</f>
+        <v>4.1211864743354631</v>
+      </c>
+      <c r="AP22">
         <f>($AI$22-L22)/48</f>
         <v>0.22134487270996905</v>
       </c>
-      <c r="AO22" s="11">
+      <c r="AQ22">
         <f>($AJ$22-M22)/48</f>
         <v>-2.6023078753271517E-4</v>
       </c>
-      <c r="AP22" s="11">
+      <c r="AR22">
         <f>($AK$22-N22)/48</f>
         <v>0.1689269569355222</v>
       </c>
-      <c r="AQ22" s="11">
+      <c r="AS22">
         <f>($AL$22-O22)/48</f>
         <v>9.407625659240125E-2</v>
       </c>
-      <c r="AS22">
-        <f>AVERAGE(AN22:AN25)</f>
-        <v>0.22134487270996905</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" ref="AT22:AV22" si="37">AVERAGE(AO22:AO25)</f>
-        <v>-4.8328574827504139E-4</v>
-      </c>
       <c r="AU22">
-        <f t="shared" si="37"/>
-        <v>5.4425410421127744E-2</v>
-      </c>
-      <c r="AV22">
-        <f t="shared" si="37"/>
-        <v>8.2976805510709295E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+        <v>22.384714542423339</v>
+      </c>
+      <c r="AW22">
+        <f>AP22/$AU$22</f>
+        <v>9.8882151161891283E-3</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" ref="AX22:AZ25" si="45">AQ22/$AU$22</f>
+        <v>-1.162537887358482E-5</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="45"/>
+        <v>7.5465316573670458E-3</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="45"/>
+        <v>4.2027007498401936E-3</v>
+      </c>
+      <c r="BC22">
+        <f>AVERAGE(AW22:AW25)</f>
+        <v>9.8882151161891283E-3</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" ref="BD22:BF22" si="46">AVERAGE(AX22:AX25)</f>
+        <v>-2.1589989336657478E-5</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="46"/>
+        <v>2.4313649529897341E-3</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="46"/>
+        <v>3.7068511797839678E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -6154,28 +6987,40 @@
         <f t="shared" si="8"/>
         <v>14.982710762154015</v>
       </c>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AN23" s="11">
-        <f t="shared" ref="AN23:AN25" si="38">($AI$22-L23)/48</f>
+      <c r="AP23">
+        <f t="shared" ref="AP23:AP25" si="47">($AI$22-L23)/48</f>
         <v>0.22134487270996905</v>
       </c>
-      <c r="AO23" s="11">
-        <f t="shared" ref="AO23:AO25" si="39">($AJ$22-M23)/48</f>
+      <c r="AQ23">
+        <f t="shared" ref="AQ23:AQ25" si="48">($AJ$22-M23)/48</f>
         <v>-8.5504401617891856E-4</v>
       </c>
-      <c r="AP23" s="11">
-        <f t="shared" ref="AP23:AP25" si="40">($AK$22-N23)/48</f>
+      <c r="AR23">
+        <f t="shared" ref="AR23:AR25" si="49">($AK$22-N23)/48</f>
         <v>4.4016178919819161E-2</v>
       </c>
-      <c r="AQ23" s="11">
-        <f t="shared" ref="AQ23:AQ25" si="41">($AL$22-O23)/48</f>
+      <c r="AS23">
+        <f t="shared" ref="AS23:AS25" si="50">($AL$22-O23)/48</f>
         <v>9.6094338607254345E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW23">
+        <f t="shared" ref="AW23:AW25" si="51">AP23/$AU$22</f>
+        <v>9.8882151161891283E-3</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="45"/>
+        <v>-3.8197673441778573E-5</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="45"/>
+        <v>1.9663497980463426E-3</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="45"/>
+        <v>4.2928552171231441E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -6228,28 +7073,40 @@
         <f t="shared" si="8"/>
         <v>5.0556414730219155</v>
       </c>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AN24" s="11">
-        <f t="shared" si="38"/>
+      <c r="AP24">
+        <f t="shared" si="47"/>
         <v>0.22134487270996905</v>
       </c>
-      <c r="AO24" s="11">
-        <f t="shared" si="39"/>
+      <c r="AQ24">
+        <f t="shared" si="48"/>
         <v>-1.1152748037116429E-4</v>
       </c>
-      <c r="AP24" s="11">
-        <f t="shared" si="40"/>
+      <c r="AR24">
+        <f t="shared" si="49"/>
         <v>4.1042112776588126E-2</v>
       </c>
-      <c r="AQ24" s="11">
-        <f t="shared" si="41"/>
+      <c r="AS24">
+        <f t="shared" si="50"/>
         <v>7.1877354429017326E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW24">
+        <f t="shared" si="51"/>
+        <v>9.8882151161891283E-3</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="45"/>
+        <v>-4.98230523153638E-6</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="45"/>
+        <v>1.8334883252053731E-3</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="45"/>
+        <v>3.2110016097277416E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -6302,24 +7159,40 @@
         <f t="shared" si="8"/>
         <v>6.8217225791101583</v>
       </c>
-      <c r="AN25" s="11">
-        <f t="shared" si="38"/>
+      <c r="AP25">
+        <f t="shared" si="47"/>
         <v>0.22134487270996905</v>
       </c>
-      <c r="AO25" s="11">
-        <f t="shared" si="39"/>
+      <c r="AQ25">
+        <f t="shared" si="48"/>
         <v>-7.0634070901736767E-4</v>
       </c>
-      <c r="AP25" s="11">
-        <f t="shared" si="40"/>
+      <c r="AR25">
+        <f t="shared" si="49"/>
         <v>-3.6283606947418535E-2</v>
       </c>
-      <c r="AQ25" s="11">
-        <f t="shared" si="41"/>
+      <c r="AS25">
+        <f t="shared" si="50"/>
         <v>6.9859272414164245E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW25">
+        <f t="shared" si="51"/>
+        <v>9.8882151161891283E-3</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="45"/>
+        <v>-3.155459979973013E-5</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="45"/>
+        <v>-1.6209099686598247E-3</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="45"/>
+        <v>3.1208471424447916E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -6377,27 +7250,27 @@
         <v>0.12491077801570308</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" ref="X26:AF26" si="42">AVERAGE(M26:M29)</f>
+        <f t="shared" ref="X26:AF26" si="52">AVERAGE(M26:M29)</f>
         <v>0.63704496788008569</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>1.3026409707351891</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>12.261866322247336</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0.76195574589578885</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>2.064596716630978</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0.17591930000827566</v>
       </c>
       <c r="AI26" s="3">
@@ -6417,39 +7290,62 @@
         <v>20.193735873425897</v>
       </c>
       <c r="AN26" s="3">
+        <f>(AI26+AJ26+AK26)/AL26</f>
+        <v>1.0599501829179074</v>
+      </c>
+      <c r="AP26" s="3">
         <f>($AI$26-L26)/48</f>
         <v>0.21390970735189149</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AQ26" s="3">
         <f>($AJ$26-M26)/48</f>
         <v>-5.5763740185581917E-4</v>
       </c>
-      <c r="AP26" s="3">
+      <c r="AR26" s="3">
         <f>($AK$26-N26)/48</f>
         <v>0.19718058529621696</v>
       </c>
-      <c r="AQ26" s="3">
+      <c r="AS26" s="3">
         <f>($AL$26-O26)/48</f>
         <v>0.2269669572704768</v>
       </c>
-      <c r="AS26" s="3">
-        <f>AVERAGE(AN26:AN29)</f>
-        <v>0.21874256483464191</v>
-      </c>
-      <c r="AT26" s="3">
-        <f t="shared" ref="AT26:AV26" si="43">AVERAGE(AO26:AO29)</f>
-        <v>-7.4351653580775716E-4</v>
-      </c>
       <c r="AU26" s="3">
-        <f t="shared" si="43"/>
-        <v>0.18491256245538901</v>
-      </c>
-      <c r="AV26" s="3">
-        <f t="shared" si="43"/>
-        <v>0.16524728231621999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28.931668115120356</v>
+      </c>
+      <c r="AW26" s="3">
+        <f>AP26/$AU$26</f>
+        <v>7.3936181799381748E-3</v>
+      </c>
+      <c r="AX26" s="3">
+        <f t="shared" ref="AX26:AZ29" si="53">AQ26/$AU$26</f>
+        <v>-1.927429139712774E-5</v>
+      </c>
+      <c r="AY26" s="3">
+        <f t="shared" si="53"/>
+        <v>6.815389438024344E-3</v>
+      </c>
+      <c r="AZ26" s="3">
+        <f t="shared" si="53"/>
+        <v>7.8449315942435635E-3</v>
+      </c>
+      <c r="BC26" s="3">
+        <f>AVERAGE(AW26:AW29)</f>
+        <v>7.560662038713281E-3</v>
+      </c>
+      <c r="BD26" s="3">
+        <f>AVERAGE(AX26:AX29)</f>
+        <v>-2.5699055196170259E-5</v>
+      </c>
+      <c r="BE26" s="3">
+        <f t="shared" ref="BE26:BF26" si="54">AVERAGE(AY26:AY29)</f>
+        <v>6.3913550272875356E-3</v>
+      </c>
+      <c r="BF26" s="3">
+        <f t="shared" si="54"/>
+        <v>5.711640326395765E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -6502,24 +7398,40 @@
         <f t="shared" si="8"/>
         <v>0.24561820921563962</v>
       </c>
-      <c r="AN27" s="3">
-        <f t="shared" ref="AN27:AN29" si="44">($AI$26-L27)/48</f>
+      <c r="AP27" s="3">
+        <f t="shared" ref="AP27:AP29" si="55">($AI$26-L27)/48</f>
         <v>0.21837080656673802</v>
       </c>
-      <c r="AO27" s="3">
-        <f t="shared" ref="AO27:AO29" si="45">($AJ$26-M27)/48</f>
+      <c r="AQ27" s="3">
+        <f t="shared" ref="AQ27:AQ29" si="56">($AJ$26-M27)/48</f>
         <v>-8.5504401617891856E-4</v>
       </c>
-      <c r="AP27" s="3">
-        <f t="shared" ref="AP27:AP29" si="46">($AK$26-N27)/48</f>
+      <c r="AR27" s="3">
+        <f t="shared" ref="AR27:AR29" si="57">($AK$26-N27)/48</f>
         <v>0.17636212229359979</v>
       </c>
-      <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27:AQ29" si="47">($AL$26-O27)/48</f>
+      <c r="AS27" s="3">
+        <f t="shared" ref="AS27:AS29" si="58">($AL$26-O27)/48</f>
         <v>0.20880421913679906</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW27" s="3">
+        <f t="shared" ref="AW27:AW29" si="59">AP27/$AU$26</f>
+        <v>7.5478125111151954E-3</v>
+      </c>
+      <c r="AX27" s="3">
+        <f t="shared" si="53"/>
+        <v>-2.9553913475595722E-5</v>
+      </c>
+      <c r="AY27" s="3">
+        <f t="shared" si="53"/>
+        <v>6.0958158925315782E-3</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f t="shared" si="53"/>
+        <v>7.2171510576562008E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -6572,24 +7484,40 @@
         <f t="shared" si="8"/>
         <v>5.1900195512522118E-2</v>
       </c>
-      <c r="AN28" s="3">
-        <f t="shared" si="44"/>
+      <c r="AP28" s="3">
+        <f t="shared" si="55"/>
         <v>0.22134487270996905</v>
       </c>
-      <c r="AO28" s="3">
-        <f t="shared" si="45"/>
+      <c r="AQ28" s="3">
+        <f t="shared" si="56"/>
         <v>-5.5763740185581917E-4</v>
       </c>
-      <c r="AP28" s="3">
-        <f t="shared" si="46"/>
+      <c r="AR28" s="3">
+        <f t="shared" si="57"/>
         <v>0.20907684986914107</v>
       </c>
-      <c r="AQ28" s="3">
-        <f t="shared" si="47"/>
+      <c r="AS28" s="3">
+        <f t="shared" si="58"/>
         <v>0.11126358841890001</v>
       </c>
-    </row>
-    <row r="29" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW28" s="3">
+        <f t="shared" si="59"/>
+        <v>7.6506087318998772E-3</v>
+      </c>
+      <c r="AX28" s="3">
+        <f t="shared" si="53"/>
+        <v>-1.927429139712774E-5</v>
+      </c>
+      <c r="AY28" s="3">
+        <f t="shared" si="53"/>
+        <v>7.2265743211630679E-3</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f t="shared" si="53"/>
+        <v>3.8457370648722149E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -6642,40 +7570,60 @@
         <f t="shared" si="8"/>
         <v>0.22348025220080892</v>
       </c>
-      <c r="AN29" s="3">
-        <f t="shared" si="44"/>
+      <c r="AP29" s="3">
+        <f t="shared" si="55"/>
         <v>0.22134487270996905</v>
       </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="45"/>
+      <c r="AQ29" s="3">
+        <f t="shared" si="56"/>
         <v>-1.0037473233404717E-3</v>
       </c>
-      <c r="AP29" s="3">
-        <f t="shared" si="46"/>
+      <c r="AR29" s="3">
+        <f t="shared" si="57"/>
         <v>0.15703069236259815</v>
       </c>
-      <c r="AQ29" s="3">
-        <f t="shared" si="47"/>
+      <c r="AS29" s="3">
+        <f t="shared" si="58"/>
         <v>0.1139543644387041</v>
+      </c>
+      <c r="AW29" s="3">
+        <f t="shared" si="59"/>
+        <v>7.6506087318998772E-3</v>
+      </c>
+      <c r="AX29" s="3">
+        <f t="shared" si="53"/>
+        <v>-3.4693724514829832E-5</v>
+      </c>
+      <c r="AY29" s="3">
+        <f t="shared" si="53"/>
+        <v>5.4276404574311529E-3</v>
+      </c>
+      <c r="AZ29" s="3">
+        <f t="shared" si="53"/>
+        <v>3.9387415888110832E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62A7E5F-9F35-4270-A2C5-2A0758E25CBF}">
-  <dimension ref="A1:AV56"/>
+  <dimension ref="A1:BG56"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AQ25" sqref="AQ25"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="57" max="57" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -6755,31 +7703,49 @@
         <v>53</v>
       </c>
       <c r="AN1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD1" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BE1" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BF1" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BG1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -6879,8 +7845,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="3" t="e">
+        <f>(AI2+AJ2+AK2)/AL2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -6937,7 +7907,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -6994,7 +7964,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -7051,7 +8021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7151,40 +8121,63 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="3" t="e">
+        <f>(AI6+AJ6+AK6)/AL6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6">
         <f>($AI$6-L6)/48</f>
         <v>-8.9221984296930772E-3</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <f>($AJ$6-M6)/48</f>
         <v>1.0780989769212472E-3</v>
       </c>
-      <c r="AP6">
+      <c r="AS6">
         <f>($AK$6-N6)/48</f>
         <v>5.0559124434927431E-2</v>
       </c>
-      <c r="AQ6">
+      <c r="AT6">
         <f>($AL$6-O6)/48</f>
         <v>0</v>
       </c>
-      <c r="AS6">
-        <f>AVERAGE(AN6:AN9)</f>
-        <v>-6.3198905543659298E-3</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" ref="AT6:AU6" si="11">AVERAGE(AO6:AO9)</f>
-        <v>6.6916488222698177E-4</v>
-      </c>
-      <c r="AU6">
+      <c r="AV6">
+        <v>3.3847973724573399</v>
+      </c>
+      <c r="AX6">
+        <f>AQ6/$AV$6</f>
+        <v>-2.6359623480845537E-3</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ref="AY6:BA9" si="11">AR6/$AV$6</f>
+        <v>3.18512117060217E-4</v>
+      </c>
+      <c r="AZ6">
         <f t="shared" si="11"/>
-        <v>3.4201760647156784E-2</v>
-      </c>
-      <c r="AV6">
-        <f>AVERAGE(AQ6:AQ9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+        <v>1.4937119972479136E-2</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <f>AVERAGE(AX6:AX9)</f>
+        <v>-1.8671399965598922E-3</v>
+      </c>
+      <c r="BE6">
+        <f>AVERAGE(AY6:AY9)</f>
+        <v>1.9769717610634179E-4</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6" si="12">AVERAGE(AZ6:AZ9)</f>
+        <v>1.010452233432412E-2</v>
+      </c>
+      <c r="BG6">
+        <f>AVERAGE(BA6:BA9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -7240,24 +8233,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN7">
-        <f t="shared" ref="AN7:AN9" si="12">($AI$6-L7)/48</f>
+      <c r="AQ7">
+        <f t="shared" ref="AQ7:AQ9" si="13">($AI$6-L7)/48</f>
         <v>-1.1896264572924102E-2</v>
       </c>
-      <c r="AO7">
-        <f t="shared" ref="AO7:AO9" si="13">($AJ$6-M7)/48</f>
+      <c r="AR7">
+        <f t="shared" ref="AR7:AR9" si="14">($AJ$6-M7)/48</f>
         <v>3.7175826790388868E-5</v>
       </c>
-      <c r="AP7">
-        <f t="shared" ref="AP7:AP9" si="14">($AK$6-N7)/48</f>
+      <c r="AS7">
+        <f t="shared" ref="AS7:AS8" si="15">($AK$6-N7)/48</f>
         <v>1.7844396859386144E-2</v>
       </c>
-      <c r="AQ7">
-        <f t="shared" ref="AQ7:AQ9" si="15">($AL$6-O7)/48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT7">
+        <f t="shared" ref="AT7:AT9" si="16">($AL$6-O7)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" ref="AX7:AX9" si="17">AQ7/$AV$6</f>
+        <v>-3.5146164641127382E-3</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="11"/>
+        <v>1.0983176450352616E-5</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="11"/>
+        <v>5.271924696169104E-3</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -7313,24 +8322,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8">
-        <f t="shared" si="12"/>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
         <v>-4.4610992148465386E-3</v>
       </c>
-      <c r="AO8">
-        <f t="shared" si="13"/>
+      <c r="AR8">
+        <f t="shared" si="14"/>
         <v>1.524208898405902E-3</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="14"/>
+      <c r="AS8">
+        <f t="shared" si="15"/>
         <v>5.3533190578158453E-2</v>
       </c>
-      <c r="AQ8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="17"/>
+        <v>-1.3179811740422769E-3</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="11"/>
+        <v>4.5031023446444497E-4</v>
+      </c>
+      <c r="AZ8">
+        <f>AS8/$AV$6</f>
+        <v>1.5815774088507317E-2</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -7386,24 +8411,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO9">
+      <c r="AQ9">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="14"/>
         <v>3.7175826790388868E-5</v>
       </c>
-      <c r="AP9">
+      <c r="AS9">
         <f>($AK$6-N9)/48</f>
         <v>1.4870330716155114E-2</v>
       </c>
-      <c r="AQ9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AT9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="11"/>
+        <v>1.0983176450352616E-5</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="11"/>
+        <v>4.3932705801409183E-3</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -7464,27 +8505,27 @@
         <v>7.4411134903640264</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" ref="X10:AF10" si="16">AVERAGE(M10:M13)</f>
+        <f t="shared" ref="X10:AF10" si="18">AVERAGE(M10:M13)</f>
         <v>0.71199143468950754</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1948608137044969</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.1531049250535332</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10.347965738758031</v>
       </c>
       <c r="AF10" s="3" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" s="3">
@@ -7503,40 +8544,63 @@
         <f>AL2</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="3" t="e">
+        <f>(AI10+AJ10+AK10)/AL10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="3">
         <f>($AI$10-L10)/48</f>
         <v>5.6655960028551035E-2</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AR10" s="3">
         <f>($AJ$10-M10)/48</f>
         <v>-8.5504401617892084E-4</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AS10" s="3">
         <f>($AK$10-N10)/48</f>
         <v>0.19048893647394718</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AT10" s="3">
         <f>($AL$10-O10)/48</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="3">
-        <f>AVERAGE(AN10:AN13)</f>
-        <v>5.331013561741612E-2</v>
-      </c>
-      <c r="AT10" s="3">
-        <f t="shared" ref="AT10:AV10" si="17">AVERAGE(AO10:AO13)</f>
-        <v>-9.6657149655008301E-4</v>
-      </c>
-      <c r="AU10" s="3">
-        <f t="shared" si="17"/>
-        <v>0.22060135617416132</v>
-      </c>
       <c r="AV10" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>25.724359058344241</v>
+      </c>
+      <c r="AX10" s="3">
+        <f>AQ10/$AV$10</f>
+        <v>2.2024245540987922E-3</v>
+      </c>
+      <c r="AY10" s="3">
+        <f t="shared" ref="AY10:BA13" si="19">AR10/$AV$10</f>
+        <v>-3.3238690777081548E-5</v>
+      </c>
+      <c r="AZ10" s="3">
+        <f t="shared" si="19"/>
+        <v>7.4050022409463323E-3</v>
+      </c>
+      <c r="BA10" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="3">
+        <f>AVERAGE(AX10:AX13)</f>
+        <v>2.0723601119276031E-3</v>
+      </c>
+      <c r="BE10" s="3">
+        <f t="shared" ref="BE10:BG10" si="20">AVERAGE(AY10:AY13)</f>
+        <v>-3.7574172182787779E-5</v>
+      </c>
+      <c r="BF10" s="3">
+        <f t="shared" si="20"/>
+        <v>8.5755822204870279E-3</v>
+      </c>
+      <c r="BG10" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -7592,24 +8656,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="3">
-        <f t="shared" ref="AN11:AN13" si="18">($AI$10-L11)/48</f>
+      <c r="AQ11" s="3">
+        <f t="shared" ref="AQ11:AQ13" si="21">($AI$10-L11)/48</f>
         <v>5.2194860813704481E-2</v>
       </c>
-      <c r="AO11" s="3">
-        <f t="shared" ref="AO11:AO13" si="19">($AJ$10-M11)/48</f>
+      <c r="AR11" s="3">
+        <f t="shared" ref="AR11:AR13" si="22">($AJ$10-M11)/48</f>
         <v>-1.3011539376635735E-3</v>
       </c>
-      <c r="AP11" s="3">
-        <f t="shared" ref="AP11:AP13" si="20">($AK$10-N11)/48</f>
+      <c r="AS11" s="3">
+        <f t="shared" ref="AS11:AS13" si="23">($AK$10-N11)/48</f>
         <v>0.2068463002617178</v>
       </c>
-      <c r="AQ11" s="3">
-        <f t="shared" ref="AQ11:AQ13" si="21">($AL$10-O11)/48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AT11" s="3">
+        <f t="shared" ref="AT11:AT13" si="24">($AL$10-O11)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <f t="shared" ref="AX11:AX13" si="25">AQ11/$AV$10</f>
+        <v>2.0290052978705398E-3</v>
+      </c>
+      <c r="AY11" s="3">
+        <f t="shared" si="19"/>
+        <v>-5.0580616399906635E-5</v>
+      </c>
+      <c r="AZ11" s="3">
+        <f t="shared" si="19"/>
+        <v>8.0408728471165862E-3</v>
+      </c>
+      <c r="BA11" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -7665,24 +8745,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="3">
-        <f t="shared" si="18"/>
-        <v>5.8142993100166539E-2</v>
-      </c>
-      <c r="AO12" s="3">
-        <f t="shared" si="19"/>
-        <v>-5.5763740185581689E-4</v>
-      </c>
-      <c r="AP12" s="3">
-        <f t="shared" si="20"/>
-        <v>0.26632762312633834</v>
-      </c>
       <c r="AQ12" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5.8142993100166539E-2</v>
+      </c>
+      <c r="AR12" s="3">
+        <f t="shared" si="22"/>
+        <v>-5.5763740185581689E-4</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="23"/>
+        <v>0.26632762312633834</v>
+      </c>
+      <c r="AT12" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="3">
+        <f t="shared" si="25"/>
+        <v>2.2602309728415419E-3</v>
+      </c>
+      <c r="AY12" s="3">
+        <f t="shared" si="19"/>
+        <v>-2.1677407028531403E-5</v>
+      </c>
+      <c r="AZ12" s="3">
+        <f t="shared" si="19"/>
+        <v>1.0353129596826605E-2</v>
+      </c>
+      <c r="BA12" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -7738,24 +8834,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN13" s="3">
-        <f t="shared" si="18"/>
-        <v>4.6246728527242431E-2</v>
-      </c>
-      <c r="AO13" s="3">
-        <f t="shared" si="19"/>
-        <v>-1.1524506305020203E-3</v>
-      </c>
-      <c r="AP13" s="3">
-        <f t="shared" si="20"/>
-        <v>0.21874256483464191</v>
-      </c>
       <c r="AQ13" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+        <v>4.6246728527242431E-2</v>
+      </c>
+      <c r="AR13" s="3">
+        <f t="shared" si="22"/>
+        <v>-1.1524506305020203E-3</v>
+      </c>
+      <c r="AS13" s="3">
+        <f t="shared" si="23"/>
+        <v>0.21874256483464191</v>
+      </c>
+      <c r="AT13" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="3">
+        <f t="shared" si="25"/>
+        <v>1.7977796228995382E-3</v>
+      </c>
+      <c r="AY13" s="3">
+        <f t="shared" si="19"/>
+        <v>-4.4799974525631513E-5</v>
+      </c>
+      <c r="AZ13" s="3">
+        <f t="shared" si="19"/>
+        <v>8.5033241970585895E-3</v>
+      </c>
+      <c r="BA13" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7816,27 +8928,27 @@
         <v>0.39257673090649536</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14:AF14" si="22">AVERAGE(M14:M17)</f>
+        <f t="shared" ref="X14:AF14" si="26">AVERAGE(M14:M17)</f>
         <v>0.63704496788008569</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.7130620985010707</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.437843073942525</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0296216987865809</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.7426837972876519</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.1495016913498617</v>
       </c>
       <c r="AI14">
@@ -7844,51 +8956,74 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" ref="AJ14:AK14" si="23">AJ2</f>
+        <f t="shared" ref="AJ14:AK14" si="27">AJ2</f>
         <v>0.66559600285510356</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.7837259100642395</v>
       </c>
       <c r="AL14">
         <f>AL2+5</f>
         <v>5</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AN14" s="3">
+        <f>(AI14+AJ14+AK14)/AL14</f>
+        <v>0.68986438258386862</v>
+      </c>
+      <c r="AQ14">
         <f>($AI$14-L14)/48</f>
         <v>0</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AR14">
         <f>($AJ$14-M14)/48</f>
         <v>6.3198905543659456E-4</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AS14">
         <f>($AK$14-N14)/48</f>
         <v>5.7994289793004992E-2</v>
       </c>
-      <c r="AQ14" s="11">
+      <c r="AT14">
         <f>($AL$14-O14)/48</f>
         <v>4.9005758260682375E-2</v>
       </c>
-      <c r="AS14">
-        <f>AVERAGE(AN14:AN17)</f>
-        <v>-8.1786818938853201E-3</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" ref="AT14:AV14" si="24">AVERAGE(AO14:AO17)</f>
-        <v>5.9481322864620627E-4</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="24"/>
-        <v>2.2305496074232684E-2</v>
-      </c>
       <c r="AV14">
-        <f t="shared" si="24"/>
-        <v>5.3378269292864058E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+        <v>5.0568458422933649</v>
+      </c>
+      <c r="AX14">
+        <f>AQ14/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" ref="AY14:BA17" si="28">AR14/$AV$14</f>
+        <v>1.2497692734686507E-4</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="28"/>
+        <v>1.1468470980065235E-2</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="28"/>
+        <v>9.6909733436638511E-3</v>
+      </c>
+      <c r="BD14">
+        <f>AVERAGE(AX14:AX17)</f>
+        <v>-1.6173484715476614E-3</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" ref="BE14:BG14" si="29">AVERAGE(AY14:AY17)</f>
+        <v>1.176253433852847E-4</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="29"/>
+        <v>4.4109503769481665E-3</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="29"/>
+        <v>1.0555644952913201E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -7944,24 +9079,40 @@
         <f t="shared" si="8"/>
         <v>2.677584421590212</v>
       </c>
-      <c r="AN15" s="11">
-        <f t="shared" ref="AN15:AN17" si="25">($AI$14-L15)/48</f>
+      <c r="AQ15">
+        <f t="shared" ref="AQ15:AQ17" si="30">($AI$14-L15)/48</f>
         <v>-1.040923150130859E-2</v>
       </c>
-      <c r="AO15" s="11">
-        <f t="shared" ref="AO15:AO17" si="26">($AJ$14-M15)/48</f>
+      <c r="AR15">
+        <f t="shared" ref="AR15:AR16" si="31">($AJ$14-M15)/48</f>
         <v>4.8328574827504373E-4</v>
       </c>
-      <c r="AP15" s="11">
-        <f t="shared" ref="AP15:AP17" si="27">($AK$14-N15)/48</f>
+      <c r="AS15">
+        <f t="shared" ref="AS15:AS17" si="32">($AK$14-N15)/48</f>
         <v>-4.6098025220080906E-2</v>
       </c>
-      <c r="AQ15" s="11">
-        <f t="shared" ref="AQ15:AQ17" si="28">($AL$14-O15)/48</f>
+      <c r="AT15">
+        <f t="shared" ref="AT15:AT17" si="33">($AL$14-O15)/48</f>
         <v>5.6405392315143688E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX15">
+        <f t="shared" ref="AX15:AX17" si="34">AQ15/$AV$14</f>
+        <v>-2.0584435092424781E-3</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="28"/>
+        <v>9.5570591500544042E-5</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="28"/>
+        <v>-9.1159641123595477E-3</v>
+      </c>
+      <c r="BA15">
+        <f>AT15/$AV$14</f>
+        <v>1.1154263759316597E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -8017,24 +9168,40 @@
         <f t="shared" si="8"/>
         <v>1.1591981337372259</v>
       </c>
-      <c r="AN16" s="11">
-        <f t="shared" si="25"/>
+      <c r="AQ16">
+        <f t="shared" si="30"/>
         <v>-1.1896264572924102E-2</v>
       </c>
-      <c r="AO16" s="11">
-        <f t="shared" si="26"/>
+      <c r="AR16">
+        <f t="shared" si="31"/>
         <v>4.8328574827504373E-4</v>
       </c>
-      <c r="AP16" s="11">
-        <f t="shared" si="27"/>
+      <c r="AS16">
+        <f t="shared" si="32"/>
         <v>1.9331429931001658E-2</v>
       </c>
-      <c r="AQ16" s="11">
+      <c r="AT16">
+        <f t="shared" si="33"/>
+        <v>4.9005758260682375E-2</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="34"/>
+        <v>-2.3525068677056893E-3</v>
+      </c>
+      <c r="AY16">
         <f t="shared" si="28"/>
-        <v>4.9005758260682375E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+        <v>9.5570591500544042E-5</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="28"/>
+        <v>3.8228236600217438E-3</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="28"/>
+        <v>9.6909733436638511E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -8090,24 +9257,40 @@
         <f t="shared" si="8"/>
         <v>0.52129715448453662</v>
       </c>
-      <c r="AN17" s="11">
-        <f t="shared" si="25"/>
+      <c r="AQ17">
+        <f t="shared" si="30"/>
         <v>-1.040923150130859E-2</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AR17">
         <f>($AJ$14-M17)/48</f>
         <v>7.8069236259814317E-4</v>
       </c>
-      <c r="AP17" s="11">
-        <f t="shared" si="27"/>
+      <c r="AS17">
+        <f t="shared" si="32"/>
         <v>5.7994289793004992E-2</v>
       </c>
-      <c r="AQ17" s="11">
+      <c r="AT17">
+        <f t="shared" si="33"/>
+        <v>5.9096168334947796E-2</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="34"/>
+        <v>-2.0584435092424781E-3</v>
+      </c>
+      <c r="AY17">
         <f t="shared" si="28"/>
-        <v>5.9096168334947796E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1.5438326319318566E-4</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="28"/>
+        <v>1.1468470980065235E-2</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="28"/>
+        <v>1.1686369365008503E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -8168,27 +9351,27 @@
         <v>0.94575303354746609</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" ref="X18:AF18" si="29">AVERAGE(M18:M21)</f>
+        <f t="shared" ref="X18:AF18" si="35">AVERAGE(M18:M21)</f>
         <v>0.63347608850820847</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>16.015498869874072</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1.5792291220556745</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1.5792291220556745</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>9.7636503625186957E-2</v>
       </c>
       <c r="AI18" s="3">
@@ -8196,11 +9379,11 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" ref="AJ18:AK18" si="30">AJ2</f>
+        <f t="shared" ref="AJ18:AK18" si="36">AJ2</f>
         <v>0.66559600285510356</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.7837259100642395</v>
       </c>
       <c r="AL18" s="3">
@@ -8208,39 +9391,62 @@
         <v>20</v>
       </c>
       <c r="AN18" s="3">
+        <f>(AI18+AJ18+AK18)/AL18</f>
+        <v>0.17246609564596715</v>
+      </c>
+      <c r="AQ18" s="3">
         <f>($AI$18-L18)/48</f>
         <v>-7.8812752795622179E-2</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AR18" s="3">
         <f>($AJ$18-M18)/48</f>
         <v>3.3458244111349056E-4</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AS18" s="3">
         <f>($AK$18-N18)/48</f>
         <v>5.7994289793004992E-2</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AT18" s="3">
         <f>($AL$18-O18)/48</f>
         <v>7.5610806156495514E-2</v>
       </c>
-      <c r="AS18" s="3">
-        <f>AVERAGE(AN18:AN21)</f>
-        <v>-1.9703188198905545E-2</v>
-      </c>
-      <c r="AT18" s="3">
-        <f t="shared" ref="AT18:AV18" si="31">AVERAGE(AO18:AO21)</f>
-        <v>6.6916488222698231E-4</v>
-      </c>
-      <c r="AU18" s="3">
-        <f t="shared" si="31"/>
-        <v>5.7994289793004992E-2</v>
-      </c>
       <c r="AV18" s="3">
-        <f t="shared" si="31"/>
-        <v>8.301044021095684E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4.7024356124302695</v>
+      </c>
+      <c r="AX18" s="3">
+        <f>AQ18/$AV$18</f>
+        <v>-1.67599855247972E-2</v>
+      </c>
+      <c r="AY18" s="3">
+        <f t="shared" ref="AY18:BA21" si="37">AR18/$AV$18</f>
+        <v>7.1150881944893819E-5</v>
+      </c>
+      <c r="AZ18" s="3">
+        <f t="shared" si="37"/>
+        <v>1.233281953711492E-2</v>
+      </c>
+      <c r="BA18" s="3">
+        <f t="shared" si="37"/>
+        <v>1.6079073141720069E-2</v>
+      </c>
+      <c r="BD18" s="3">
+        <f>AVERAGE(AX18:AX21)</f>
+        <v>-4.1899963811993001E-3</v>
+      </c>
+      <c r="BE18" s="3">
+        <f t="shared" ref="BE18:BF18" si="38">AVERAGE(AY18:AY21)</f>
+        <v>1.4230176388978788E-4</v>
+      </c>
+      <c r="BF18" s="3">
+        <f t="shared" si="38"/>
+        <v>1.233281953711492E-2</v>
+      </c>
+      <c r="BG18" s="3">
+        <f>AVERAGE(BA18:BA21)</f>
+        <v>1.7652647915375953E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -8296,24 +9502,40 @@
         <f t="shared" si="8"/>
         <v>4.0573640889418949E-2</v>
       </c>
-      <c r="AN19" s="3">
-        <f t="shared" ref="AN19:AN21" si="32">($AI$18-L19)/48</f>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="3">
-        <f t="shared" ref="AO19:AO21" si="33">($AJ$18-M19)/48</f>
+      <c r="AQ19" s="3">
+        <f t="shared" ref="AQ19:AQ21" si="39">($AI$18-L19)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="3">
+        <f t="shared" ref="AR19:AR21" si="40">($AJ$18-M19)/48</f>
         <v>9.2939566975969862E-4</v>
       </c>
-      <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AP21" si="34">($AK$18-N19)/48</f>
+      <c r="AS19" s="3">
+        <f t="shared" ref="AS19:AS21" si="41">($AK$18-N19)/48</f>
         <v>5.7994289793004992E-2</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AT19" s="3">
         <f>($AL$18-O19)/48</f>
         <v>9.7809708319879493E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX19" s="3">
+        <f t="shared" ref="AX19:AX21" si="42">AQ19/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="3">
+        <f>AR19/$AV$18</f>
+        <v>1.9764133873581671E-4</v>
+      </c>
+      <c r="AZ19" s="3">
+        <f t="shared" si="37"/>
+        <v>1.233281953711492E-2</v>
+      </c>
+      <c r="BA19" s="3">
+        <f t="shared" si="37"/>
+        <v>2.079979746268772E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -8369,24 +9591,40 @@
         <f t="shared" si="8"/>
         <v>4.5294404728407477E-2</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AQ20" s="3">
         <f>($AI$18-L20)/48</f>
         <v>0</v>
       </c>
-      <c r="AO20" s="3">
-        <f t="shared" si="33"/>
+      <c r="AR20" s="3">
+        <f t="shared" si="40"/>
         <v>1.8587913395194203E-4</v>
       </c>
-      <c r="AP20" s="3">
-        <f t="shared" si="34"/>
+      <c r="AS20" s="3">
+        <f t="shared" si="41"/>
         <v>5.7994289793004992E-2</v>
       </c>
-      <c r="AQ20" s="3">
-        <f t="shared" ref="AQ19:AQ21" si="35">($AL$18-O20)/48</f>
+      <c r="AT20" s="3">
+        <f t="shared" ref="AT20:AT21" si="43">($AL$18-O20)/48</f>
         <v>0.11462705844365513</v>
       </c>
-    </row>
-    <row r="21" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX20" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="3">
+        <f t="shared" si="37"/>
+        <v>3.9528267747163835E-5</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f t="shared" si="37"/>
+        <v>1.233281953711492E-2</v>
+      </c>
+      <c r="BA20" s="3">
+        <f t="shared" si="37"/>
+        <v>2.4376103766451069E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -8442,24 +9680,40 @@
         <f t="shared" si="8"/>
         <v>3.3916593871834717E-2</v>
       </c>
-      <c r="AN21" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AO21" s="3">
-        <f t="shared" si="33"/>
+      <c r="AQ21" s="3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="3">
+        <f t="shared" si="40"/>
         <v>1.226802284082798E-3</v>
       </c>
-      <c r="AP21" s="3">
-        <f t="shared" si="34"/>
+      <c r="AS21" s="3">
+        <f t="shared" si="41"/>
         <v>5.7994289793004992E-2</v>
       </c>
-      <c r="AQ21" s="3">
-        <f t="shared" si="35"/>
+      <c r="AT21" s="3">
+        <f t="shared" si="43"/>
         <v>4.3994187923797202E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX21" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3">
+        <f t="shared" si="37"/>
+        <v>2.6088656713127716E-4</v>
+      </c>
+      <c r="AZ21" s="3">
+        <f t="shared" si="37"/>
+        <v>1.233281953711492E-2</v>
+      </c>
+      <c r="BA21" s="3">
+        <f t="shared" si="37"/>
+        <v>9.3556172906449492E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -8520,79 +9774,102 @@
         <v>1.7844396859386154E-2</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:AF22" si="36">AVERAGE(M22:M25)</f>
+        <f t="shared" ref="X22:AF22" si="44">AVERAGE(M22:M25)</f>
         <v>0.64596716630977868</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>1.8566354536648371</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0.6638115631691649</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0.6638115631691649</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0.36058412552717789</v>
       </c>
-      <c r="AI22" s="11">
+      <c r="AI22">
         <f>AI2+10</f>
         <v>10</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AJ22">
         <f>AJ2</f>
         <v>0.66559600285510356</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AK22">
         <f>AK2+10</f>
         <v>12.78372591006424</v>
       </c>
-      <c r="AL22" s="11">
+      <c r="AL22">
         <f>AL2+5</f>
         <v>5</v>
       </c>
-      <c r="AN22" s="11">
+      <c r="AN22" s="3">
+        <f>(AI22+AJ22+AK22)/AL22</f>
+        <v>4.6898643825838686</v>
+      </c>
+      <c r="AQ22">
         <f>($AI$22-L22)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO22" s="11">
+      <c r="AR22">
         <f>($AJ$22-M22)/48</f>
         <v>-4.0893409469426367E-4</v>
       </c>
-      <c r="AP22" s="11">
+      <c r="AS22">
         <f>($AK$22-N22)/48</f>
         <v>0.26632762312633834</v>
       </c>
-      <c r="AQ22" s="11">
+      <c r="AT22">
         <f>($AL$22-O22)/48</f>
         <v>6.7841190399311149E-2</v>
       </c>
-      <c r="AS22">
-        <f>AVERAGE(AN22:AN25)</f>
-        <v>0.20796157506542948</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" ref="AT22:AV22" si="37">AVERAGE(AO22:AO25)</f>
-        <v>4.0893409469426774E-4</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="37"/>
-        <v>0.26632762312633834</v>
-      </c>
       <c r="AV22">
-        <f t="shared" si="37"/>
-        <v>6.5486761381982561E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+        <v>49.068871948386743</v>
+      </c>
+      <c r="AX22">
+        <f>AQ22/$AV$22</f>
+        <v>4.2457330902668693E-3</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" ref="AY22:BA25" si="45">AR22/$AV$22</f>
+        <v>-8.3338800843924508E-6</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="45"/>
+        <v>5.4276288113261689E-3</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="45"/>
+        <v>1.3825708174149617E-3</v>
+      </c>
+      <c r="BD22">
+        <f>AVERAGE(AX22:AX25)</f>
+        <v>4.2381568356446939E-3</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" ref="BE22:BG22" si="46">AVERAGE(AY22:AY25)</f>
+        <v>8.3338800843925338E-6</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="46"/>
+        <v>5.4276288113261689E-3</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="46"/>
+        <v>1.3345886869146908E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -8648,28 +9925,40 @@
         <f t="shared" si="8"/>
         <v>0.40040402407983522</v>
       </c>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AN23" s="11">
-        <f t="shared" ref="AN23:AN25" si="38">($AI$22-L23)/48</f>
+      <c r="AQ23">
+        <f t="shared" ref="AQ23:AQ25" si="47">($AI$22-L23)/48</f>
         <v>0.20684630026171782</v>
       </c>
-      <c r="AO23" s="11">
-        <f t="shared" ref="AO23:AO25" si="39">($AJ$22-M23)/48</f>
+      <c r="AR23">
+        <f t="shared" ref="AR23:AR25" si="48">($AJ$22-M23)/48</f>
         <v>1.0780989769212472E-3</v>
       </c>
-      <c r="AP23" s="11">
-        <f t="shared" ref="AP23:AP25" si="40">($AK$22-N23)/48</f>
+      <c r="AS23">
+        <f t="shared" ref="AS23:AS25" si="49">($AK$22-N23)/48</f>
         <v>0.26632762312633834</v>
       </c>
-      <c r="AQ23" s="11">
-        <f t="shared" ref="AQ23:AQ25" si="41">($AL$22-O23)/48</f>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT25" si="50">($AL$22-O23)/48</f>
         <v>6.851388440426219E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX23">
+        <f t="shared" ref="AX23:AX25" si="51">AQ23/$AV$22</f>
+        <v>4.2154280717781696E-3</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="45"/>
+        <v>2.1971138404307506E-5</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="45"/>
+        <v>5.4276288113261689E-3</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="45"/>
+        <v>1.3962799975578968E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -8725,28 +10014,40 @@
         <f t="shared" si="8"/>
         <v>0.34844481544659384</v>
       </c>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AN24" s="11">
-        <f t="shared" si="38"/>
+      <c r="AQ24">
+        <f t="shared" si="47"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO24" s="11">
-        <f t="shared" si="39"/>
+      <c r="AR24">
+        <f t="shared" si="48"/>
         <v>3.7175826790388868E-5</v>
       </c>
-      <c r="AP24" s="11">
-        <f t="shared" si="40"/>
+      <c r="AS24">
+        <f t="shared" si="49"/>
         <v>0.26632762312633834</v>
       </c>
-      <c r="AQ24" s="11">
-        <f t="shared" si="41"/>
+      <c r="AT24">
+        <f t="shared" si="50"/>
         <v>6.4477720374556027E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX24">
+        <f t="shared" si="51"/>
+        <v>4.2457330902668693E-3</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="45"/>
+        <v>7.5762546221752123E-7</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="45"/>
+        <v>5.4276288113261689E-3</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="45"/>
+        <v>1.3140249167002888E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -8802,24 +10103,40 @@
         <f t="shared" si="8"/>
         <v>0.30049852783725906</v>
       </c>
-      <c r="AN25" s="11">
-        <f t="shared" si="38"/>
+      <c r="AQ25">
+        <f t="shared" si="47"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO25" s="11">
-        <f t="shared" si="39"/>
+      <c r="AR25">
+        <f t="shared" si="48"/>
         <v>9.2939566975969862E-4</v>
       </c>
-      <c r="AP25" s="11">
-        <f t="shared" si="40"/>
+      <c r="AS25">
+        <f t="shared" si="49"/>
         <v>0.26632762312633834</v>
       </c>
-      <c r="AQ25" s="11">
-        <f t="shared" si="41"/>
+      <c r="AT25">
+        <f t="shared" si="50"/>
         <v>6.1114250349800885E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX25">
+        <f t="shared" si="51"/>
+        <v>4.2457330902668693E-3</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="45"/>
+        <v>1.894063655543756E-5</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="45"/>
+        <v>5.4276288113261689E-3</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="45"/>
+        <v>1.2454790159856152E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -8880,27 +10197,27 @@
         <v>0.7137758743754461</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" ref="X26:AF26" si="42">AVERAGE(M26:M29)</f>
+        <f t="shared" ref="X26:AF26" si="52">AVERAGE(M26:M29)</f>
         <v>0.66202712348322623</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>14.505973522763966</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>1.3758029978586723</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>1.3758029978586723</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>9.7452976693740548E-2</v>
       </c>
       <c r="AI26" s="3">
@@ -8920,39 +10237,62 @@
         <v>20</v>
       </c>
       <c r="AN26" s="3">
+        <f>(AI26+AJ26+AK26)/AL26</f>
+        <v>1.1724660956459672</v>
+      </c>
+      <c r="AQ26" s="3">
         <f>($AI$26-L26)/48</f>
         <v>0.19941113490364026</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AR26" s="3">
         <f>($AJ$26-M26)/48</f>
         <v>-2.6023078753271284E-4</v>
       </c>
-      <c r="AP26" s="3">
+      <c r="AS26" s="3">
         <f>($AK$26-N26)/48</f>
         <v>0.26632762312633834</v>
       </c>
-      <c r="AQ26" s="3">
+      <c r="AT26" s="3">
         <f>($AL$26-O26)/48</f>
         <v>0.12135399849316542</v>
       </c>
-      <c r="AS26" s="3">
-        <f>AVERAGE(AN26:AN29)</f>
-        <v>0.19346300261717822</v>
-      </c>
-      <c r="AT26" s="3">
-        <f t="shared" ref="AT26:AV26" si="43">AVERAGE(AO26:AO29)</f>
-        <v>7.4351653580777152E-5</v>
-      </c>
-      <c r="AU26" s="3">
-        <f t="shared" si="43"/>
-        <v>0.26632762312633834</v>
-      </c>
       <c r="AV26" s="3">
-        <f t="shared" si="43"/>
-        <v>0.11445888494241736</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51.238594684992336</v>
+      </c>
+      <c r="AX26" s="3">
+        <f>AQ26/$AV$26</f>
+        <v>3.8918150688868778E-3</v>
+      </c>
+      <c r="AY26" s="3">
+        <f t="shared" ref="AY26:BA29" si="53">AR26/$AV$26</f>
+        <v>-5.0788041540283273E-6</v>
+      </c>
+      <c r="AZ26" s="3">
+        <f t="shared" si="53"/>
+        <v>5.197793279922743E-3</v>
+      </c>
+      <c r="BA26" s="3">
+        <f t="shared" si="53"/>
+        <v>2.3684099698524658E-3</v>
+      </c>
+      <c r="BD26" s="3">
+        <f>AVERAGE(AX26:AX29)</f>
+        <v>3.7757281167948012E-3</v>
+      </c>
+      <c r="BE26" s="3">
+        <f>AVERAGE(AY26:AY29)</f>
+        <v>1.4510869011509908E-6</v>
+      </c>
+      <c r="BF26" s="3">
+        <f t="shared" ref="BF26:BG26" si="54">AVERAGE(AZ26:AZ29)</f>
+        <v>5.197793279922743E-3</v>
+      </c>
+      <c r="BG26" s="3">
+        <f t="shared" si="54"/>
+        <v>2.2338412215653939E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -9008,24 +10348,40 @@
         <f t="shared" si="8"/>
         <v>6.3227918922541287E-2</v>
       </c>
-      <c r="AN27" s="3">
-        <f t="shared" ref="AN27:AN29" si="44">($AI$26-L27)/48</f>
+      <c r="AQ27" s="3">
+        <f t="shared" ref="AQ27:AQ29" si="55">($AI$26-L27)/48</f>
         <v>0.2023852010468713</v>
       </c>
-      <c r="AO27" s="3">
-        <f t="shared" ref="AO27:AO29" si="45">($AJ$26-M27)/48</f>
+      <c r="AR27" s="3">
+        <f t="shared" ref="AR27:AR29" si="56">($AJ$26-M27)/48</f>
         <v>3.3458244111349056E-4</v>
       </c>
-      <c r="AP27" s="3">
-        <f t="shared" ref="AP27:AP29" si="46">($AK$26-N27)/48</f>
+      <c r="AS27" s="3">
+        <f t="shared" ref="AS27:AS29" si="57">($AK$26-N27)/48</f>
         <v>0.26632762312633834</v>
       </c>
-      <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27:AQ29" si="47">($AL$26-O27)/48</f>
+      <c r="AT27" s="3">
+        <f t="shared" ref="AT27:AT29" si="58">($AL$26-O27)/48</f>
         <v>0.10857281239909584</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX27" s="3">
+        <f t="shared" ref="AX27:AX29" si="59">AQ27/$AV$26</f>
+        <v>3.9498585449329162E-3</v>
+      </c>
+      <c r="AY27" s="3">
+        <f t="shared" si="53"/>
+        <v>6.5298910551793289E-6</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f t="shared" si="53"/>
+        <v>5.197793279922743E-3</v>
+      </c>
+      <c r="BA27" s="3">
+        <f t="shared" si="53"/>
+        <v>2.1189654608325267E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -9081,24 +10437,40 @@
         <f t="shared" si="8"/>
         <v>0.20691297008568693</v>
       </c>
-      <c r="AN28" s="3">
-        <f t="shared" si="44"/>
+      <c r="AQ28" s="3">
+        <f t="shared" si="55"/>
         <v>0.16372234118486795</v>
       </c>
-      <c r="AO28" s="3">
-        <f t="shared" si="45"/>
+      <c r="AR28" s="3">
+        <f t="shared" si="56"/>
         <v>-2.6023078753271284E-4</v>
       </c>
-      <c r="AP28" s="3">
-        <f t="shared" si="46"/>
+      <c r="AS28" s="3">
+        <f t="shared" si="57"/>
         <v>0.26632762312633834</v>
       </c>
-      <c r="AQ28" s="3">
-        <f t="shared" si="47"/>
+      <c r="AT28" s="3">
+        <f t="shared" si="58"/>
         <v>0.13278979657733289</v>
       </c>
-    </row>
-    <row r="29" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX28" s="3">
+        <f t="shared" si="59"/>
+        <v>3.1952933563344165E-3</v>
+      </c>
+      <c r="AY28" s="3">
+        <f t="shared" si="53"/>
+        <v>-5.0788041540283273E-6</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f t="shared" si="53"/>
+        <v>5.197793279922743E-3</v>
+      </c>
+      <c r="BA28" s="3">
+        <f t="shared" si="53"/>
+        <v>2.5915971621334631E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -9154,30 +10526,46 @@
         <f t="shared" si="8"/>
         <v>4.1621495703905456E-2</v>
       </c>
-      <c r="AN29" s="3">
-        <f t="shared" si="44"/>
+      <c r="AQ29" s="3">
+        <f t="shared" si="55"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="45"/>
+      <c r="AR29" s="3">
+        <f t="shared" si="56"/>
         <v>4.8328574827504373E-4</v>
       </c>
-      <c r="AP29" s="3">
-        <f t="shared" si="46"/>
+      <c r="AS29" s="3">
+        <f t="shared" si="57"/>
         <v>0.26632762312633834</v>
       </c>
-      <c r="AQ29" s="3">
-        <f t="shared" si="47"/>
+      <c r="AT29" s="3">
+        <f t="shared" si="58"/>
         <v>9.5118932300075357E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX29" s="3">
+        <f t="shared" si="59"/>
+        <v>4.0659454970249937E-3</v>
+      </c>
+      <c r="AY29" s="3">
+        <f t="shared" si="53"/>
+        <v>9.432064857481289E-6</v>
+      </c>
+      <c r="AZ29" s="3">
+        <f t="shared" si="53"/>
+        <v>5.197793279922743E-3</v>
+      </c>
+      <c r="BA29" s="3">
+        <f t="shared" si="53"/>
+        <v>1.8563922934431195E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -9260,15 +10648,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8257607C-E753-4F63-B3B1-003646E65911}">
-  <dimension ref="A1:AV56"/>
+  <dimension ref="A1:BG56"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AS6" sqref="AS6:AV26"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="57" max="57" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -9348,31 +10739,49 @@
         <v>53</v>
       </c>
       <c r="AN1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD1" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BE1" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BF1" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BG1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -9472,8 +10881,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="3" t="e">
+        <f>(AI2+AJ2+AK2)/AL2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -9530,7 +10943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -9587,7 +11000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -9644,7 +11057,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9705,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:AF6" si="9">AVERAGE(M6:M9)</f>
+        <f t="shared" ref="X6:AD6" si="9">AVERAGE(M6:M9)</f>
         <v>0.36045681655960027</v>
       </c>
       <c r="Y6">
@@ -9725,7 +11138,7 @@
         <v>0.41399000713775874</v>
       </c>
       <c r="AF6" t="e">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(U6:U9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI6">
@@ -9744,40 +11157,63 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="3" t="e">
+        <f>(AI6+AJ6+AK6)/AL6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6">
         <f>($AI$6-L6)/48</f>
         <v>0</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <f>($AJ$6-M6)/48</f>
         <v>6.6916488222698003E-4</v>
       </c>
-      <c r="AP6">
+      <c r="AS6">
         <f>($AK$6-N6)/48</f>
         <v>-4.4610992148465386E-3</v>
       </c>
-      <c r="AQ6">
+      <c r="AT6">
         <f>($AL$6-O6)/48</f>
         <v>0</v>
       </c>
-      <c r="AS6">
-        <f>AVERAGE(AN6:AN9)</f>
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" ref="AT6:AU6" si="11">AVERAGE(AO6:AO9)</f>
-        <v>1.4870330716155062E-4</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" si="11"/>
-        <v>-1.1152748037116347E-3</v>
-      </c>
       <c r="AV6">
-        <f>AVERAGE(AQ6:AQ9)</f>
-        <v>-1.1267624582929717E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+        <v>4.1503204500146857</v>
+      </c>
+      <c r="AX6">
+        <f>AQ6/$AV$6</f>
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <f>AR6/$AV$6</f>
+        <v>1.6123210009593651E-4</v>
+      </c>
+      <c r="AZ6">
+        <f>AS6/$AV$6</f>
+        <v>-1.0748806673062446E-3</v>
+      </c>
+      <c r="BA6">
+        <f>AT6/$AV$6</f>
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <f>AVERAGE(AX6:AX9)</f>
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <f>AVERAGE(AY6:AY9)</f>
+        <v>3.5829355576874665E-5</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6" si="11">AVERAGE(AZ6:AZ9)</f>
+        <v>-2.6872016682656115E-4</v>
+      </c>
+      <c r="BG6">
+        <f>AVERAGE(BA6:BA9)</f>
+        <v>-2.7148806263597902E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -9833,24 +11269,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN7">
-        <f t="shared" ref="AN7:AN9" si="12">($AI$6-L7)/48</f>
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" ref="AO7:AO9" si="13">($AJ$6-M7)/48</f>
+      <c r="AQ7">
+        <f t="shared" ref="AQ7:AQ9" si="12">($AI$6-L7)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" ref="AR7:AR9" si="13">($AJ$6-M7)/48</f>
         <v>8.1786818938853201E-4</v>
       </c>
-      <c r="AP7">
-        <f t="shared" ref="AP7:AP9" si="14">($AK$6-N7)/48</f>
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" ref="AQ7:AQ9" si="15">($AL$6-O7)/48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AS7">
+        <f t="shared" ref="AS7:AS8" si="14">($AK$6-N7)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ref="AT7:AT9" si="15">($AL$6-O7)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f>AQ7/$AV$6</f>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <f>AR7/$AV$6</f>
+        <v>1.970614556728115E-4</v>
+      </c>
+      <c r="AZ7">
+        <f>AS7/$AV$6</f>
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <f>AT7/$AV$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -9903,27 +11355,43 @@
         <v>0.43540328336902218</v>
       </c>
       <c r="U8">
-        <f t="shared" si="8"/>
+        <f>S8/O8</f>
         <v>0.20126029381997934</v>
       </c>
-      <c r="AN8">
+      <c r="AQ8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AO8">
+      <c r="AR8">
         <f t="shared" si="13"/>
         <v>-1.4126814180347388E-3</v>
       </c>
-      <c r="AP8">
+      <c r="AS8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ8">
+      <c r="AT8">
         <f t="shared" si="15"/>
         <v>-4.5070498331718868E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX8">
+        <f>AQ8/$AV$6</f>
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <f>AR8/$AV$6</f>
+        <v>-3.4037887798031113E-4</v>
+      </c>
+      <c r="AZ8">
+        <f>AS8/$AV$6</f>
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <f>AT8/$AV$6</f>
+        <v>-1.0859522505439161E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -9979,24 +11447,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9">
+      <c r="AQ9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AO9">
+      <c r="AR9">
         <f t="shared" si="13"/>
         <v>5.2046157506542914E-4</v>
       </c>
-      <c r="AP9">
+      <c r="AS9">
         <f>($AK$6-N9)/48</f>
         <v>0</v>
       </c>
-      <c r="AQ9">
+      <c r="AT9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX9">
+        <f>AQ9/$AV$6</f>
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <f>AR9/$AV$6</f>
+        <v>1.2540274451906179E-4</v>
+      </c>
+      <c r="AZ9">
+        <f>AS9/$AV$6</f>
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <f>AT9/$AV$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -10096,40 +11580,63 @@
         <f>AL2</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="3" t="e">
+        <f>(AI10+AJ10+AK10)/AL10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="3">
         <f>($AI$10-L10)/48</f>
         <v>0.14290387818225078</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AR10" s="3">
         <f>($AJ$10-M10)/48</f>
         <v>-1.1152748037116349E-3</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AS10" s="3">
         <f>($AK$10-N10)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AT10" s="3">
         <f>($AL$10-O10)/48</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="3">
-        <f>AVERAGE(AN10:AN13)</f>
-        <v>0.15480014275517487</v>
-      </c>
-      <c r="AT10" s="3">
-        <f t="shared" ref="AT10:AV10" si="17">AVERAGE(AO10:AO13)</f>
-        <v>-7.4351653580775716E-4</v>
-      </c>
-      <c r="AU10" s="3">
+      <c r="AV10" s="3">
+        <v>26.545525015867288</v>
+      </c>
+      <c r="AX10" s="3">
+        <f>AQ10/$AV$10</f>
+        <v>5.383350982767589E-3</v>
+      </c>
+      <c r="AY10" s="3">
+        <f>AR10/$AV$10</f>
+        <v>-4.201366531816538E-5</v>
+      </c>
+      <c r="AZ10" s="3">
+        <f>AS10/$AV$10</f>
+        <v>7.8481526814332906E-3</v>
+      </c>
+      <c r="BA10" s="3">
+        <f>AT10/$AV$10</f>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="3">
+        <f>AVERAGE(AX10:AX13)</f>
+        <v>5.8314967461613534E-3</v>
+      </c>
+      <c r="BE10" s="3">
+        <f t="shared" ref="BE10:BG10" si="17">AVERAGE(AY10:AY13)</f>
+        <v>-2.8009110212110274E-5</v>
+      </c>
+      <c r="BF10" s="3">
         <f t="shared" si="17"/>
-        <v>0.15145431834404</v>
-      </c>
-      <c r="AV10" s="3">
+        <v>5.7054557502068557E-3</v>
+      </c>
+      <c r="BG10" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -10185,24 +11692,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="3">
-        <f t="shared" ref="AN11:AN13" si="18">($AI$10-L11)/48</f>
+      <c r="AQ11" s="3">
+        <f t="shared" ref="AQ11:AQ13" si="18">($AI$10-L11)/48</f>
         <v>0.14587794432548182</v>
       </c>
-      <c r="AO11" s="3">
-        <f t="shared" ref="AO11:AO13" si="19">($AJ$10-M11)/48</f>
+      <c r="AR11" s="3">
+        <f t="shared" ref="AR11:AR13" si="19">($AJ$10-M11)/48</f>
         <v>-6.6916488222698112E-4</v>
       </c>
-      <c r="AP11" s="3">
-        <f t="shared" ref="AP11:AP13" si="20">($AK$10-N11)/48</f>
+      <c r="AS11" s="3">
+        <f t="shared" ref="AS11:AS13" si="20">($AK$10-N11)/48</f>
         <v>0.20684630026171782</v>
       </c>
-      <c r="AQ11" s="3">
-        <f t="shared" ref="AQ11:AQ13" si="21">($AL$10-O11)/48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AT11" s="3">
+        <f t="shared" ref="AT11:AT13" si="21">($AL$10-O11)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <f>AQ11/$AV$10</f>
+        <v>5.4953874236160303E-3</v>
+      </c>
+      <c r="AY11" s="3">
+        <f>AR11/$AV$10</f>
+        <v>-2.5208199190899235E-5</v>
+      </c>
+      <c r="AZ11" s="3">
+        <f>AS11/$AV$10</f>
+        <v>7.7921344610090695E-3</v>
+      </c>
+      <c r="BA11" s="3">
+        <f>AT11/$AV$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -10258,24 +11781,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AQ12" s="3">
         <f t="shared" si="18"/>
         <v>0.16223530811325246</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AR12" s="3">
         <f t="shared" si="19"/>
         <v>-8.178681893885332E-4</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AS12" s="3">
         <f t="shared" si="20"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AT12" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX12" s="3">
+        <f>AQ12/$AV$10</f>
+        <v>6.1115878482824555E-3</v>
+      </c>
+      <c r="AY12" s="3">
+        <f>AR12/$AV$10</f>
+        <v>-3.0810021233321313E-5</v>
+      </c>
+      <c r="AZ12" s="3">
+        <f>AS12/$AV$10</f>
+        <v>7.8481526814332906E-3</v>
+      </c>
+      <c r="BA12" s="3">
+        <f>AT12/$AV$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -10331,24 +11870,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AQ13" s="3">
         <f t="shared" si="18"/>
         <v>0.16818344039971447</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AR13" s="3">
         <f t="shared" si="19"/>
         <v>-3.7175826790387945E-4</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AS13" s="3">
         <f t="shared" si="20"/>
         <v>-1.7695693552224594E-2</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AT13" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX13" s="3">
+        <f>AQ13/$AV$10</f>
+        <v>6.3356607299793364E-3</v>
+      </c>
+      <c r="AY13" s="3">
+        <f>AR13/$AV$10</f>
+        <v>-1.4004555106055169E-5</v>
+      </c>
+      <c r="AZ13" s="3">
+        <f>AS13/$AV$10</f>
+        <v>-6.6661682304822352E-4</v>
+      </c>
+      <c r="BA13" s="3">
+        <f>AT13/$AV$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -10448,40 +12003,63 @@
         <f>AL2+5</f>
         <v>5</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AN14" s="3">
+        <f>(AI14+AJ14+AK14)/AL14</f>
+        <v>7.3518915060670945E-2</v>
+      </c>
+      <c r="AQ14">
         <f>($AI$14-L14)/48</f>
         <v>0</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AR14">
         <f>($AJ$14-M14)/48</f>
         <v>1.1152748037116325E-3</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AS14">
         <f>($AK$14-N14)/48</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="11">
+      <c r="AT14">
         <f>($AL$14-O14)/48</f>
         <v>1.9407222042837163E-2</v>
       </c>
-      <c r="AS14">
-        <f>AVERAGE(AN14:AN17)</f>
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" ref="AT14:AV14" si="24">AVERAGE(AO14:AO17)</f>
-        <v>4.8328574827504053E-4</v>
-      </c>
-      <c r="AU14">
+      <c r="AV14">
+        <v>5.2414275985992758</v>
+      </c>
+      <c r="AX14">
+        <f>AQ14/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <f>AR14/$AV$14</f>
+        <v>2.1278073248778246E-4</v>
+      </c>
+      <c r="AZ14">
+        <f>AS14/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <f>AT14/$AV$14</f>
+        <v>3.7026595670278011E-3</v>
+      </c>
+      <c r="BD14">
+        <f>AVERAGE(AX14:AX17)</f>
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" ref="BE14:BG14" si="24">AVERAGE(AY14:AY17)</f>
+        <v>9.2204984078039028E-5</v>
+      </c>
+      <c r="BF14">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AV14">
+      <c r="BG14">
         <f t="shared" si="24"/>
-        <v>1.991174254655043E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+        <v>3.7989158815952473E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -10537,24 +12115,40 @@
         <f t="shared" si="8"/>
         <v>8.289614561027836E-2</v>
       </c>
-      <c r="AN15" s="11">
-        <f t="shared" ref="AN15:AN17" si="25">($AI$14-L15)/48</f>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="11">
-        <f t="shared" ref="AO15:AO17" si="26">($AJ$14-M15)/48</f>
+      <c r="AQ15">
+        <f t="shared" ref="AQ15:AQ17" si="25">($AI$14-L15)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" ref="AR15:AR16" si="26">($AJ$14-M15)/48</f>
         <v>5.2046157506542914E-4</v>
       </c>
-      <c r="AP15" s="11">
-        <f t="shared" ref="AP15:AP17" si="27">($AK$14-N15)/48</f>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="11">
-        <f t="shared" ref="AQ15:AQ17" si="28">($AL$14-O15)/48</f>
+      <c r="AS15">
+        <f t="shared" ref="AS15:AS17" si="27">($AK$14-N15)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" ref="AT15:AT17" si="28">($AL$14-O15)/48</f>
         <v>1.8061834032935098E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX15">
+        <f>AQ15/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <f>AR15/$AV$14</f>
+        <v>9.929767516096527E-5</v>
+      </c>
+      <c r="AZ15">
+        <f>AS15/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <f>AT15/$AV$14</f>
+        <v>3.4459760615146071E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -10610,24 +12204,40 @@
         <f t="shared" si="8"/>
         <v>8.8422555317630255E-2</v>
       </c>
-      <c r="AN16" s="11">
+      <c r="AQ16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="11">
+      <c r="AR16">
         <f t="shared" si="26"/>
         <v>2.2305496074232628E-4</v>
       </c>
-      <c r="AP16" s="11">
+      <c r="AS16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="11">
+      <c r="AT16">
         <f t="shared" si="28"/>
         <v>2.0079916047788176E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX16">
+        <f>AQ16/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <f>AR16/$AV$14</f>
+        <v>4.2556146497556447E-5</v>
+      </c>
+      <c r="AZ16">
+        <f>AS16/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <f>AT16/$AV$14</f>
+        <v>3.8310013197843948E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -10683,24 +12293,40 @@
         <f t="shared" si="8"/>
         <v>9.240881805735951E-2</v>
       </c>
-      <c r="AN17" s="11">
+      <c r="AQ17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AR17">
         <f>($AJ$14-M17)/48</f>
         <v>7.4351653580774266E-5</v>
       </c>
-      <c r="AP17" s="11">
+      <c r="AS17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AQ17" s="11">
+      <c r="AT17">
         <f t="shared" si="28"/>
         <v>2.2097998062641271E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX17">
+        <f>AQ17/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <f>AR17/$AV$14</f>
+        <v>1.4185382165851928E-5</v>
+      </c>
+      <c r="AZ17">
+        <f>AS17/$AV$14</f>
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <f>AT17/$AV$14</f>
+        <v>4.2160265780541856E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -10801,39 +12427,62 @@
         <v>20</v>
       </c>
       <c r="AN18" s="3">
+        <f>(AI18+AJ18+AK18)/AL18</f>
+        <v>1.8379728765167736E-2</v>
+      </c>
+      <c r="AQ18" s="3">
         <f>($AI$18-L18)/48</f>
         <v>0</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AR18" s="3">
         <f>($AJ$18-M18)/48</f>
         <v>-2.3049012610040463E-3</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AS18" s="3">
         <f>($AK$18-N18)/48</f>
         <v>0</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AT18" s="3">
         <f>($AL$18-O18)/48</f>
         <v>4.8030351953503324E-2</v>
       </c>
-      <c r="AS18" s="3">
-        <f>AVERAGE(AN18:AN21)</f>
-        <v>0</v>
-      </c>
-      <c r="AT18" s="3">
-        <f t="shared" ref="AT18:AV18" si="31">AVERAGE(AO18:AO21)</f>
-        <v>-8.1786818938853287E-4</v>
-      </c>
-      <c r="AU18" s="3">
+      <c r="AV18" s="3">
+        <v>4.0845546209712316</v>
+      </c>
+      <c r="AX18" s="3">
+        <f>AQ18/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="3">
+        <f>AR18/$AV$18</f>
+        <v>-5.6429683891850697E-4</v>
+      </c>
+      <c r="AZ18" s="3">
+        <f>AS18/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="3">
+        <f>AT18/$AV$18</f>
+        <v>1.1759018157549475E-2</v>
+      </c>
+      <c r="BD18" s="3">
+        <f>AVERAGE(AX18:AX21)</f>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="3">
+        <f t="shared" ref="BE18:BF18" si="31">AVERAGE(AY18:AY21)</f>
+        <v>-2.0023436219688965E-4</v>
+      </c>
+      <c r="BF18" s="3">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AV18" s="3">
-        <f t="shared" si="31"/>
-        <v>3.8948982886664464E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BG18" s="3">
+        <f>AVERAGE(BA18:BA21)</f>
+        <v>9.5356743882649107E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -10889,24 +12538,40 @@
         <f t="shared" si="8"/>
         <v>2.5002787185864926E-2</v>
       </c>
-      <c r="AN19" s="3">
-        <f t="shared" ref="AN19:AN21" si="32">($AI$18-L19)/48</f>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="3">
-        <f t="shared" ref="AO19:AO21" si="33">($AJ$18-M19)/48</f>
+      <c r="AQ19" s="3">
+        <f t="shared" ref="AQ19:AQ21" si="32">($AI$18-L19)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="3">
+        <f t="shared" ref="AR19:AR21" si="33">($AJ$18-M19)/48</f>
         <v>-1.7100880323578406E-3</v>
       </c>
-      <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AP21" si="34">($AK$18-N19)/48</f>
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="3">
-        <f t="shared" ref="AQ19:AQ21" si="35">($AL$18-O19)/48</f>
+      <c r="AS19" s="3">
+        <f t="shared" ref="AS19:AS21" si="34">($AK$18-N19)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="3">
+        <f t="shared" ref="AT19:AT21" si="35">($AL$18-O19)/48</f>
         <v>4.1976105908944072E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX19" s="3">
+        <f>AQ19/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="3">
+        <f>AR19/$AV$18</f>
+        <v>-4.1867184822985996E-4</v>
+      </c>
+      <c r="AZ19" s="3">
+        <f>AS19/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="3">
+        <f>AT19/$AV$18</f>
+        <v>1.0276788978026429E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -10962,24 +12627,40 @@
         <f t="shared" si="8"/>
         <v>1.970199539162884E-2</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AQ20" s="3">
         <f>($AI$18-L20)/48</f>
         <v>0</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AR20" s="3">
         <f t="shared" si="33"/>
         <v>2.2305496074232628E-4</v>
       </c>
-      <c r="AP20" s="3">
+      <c r="AS20" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AQ20" s="3">
+      <c r="AT20" s="3">
         <f t="shared" si="35"/>
         <v>3.9285329889139943E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX20" s="3">
+        <f>AQ20/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="3">
+        <f>AR20/$AV$18</f>
+        <v>5.4609371508242415E-5</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f>AS20/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="BA20" s="3">
+        <f>AT20/$AV$18</f>
+        <v>9.6180204537939604E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -11035,24 +12716,40 @@
         <f t="shared" si="8"/>
         <v>1.8294321789854538E-2</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AQ21" s="3">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AR21" s="3">
         <f t="shared" si="33"/>
         <v>5.2046157506542914E-4</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AS21" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AT21" s="3">
         <f t="shared" si="35"/>
         <v>2.6504143795070528E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX21" s="3">
+        <f>AQ21/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3">
+        <f>AR21/$AV$18</f>
+        <v>1.2742186685256592E-4</v>
+      </c>
+      <c r="AZ21" s="3">
+        <f>AS21/$AV$18</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="3">
+        <f>AT21/$AV$18</f>
+        <v>6.488869963689782E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -11136,56 +12833,79 @@
         <f t="shared" si="36"/>
         <v>0.26083232652953758</v>
       </c>
-      <c r="AI22" s="11">
+      <c r="AI22">
         <f>AI2+10</f>
         <v>10</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AJ22">
         <f>AJ2</f>
         <v>0.36759457530335471</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AK22">
         <f>AK2+10</f>
         <v>10</v>
       </c>
-      <c r="AL22" s="11">
+      <c r="AL22">
         <f>AL2+5</f>
         <v>5</v>
       </c>
-      <c r="AN22" s="11">
+      <c r="AN22" s="3">
+        <f>(AI22+AJ22+AK22)/AL22</f>
+        <v>4.0735189150606708</v>
+      </c>
+      <c r="AQ22">
         <f>($AI$22-L22)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO22" s="11">
+      <c r="AR22">
         <f>($AJ$22-M22)/48</f>
         <v>-1.263978110873187E-3</v>
       </c>
-      <c r="AP22" s="11">
+      <c r="AS22">
         <f>($AK$22-N22)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AQ22" s="11">
+      <c r="AT22">
         <f>($AL$22-O22)/48</f>
         <v>6.3132332364653973E-2</v>
       </c>
-      <c r="AS22">
-        <f>AVERAGE(AN22:AN25)</f>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" ref="AT22:AV22" si="37">AVERAGE(AO22:AO25)</f>
-        <v>-1.3011539376635746E-3</v>
-      </c>
-      <c r="AU22">
+      <c r="AV22">
+        <v>23.700686163793598</v>
+      </c>
+      <c r="AX22">
+        <f>AQ22/$AV$22</f>
+        <v>8.7901815117738744E-3</v>
+      </c>
+      <c r="AY22">
+        <f>AR22/$AV$22</f>
+        <v>-5.3330865703124901E-5</v>
+      </c>
+      <c r="AZ22">
+        <f>AS22/$AV$22</f>
+        <v>8.7901815117738744E-3</v>
+      </c>
+      <c r="BA22">
+        <f>AT22/$AV$22</f>
+        <v>2.6637343715853346E-3</v>
+      </c>
+      <c r="BD22">
+        <f>AVERAGE(AX22:AX25)</f>
+        <v>8.7901815117738744E-3</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" ref="BE22:BG22" si="37">AVERAGE(AY22:AY25)</f>
+        <v>-5.4899420576746211E-5</v>
+      </c>
+      <c r="BF22">
         <f t="shared" si="37"/>
-        <v>0.20573102545800617</v>
-      </c>
-      <c r="AV22">
+        <v>8.6803826706203825E-3</v>
+      </c>
+      <c r="BG22">
         <f t="shared" si="37"/>
-        <v>5.9937035841136584E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+        <v>2.5289156367421768E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -11241,28 +12961,40 @@
         <f t="shared" si="8"/>
         <v>0.23978998052238715</v>
       </c>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AN23" s="11">
-        <f t="shared" ref="AN23:AN25" si="38">($AI$22-L23)/48</f>
+      <c r="AQ23">
+        <f t="shared" ref="AQ23:AQ25" si="38">($AI$22-L23)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO23" s="11">
-        <f t="shared" ref="AO23:AO25" si="39">($AJ$22-M23)/48</f>
+      <c r="AR23">
+        <f t="shared" ref="AR23:AR25" si="39">($AJ$22-M23)/48</f>
         <v>-1.8587913395193914E-3</v>
       </c>
-      <c r="AP23" s="11">
-        <f t="shared" ref="AP23:AP25" si="40">($AK$22-N23)/48</f>
+      <c r="AS23">
+        <f t="shared" ref="AS23:AS25" si="40">($AK$22-N23)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AQ23" s="11">
-        <f t="shared" ref="AQ23:AQ25" si="41">($AL$22-O23)/48</f>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT25" si="41">($AL$22-O23)/48</f>
         <v>6.4477720374556027E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX23">
+        <f>AQ23/$AV$22</f>
+        <v>8.7901815117738744E-3</v>
+      </c>
+      <c r="AY23">
+        <f>AR23/$AV$22</f>
+        <v>-7.8427743681065988E-5</v>
+      </c>
+      <c r="AZ23">
+        <f>AS23/$AV$22</f>
+        <v>8.7901815117738744E-3</v>
+      </c>
+      <c r="BA23">
+        <f>AT23/$AV$22</f>
+        <v>2.7205001546771902E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -11318,28 +13050,40 @@
         <f t="shared" si="8"/>
         <v>0.1792349094276289</v>
       </c>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AN24" s="11">
+      <c r="AQ24">
         <f t="shared" si="38"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO24" s="11">
+      <c r="AR24">
         <f t="shared" si="39"/>
         <v>-1.263978110873187E-3</v>
       </c>
-      <c r="AP24" s="11">
+      <c r="AS24">
         <f t="shared" si="40"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AQ24" s="11">
+      <c r="AT24">
         <f t="shared" si="41"/>
         <v>5.4387310300290599E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX24">
+        <f>AQ24/$AV$22</f>
+        <v>8.7901815117738744E-3</v>
+      </c>
+      <c r="AY24">
+        <f>AR24/$AV$22</f>
+        <v>-5.3330865703124901E-5</v>
+      </c>
+      <c r="AZ24">
+        <f>AS24/$AV$22</f>
+        <v>8.7901815117738744E-3</v>
+      </c>
+      <c r="BA24">
+        <f>AT24/$AV$22</f>
+        <v>2.294756781488271E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -11395,24 +13139,40 @@
         <f t="shared" si="8"/>
         <v>0.40687190309199428</v>
       </c>
-      <c r="AN25" s="11">
+      <c r="AQ25">
         <f t="shared" si="38"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO25" s="11">
+      <c r="AR25">
         <f t="shared" si="39"/>
         <v>-8.178681893885332E-4</v>
       </c>
-      <c r="AP25" s="11">
+      <c r="AS25">
         <f t="shared" si="40"/>
         <v>0.19792410183202472</v>
       </c>
-      <c r="AQ25" s="11">
+      <c r="AT25">
         <f t="shared" si="41"/>
         <v>5.7750780325045735E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX25">
+        <f>AQ25/$AV$22</f>
+        <v>8.7901815117738744E-3</v>
+      </c>
+      <c r="AY25">
+        <f>AR25/$AV$22</f>
+        <v>-3.4508207219669072E-5</v>
+      </c>
+      <c r="AZ25">
+        <f>AS25/$AV$22</f>
+        <v>8.3509861471599035E-3</v>
+      </c>
+      <c r="BA25">
+        <f>AT25/$AV$22</f>
+        <v>2.4366712392179107E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -11513,39 +13273,62 @@
         <v>20</v>
       </c>
       <c r="AN26" s="3">
+        <f>(AI26+AJ26+AK26)/AL26</f>
+        <v>1.0183797287651677</v>
+      </c>
+      <c r="AQ26" s="3">
         <f>($AI$26-L26)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AR26" s="3">
         <f>($AJ$26-M26)/48</f>
         <v>9.665714965500829E-4</v>
       </c>
-      <c r="AP26" s="3">
+      <c r="AS26" s="3">
         <f>($AK$26-N26)/48</f>
         <v>0.14290387818225078</v>
       </c>
-      <c r="AQ26" s="3">
+      <c r="AT26" s="3">
         <f>($AL$26-O26)/48</f>
         <v>5.744806802281769E-2</v>
       </c>
-      <c r="AS26" s="3">
-        <f>AVERAGE(AN26:AN29)</f>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="AT26" s="3">
-        <f t="shared" ref="AT26:AV26" si="43">AVERAGE(AO26:AO29)</f>
-        <v>-7.0634070901736941E-4</v>
-      </c>
-      <c r="AU26" s="3">
+      <c r="AV26" s="3">
+        <v>27.436050008478492</v>
+      </c>
+      <c r="AX26" s="3">
+        <f>AQ26/$AV$26</f>
+        <v>7.5934157165099435E-3</v>
+      </c>
+      <c r="AY26" s="3">
+        <f>AR26/$AV$26</f>
+        <v>3.5229980126562889E-5</v>
+      </c>
+      <c r="AZ26" s="3">
+        <f>AS26/$AV$26</f>
+        <v>5.2086170617887621E-3</v>
+      </c>
+      <c r="BA26" s="3">
+        <f>AT26/$AV$26</f>
+        <v>2.0938899005164616E-3</v>
+      </c>
+      <c r="BD26" s="3">
+        <f>AVERAGE(AX26:AX29)</f>
+        <v>7.5934157165099435E-3</v>
+      </c>
+      <c r="BE26" s="3">
+        <f>AVERAGE(AY26:AY29)</f>
+        <v>-2.5744985477103692E-5</v>
+      </c>
+      <c r="BF26" s="3">
+        <f t="shared" ref="BF26:BG26" si="43">AVERAGE(AZ26:AZ29)</f>
+        <v>6.9972160528296483E-3</v>
+      </c>
+      <c r="BG26" s="3">
         <f t="shared" si="43"/>
-        <v>0.1919759695455627</v>
-      </c>
-      <c r="AV26" s="3">
-        <f t="shared" si="43"/>
-        <v>0.10605020988052949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>3.8653599861407555E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -11601,24 +13384,40 @@
         <f t="shared" si="8"/>
         <v>2.2358756831271011E-2</v>
       </c>
-      <c r="AN27" s="3">
-        <f t="shared" ref="AN27:AN29" si="44">($AI$26-L27)/48</f>
+      <c r="AQ27" s="3">
+        <f t="shared" ref="AQ27:AQ29" si="44">($AI$26-L27)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO27" s="3">
-        <f t="shared" ref="AO27:AO29" si="45">($AJ$26-M27)/48</f>
+      <c r="AR27" s="3">
+        <f t="shared" ref="AR27:AR29" si="45">($AJ$26-M27)/48</f>
         <v>-2.2305496074232858E-4</v>
       </c>
-      <c r="AP27" s="3">
-        <f t="shared" ref="AP27:AP29" si="46">($AK$26-N27)/48</f>
+      <c r="AS27" s="3">
+        <f t="shared" ref="AS27:AS29" si="46">($AK$26-N27)/48</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27:AQ29" si="47">($AL$26-O27)/48</f>
+      <c r="AT27" s="3">
+        <f t="shared" ref="AT27:AT29" si="47">($AL$26-O27)/48</f>
         <v>6.417500807232801E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX27" s="3">
+        <f t="shared" ref="AX27:AX29" si="48">AQ27/$AV$26</f>
+        <v>7.5934157165099435E-3</v>
+      </c>
+      <c r="AY27" s="3">
+        <f>AR27/$AV$26</f>
+        <v>-8.1299954138222694E-6</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f>AS27/$AV$26</f>
+        <v>7.5934157165099435E-3</v>
+      </c>
+      <c r="BA27" s="3">
+        <f>AT27/$AV$26</f>
+        <v>2.3390760715371263E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -11674,24 +13473,40 @@
         <f t="shared" si="8"/>
         <v>3.4349614221134556E-2</v>
       </c>
-      <c r="AN28" s="3">
+      <c r="AQ28" s="3">
         <f t="shared" si="44"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO28" s="3">
+      <c r="AR28" s="3">
         <f t="shared" si="45"/>
         <v>-1.5613847251962885E-3</v>
       </c>
-      <c r="AP28" s="3">
+      <c r="AS28" s="3">
         <f t="shared" si="46"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AQ28" s="3">
+      <c r="AT28" s="3">
         <f t="shared" si="47"/>
         <v>0.1482617586912065</v>
       </c>
-    </row>
-    <row r="29" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX28" s="3">
+        <f t="shared" si="48"/>
+        <v>7.5934157165099435E-3</v>
+      </c>
+      <c r="AY28" s="3">
+        <f>AR28/$AV$26</f>
+        <v>-5.6909967896755467E-5</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f>AS28/$AV$26</f>
+        <v>7.5934157165099435E-3</v>
+      </c>
+      <c r="BA28" s="3">
+        <f>AT28/$AV$26</f>
+        <v>5.4039032092954176E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -11747,30 +13562,46 @@
         <f>S29/O29</f>
         <v>3.6842731382345943E-2</v>
       </c>
-      <c r="AN29" s="3">
+      <c r="AQ29" s="3">
         <f t="shared" si="44"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AO29" s="3">
+      <c r="AR29" s="3">
         <f t="shared" si="45"/>
         <v>-2.0074946466809435E-3</v>
       </c>
-      <c r="AP29" s="3">
+      <c r="AS29" s="3">
         <f t="shared" si="46"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AQ29" s="3">
+      <c r="AT29" s="3">
         <f t="shared" si="47"/>
         <v>0.15431600473576579</v>
       </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX29" s="3">
+        <f t="shared" si="48"/>
+        <v>7.5934157165099435E-3</v>
+      </c>
+      <c r="AY29" s="3">
+        <f>AR29/$AV$26</f>
+        <v>-7.3169958724399921E-5</v>
+      </c>
+      <c r="AZ29" s="3">
+        <f>AS29/$AV$26</f>
+        <v>7.5934157165099435E-3</v>
+      </c>
+      <c r="BA29" s="3">
+        <f>AT29/$AV$26</f>
+        <v>5.624570763214016E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -11853,15 +13684,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D472A6C-8D31-4F86-B9CD-C9829547809C}">
-  <dimension ref="A1:AV56"/>
+  <dimension ref="A1:BG56"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AV26" sqref="AV26"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="57" max="57" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -11941,31 +13775,49 @@
         <v>53</v>
       </c>
       <c r="AN1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD1" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BE1" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BF1" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BG1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -12065,8 +13917,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="3" t="e">
+        <f>(AI2+AJ2+AK2)/AL2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -12123,7 +13979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -12180,7 +14036,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -12237,7 +14093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -12337,40 +14193,63 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="3" t="e">
+        <f>(AI6+AJ6+AK6)/AL6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6">
         <f>($AI$6-L6)/48</f>
         <v>-1.5242088984059007E-2</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <f>($AJ$6-M6)/48</f>
         <v>6.3198905543659109E-4</v>
       </c>
-      <c r="AP6">
+      <c r="AS6">
         <f>($AK$6-N6)/48</f>
         <v>-0.10669462288841304</v>
       </c>
-      <c r="AQ6">
+      <c r="AT6">
         <f>($AL$6-O6)/48</f>
         <v>0</v>
       </c>
-      <c r="AS6">
-        <f>AVERAGE(AN6:AN9)</f>
-        <v>-1.3755055912443493E-2</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" ref="AT6:AU6" si="11">AVERAGE(AO6:AO9)</f>
-        <v>1.0780989769212459E-3</v>
-      </c>
-      <c r="AU6">
+      <c r="AV6">
+        <v>7.0746934748769217</v>
+      </c>
+      <c r="AX6">
+        <f>AQ6/$AV$6</f>
+        <v>-2.1544522088745581E-3</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ref="AY6:BA9" si="11">AR6/$AV$6</f>
+        <v>8.9330945246018001E-5</v>
+      </c>
+      <c r="AZ6">
         <f t="shared" si="11"/>
-        <v>-8.7363192957411379E-2</v>
-      </c>
-      <c r="AV6">
-        <f>AVERAGE(AQ6:AQ9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+        <v>-1.5081165462121906E-2</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <f>AVERAGE(AX6:AX9)</f>
+        <v>-1.9442617494721619E-3</v>
+      </c>
+      <c r="BE6">
+        <f>AVERAGE(AY6:AY9)</f>
+        <v>1.5238808306673694E-4</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6" si="12">AVERAGE(AZ6:AZ9)</f>
+        <v>-1.2348689489890759E-2</v>
+      </c>
+      <c r="BG6">
+        <f>AVERAGE(BA6:BA9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -12426,24 +14305,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN7">
-        <f t="shared" ref="AN7:AN9" si="12">($AI$6-L7)/48</f>
+      <c r="AQ7">
+        <f t="shared" ref="AQ7:AQ9" si="13">($AI$6-L7)/48</f>
         <v>-1.3755055912443493E-2</v>
       </c>
-      <c r="AO7">
-        <f t="shared" ref="AO7:AO9" si="13">($AJ$6-M7)/48</f>
+      <c r="AR7">
+        <f t="shared" ref="AR7:AR9" si="14">($AJ$6-M7)/48</f>
         <v>1.2268022840827969E-3</v>
       </c>
-      <c r="AP7">
-        <f t="shared" ref="AP7:AP9" si="14">($AK$6-N7)/48</f>
+      <c r="AS7">
+        <f t="shared" ref="AS7:AS8" si="15">($AK$6-N7)/48</f>
         <v>-0.13792231739233882</v>
       </c>
-      <c r="AQ7">
-        <f t="shared" ref="AQ7:AQ9" si="15">($AL$6-O7)/48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT7">
+        <f t="shared" ref="AT7:AT9" si="16">($AL$6-O7)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" ref="AX7:AX9" si="17">AQ7/$AV$6</f>
+        <v>-1.9442617494721619E-3</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="11"/>
+        <v>1.7340712900697645E-4</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="11"/>
+        <v>-1.9495165109572221E-2</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -12499,24 +14394,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8">
-        <f t="shared" si="12"/>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
         <v>-1.8216155127290037E-2</v>
       </c>
-      <c r="AO8">
-        <f t="shared" si="13"/>
+      <c r="AR8">
+        <f t="shared" si="14"/>
         <v>2.1190221270521053E-3</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="14"/>
+      <c r="AS8">
+        <f t="shared" si="15"/>
         <v>-7.84409945277183E-2</v>
       </c>
-      <c r="AQ8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="17"/>
+        <v>-2.5748331276793505E-3</v>
+      </c>
+      <c r="AY8">
+        <f>AR8/$AV$6</f>
+        <v>2.9952140464841408E-4</v>
+      </c>
+      <c r="AZ8">
+        <f>AS8/$AV$6</f>
+        <v>-1.1087546733476384E-2</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -12572,24 +14483,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9">
-        <f t="shared" si="12"/>
+      <c r="AQ9">
+        <f t="shared" si="13"/>
         <v>-7.8069236259814363E-3</v>
       </c>
-      <c r="AO9">
-        <f t="shared" si="13"/>
+      <c r="AR9">
+        <f t="shared" si="14"/>
         <v>3.3458244111349056E-4</v>
       </c>
-      <c r="AP9">
+      <c r="AS9">
         <f>($AK$6-N9)/48</f>
         <v>-2.6394837021175361E-2</v>
       </c>
-      <c r="AQ9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AT9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="17"/>
+        <v>-1.1034999118625776E-3</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="11"/>
+        <v>4.7292853365539102E-5</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="11"/>
+        <v>-3.7308806543925287E-3</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -12650,27 +14577,27 @@
         <v>1.6416845110635263</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" ref="X10:AF10" si="16">AVERAGE(M10:M13)</f>
+        <f t="shared" ref="X10:AF10" si="18">AVERAGE(M10:M13)</f>
         <v>0.33190578158458245</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3918629550321198</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.9735902926481086</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.3654532476802284</v>
       </c>
       <c r="AF10" s="3" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" s="3">
@@ -12689,40 +14616,63 @@
         <f>AL2</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="3" t="e">
+        <f>(AI10+AJ10+AK10)/AL10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="3">
         <f>($AI$10-L10)/48</f>
         <v>0.19903937663573637</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AR10" s="3">
         <f>($AJ$10-M10)/48</f>
         <v>7.8069236259814317E-4</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AS10" s="3">
         <f>($AK$10-N10)/48</f>
         <v>0.22506245538900785</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AT10" s="3">
         <f>($AL$10-O10)/48</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="3">
-        <f>AVERAGE(AN10:AN13)</f>
-        <v>0.19903937663573637</v>
-      </c>
-      <c r="AT10" s="3">
-        <f t="shared" ref="AT10:AV10" si="17">AVERAGE(AO10:AO13)</f>
-        <v>2.602307875327137E-4</v>
-      </c>
-      <c r="AU10" s="3">
-        <f t="shared" si="17"/>
-        <v>0.24811146799904832</v>
-      </c>
       <c r="AV10" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46.295117818631596</v>
+      </c>
+      <c r="AX10" s="3">
+        <f>AQ10/$AV$10</f>
+        <v>4.2993599760455178E-3</v>
+      </c>
+      <c r="AY10" s="3">
+        <f t="shared" ref="AY10:BA13" si="19">AR10/$AV$10</f>
+        <v>1.6863384291549453E-5</v>
+      </c>
+      <c r="AZ10" s="3">
+        <f t="shared" si="19"/>
+        <v>4.8614727857638337E-3</v>
+      </c>
+      <c r="BA10" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="3">
+        <f>AVERAGE(AX10:AX13)</f>
+        <v>4.2993599760455178E-3</v>
+      </c>
+      <c r="BE10" s="3">
+        <f t="shared" ref="BE10:BG10" si="20">AVERAGE(AY10:AY13)</f>
+        <v>5.621128097183137E-6</v>
+      </c>
+      <c r="BF10" s="3">
+        <f t="shared" si="20"/>
+        <v>5.3593441315143431E-3</v>
+      </c>
+      <c r="BG10" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -12778,24 +14728,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="3">
-        <f t="shared" ref="AN11:AN13" si="18">($AI$10-L11)/48</f>
+      <c r="AQ11" s="3">
+        <f t="shared" ref="AQ11:AQ13" si="21">($AI$10-L11)/48</f>
         <v>0.19606531049250533</v>
       </c>
-      <c r="AO11" s="3">
-        <f t="shared" ref="AO11:AO13" si="19">($AJ$10-M11)/48</f>
+      <c r="AR11" s="3">
+        <f t="shared" ref="AR11:AR13" si="22">($AJ$10-M11)/48</f>
         <v>-8.5504401617892084E-4</v>
       </c>
-      <c r="AP11" s="3">
-        <f t="shared" ref="AP11:AP13" si="20">($AK$10-N11)/48</f>
+      <c r="AS11" s="3">
+        <f t="shared" ref="AS11:AS13" si="23">($AK$10-N11)/48</f>
         <v>0.21316619081608379</v>
       </c>
-      <c r="AQ11" s="3">
-        <f t="shared" ref="AQ11:AQ13" si="21">($AL$10-O11)/48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AT11" s="3">
+        <f t="shared" ref="AT11:AT13" si="24">($AL$10-O11)/48</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <f t="shared" ref="AX11:AX13" si="25">AQ11/$AV$10</f>
+        <v>4.2351185120777105E-3</v>
+      </c>
+      <c r="AY11" s="3">
+        <f t="shared" si="19"/>
+        <v>-1.8469420890744683E-5</v>
+      </c>
+      <c r="AZ11" s="3">
+        <f t="shared" si="19"/>
+        <v>4.6045069298926052E-3</v>
+      </c>
+      <c r="BA11" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -12851,24 +14817,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="3">
-        <f t="shared" si="18"/>
-        <v>0.20350047585058292</v>
-      </c>
-      <c r="AO12" s="3">
-        <f t="shared" si="19"/>
-        <v>4.8328574827504145E-4</v>
-      </c>
-      <c r="AP12" s="3">
-        <f t="shared" si="20"/>
-        <v>0.27710861289555083</v>
-      </c>
       <c r="AQ12" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.20350047585058292</v>
+      </c>
+      <c r="AR12" s="3">
+        <f t="shared" si="22"/>
+        <v>4.8328574827504145E-4</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="23"/>
+        <v>0.27710861289555083</v>
+      </c>
+      <c r="AT12" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="3">
+        <f t="shared" si="25"/>
+        <v>4.3957221719972293E-3</v>
+      </c>
+      <c r="AY12" s="3">
+        <f t="shared" si="19"/>
+        <v>1.0439237894768718E-5</v>
+      </c>
+      <c r="AZ12" s="3">
+        <f t="shared" si="19"/>
+        <v>5.9856984052004663E-3</v>
+      </c>
+      <c r="BA12" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -12924,24 +14906,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN13" s="3">
-        <f t="shared" si="18"/>
-        <v>0.19755234356412085</v>
-      </c>
-      <c r="AO13" s="3">
-        <f t="shared" si="19"/>
-        <v>6.3198905543659109E-4</v>
-      </c>
-      <c r="AP13" s="3">
-        <f t="shared" si="20"/>
-        <v>0.27710861289555083</v>
-      </c>
       <c r="AQ13" s="3">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+        <v>0.19755234356412085</v>
+      </c>
+      <c r="AR13" s="3">
+        <f t="shared" si="22"/>
+        <v>6.3198905543659109E-4</v>
+      </c>
+      <c r="AS13" s="3">
+        <f t="shared" si="23"/>
+        <v>0.27710861289555083</v>
+      </c>
+      <c r="AT13" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="3">
+        <f t="shared" si="25"/>
+        <v>4.2672392440616137E-3</v>
+      </c>
+      <c r="AY13" s="3">
+        <f t="shared" si="19"/>
+        <v>1.3651311093159058E-5</v>
+      </c>
+      <c r="AZ13" s="3">
+        <f t="shared" si="19"/>
+        <v>5.9856984052004663E-3</v>
+      </c>
+      <c r="BA13" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -13002,27 +15000,27 @@
         <v>1.6059957173447539</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14:AF14" si="22">AVERAGE(M14:M17)</f>
+        <f t="shared" ref="X14:AF14" si="26">AVERAGE(M14:M17)</f>
         <v>0.2908636688079943</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.42826552462526768</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.2835001614465613</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.8968593861527481</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.3251249107780154</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.8511045462225522</v>
       </c>
       <c r="AI14">
@@ -13030,51 +15028,74 @@
         <v>1.1955745895788723</v>
       </c>
       <c r="AJ14">
-        <f t="shared" ref="AJ14:AK14" si="23">AJ2</f>
+        <f t="shared" ref="AJ14:AK14" si="27">AJ2</f>
         <v>0.34439685938615272</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>3.3012134189864382</v>
       </c>
       <c r="AL14">
         <f>AL2+5</f>
         <v>5</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AN14" s="3">
+        <f>(AI14+AJ14+AK14)/AL14</f>
+        <v>0.9682369735902927</v>
+      </c>
+      <c r="AQ14">
         <f>($AI$14-L14)/48</f>
         <v>-1.226802284082798E-2</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AR14">
         <f>($AJ$14-M14)/48</f>
         <v>7.8069236259814317E-4</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AS14">
         <f>($AK$14-N14)/48</f>
         <v>6.8775279562217462E-2</v>
       </c>
-      <c r="AQ14" s="11">
+      <c r="AT14">
         <f>($AL$14-O14)/48</f>
         <v>7.4568130448821449E-2</v>
       </c>
-      <c r="AS14">
-        <f>AVERAGE(AN14:AN17)</f>
-        <v>-8.5504401617891995E-3</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" ref="AT14:AV14" si="24">AVERAGE(AO14:AO17)</f>
-        <v>1.1152748037116336E-3</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="24"/>
-        <v>5.9853081132524383E-2</v>
-      </c>
       <c r="AV14">
-        <f t="shared" si="24"/>
-        <v>7.7427079969863311E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+        <v>11.529340260736088</v>
+      </c>
+      <c r="AX14">
+        <f>AQ14/$AV$14</f>
+        <v>-1.0640698048098661E-3</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" ref="AY14:BA17" si="28">AR14/$AV$14</f>
+        <v>6.7713533033355024E-5</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="28"/>
+        <v>5.9652398148431884E-3</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="28"/>
+        <v>6.467684079267573E-3</v>
+      </c>
+      <c r="BD14">
+        <f>AVERAGE(AX14:AX17)</f>
+        <v>-7.4162440941293701E-4</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" ref="BE14:BG14" si="29">AVERAGE(AY14:AY17)</f>
+        <v>9.6733618619078635E-5</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="29"/>
+        <v>5.1913708658905579E-3</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="29"/>
+        <v>6.7156557286756667E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -13130,24 +15151,40 @@
         <f t="shared" si="8"/>
         <v>1.8020901219625736</v>
       </c>
-      <c r="AN15" s="11">
-        <f t="shared" ref="AN15:AN17" si="25">($AI$14-L15)/48</f>
+      <c r="AQ15">
+        <f t="shared" ref="AQ15:AQ17" si="30">($AI$14-L15)/48</f>
         <v>-2.5651320485367599E-2</v>
       </c>
-      <c r="AO15" s="11">
-        <f t="shared" ref="AO15:AO17" si="26">($AJ$14-M15)/48</f>
+      <c r="AR15">
+        <f t="shared" ref="AR15:AR16" si="31">($AJ$14-M15)/48</f>
         <v>1.9703188198905534E-3</v>
       </c>
-      <c r="AP15" s="11">
-        <f t="shared" ref="AP15:AP17" si="27">($AK$14-N15)/48</f>
+      <c r="AS15">
+        <f t="shared" ref="AS15:AS17" si="32">($AK$14-N15)/48</f>
         <v>6.8775279562217462E-2</v>
       </c>
-      <c r="AQ15" s="11">
-        <f t="shared" ref="AQ15:AQ17" si="28">($AL$14-O15)/48</f>
+      <c r="AT15">
+        <f t="shared" ref="AT15:AT17" si="33">($AL$14-O15)/48</f>
         <v>7.3222742438919394E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX15">
+        <f t="shared" ref="AX15:AX17" si="34">AQ15/$AV$14</f>
+        <v>-2.2248732282388111E-3</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="28"/>
+        <v>1.7089605956037237E-4</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="28"/>
+        <v>5.9652398148431884E-3</v>
+      </c>
+      <c r="BA15">
+        <f>AT15/$AV$14</f>
+        <v>6.3509915383696469E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -13203,24 +15240,40 @@
         <f t="shared" si="8"/>
         <v>1.3570406059164088</v>
       </c>
-      <c r="AN16" s="11">
-        <f t="shared" si="25"/>
+      <c r="AQ16">
+        <f t="shared" si="30"/>
         <v>-1.8587913395193879E-3</v>
       </c>
-      <c r="AO16" s="11">
-        <f t="shared" si="26"/>
+      <c r="AR16">
+        <f t="shared" si="31"/>
         <v>1.0780989769212459E-3</v>
       </c>
-      <c r="AP16" s="11">
-        <f t="shared" si="27"/>
+      <c r="AS16">
+        <f t="shared" si="32"/>
         <v>6.8775279562217462E-2</v>
       </c>
-      <c r="AQ16" s="11">
+      <c r="AT16">
+        <f t="shared" si="33"/>
+        <v>7.9949682488429666E-2</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="34"/>
+        <v>-1.6122269769846431E-4</v>
+      </c>
+      <c r="AY16">
         <f t="shared" si="28"/>
-        <v>7.9949682488429666E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+        <v>9.3509164665109377E-5</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="28"/>
+        <v>5.9652398148431884E-3</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="28"/>
+        <v>6.9344542428592783E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -13276,24 +15329,40 @@
         <f t="shared" si="8"/>
         <v>2.7732528713256768</v>
       </c>
-      <c r="AN17" s="11">
-        <f t="shared" si="25"/>
+      <c r="AQ17">
+        <f t="shared" si="30"/>
         <v>5.5763740185581735E-3</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AR17">
         <f>($AJ$14-M17)/48</f>
         <v>6.3198905543659109E-4</v>
       </c>
-      <c r="AP17" s="11">
-        <f t="shared" si="27"/>
+      <c r="AS17">
+        <f t="shared" si="32"/>
         <v>3.3086485843445153E-2</v>
       </c>
-      <c r="AQ17" s="11">
+      <c r="AT17">
+        <f t="shared" si="33"/>
+        <v>8.1967764503282747E-2</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="34"/>
+        <v>4.8366809309539373E-4</v>
+      </c>
+      <c r="AY17">
         <f t="shared" si="28"/>
-        <v>8.1967764503282747E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5.4815717217477794E-5</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="28"/>
+        <v>2.8697640190326686E-3</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="28"/>
+        <v>7.1094930542061679E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -13354,27 +15423,27 @@
         <v>1.9628836545324768</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" ref="X18:AF18" si="29">AVERAGE(M18:M21)</f>
+        <f t="shared" ref="X18:AF18" si="35">AVERAGE(M18:M21)</f>
         <v>0.35688793718772305</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>2.1948608137044969</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>12.245721666128514</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>2.3197715917201998</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4.5146324054246971</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.36323835393655601</v>
       </c>
       <c r="AI18" s="3">
@@ -13382,11 +15451,11 @@
         <v>1.1955745895788723</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" ref="AJ18:AK18" si="30">AJ2</f>
+        <f t="shared" ref="AJ18:AK18" si="36">AJ2</f>
         <v>0.34439685938615272</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.3012134189864382</v>
       </c>
       <c r="AL18" s="3">
@@ -13394,39 +15463,62 @@
         <v>20</v>
       </c>
       <c r="AN18" s="3">
+        <f>(AI18+AJ18+AK18)/AL18</f>
+        <v>0.24205924339757318</v>
+      </c>
+      <c r="AQ18" s="3">
         <f>($AI$18-L18)/48</f>
         <v>-1.3755055912443493E-2</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AR18" s="3">
         <f>($AJ$18-M18)/48</f>
         <v>-8.5504401617892084E-4</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AS18" s="3">
         <f>($AK$18-N18)/48</f>
         <v>-2.6394837021175361E-2</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AT18" s="3">
         <f>($AL$18-O18)/48</f>
         <v>0.14355290065654933</v>
       </c>
-      <c r="AS18" s="3">
-        <f>AVERAGE(AN18:AN21)</f>
-        <v>-1.5985605519866761E-2</v>
-      </c>
-      <c r="AT18" s="3">
-        <f t="shared" ref="AT18:AV18" si="31">AVERAGE(AO18:AO21)</f>
-        <v>-2.6023078753271511E-4</v>
-      </c>
-      <c r="AU18" s="3">
-        <f t="shared" si="31"/>
-        <v>2.3049012610040442E-2</v>
-      </c>
       <c r="AV18" s="3">
-        <f t="shared" si="31"/>
-        <v>0.16154746528898933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>9.5876676325506125</v>
+      </c>
+      <c r="AX18" s="3">
+        <f>AQ18/$AV$18</f>
+        <v>-1.4346613211480535E-3</v>
+      </c>
+      <c r="AY18" s="3">
+        <f t="shared" ref="AY18:BA21" si="37">AR18/$AV$18</f>
+        <v>-8.918164969298722E-5</v>
+      </c>
+      <c r="AZ18" s="3">
+        <f t="shared" si="37"/>
+        <v>-2.7529987513922119E-3</v>
+      </c>
+      <c r="BA18" s="3">
+        <f t="shared" si="37"/>
+        <v>1.497266135605077E-2</v>
+      </c>
+      <c r="BD18" s="3">
+        <f>AVERAGE(AX18:AX21)</f>
+        <v>-1.6673091029558457E-3</v>
+      </c>
+      <c r="BE18" s="3">
+        <f t="shared" ref="BE18:BF18" si="38">AVERAGE(AY18:AY21)</f>
+        <v>-2.7142241210909162E-5</v>
+      </c>
+      <c r="BF18" s="3">
+        <f t="shared" si="38"/>
+        <v>2.4040270786805217E-3</v>
+      </c>
+      <c r="BG18" s="3">
+        <f>AVERAGE(BA18:BA21)</f>
+        <v>1.6849506207383284E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -13482,24 +15574,40 @@
         <f t="shared" si="8"/>
         <v>0.34501324154309004</v>
       </c>
-      <c r="AN19" s="3">
-        <f t="shared" ref="AN19:AN21" si="32">($AI$18-L19)/48</f>
+      <c r="AQ19" s="3">
+        <f t="shared" ref="AQ19:AQ21" si="39">($AI$18-L19)/48</f>
         <v>-1.3755055912443493E-2</v>
       </c>
-      <c r="AO19" s="3">
-        <f t="shared" ref="AO19:AO21" si="33">($AJ$18-M19)/48</f>
+      <c r="AR19" s="3">
+        <f t="shared" ref="AR19:AR21" si="40">($AJ$18-M19)/48</f>
         <v>3.7175826790387716E-5</v>
       </c>
-      <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AP21" si="34">($AK$18-N19)/48</f>
+      <c r="AS19" s="3">
+        <f t="shared" ref="AS19:AS21" si="41">($AK$18-N19)/48</f>
         <v>1.5242088984059007E-2</v>
       </c>
-      <c r="AQ19" s="3">
-        <f t="shared" ref="AQ19:AQ21" si="35">($AL$18-O19)/48</f>
+      <c r="AT19" s="3">
+        <f t="shared" ref="AT19:AT21" si="42">($AL$18-O19)/48</f>
         <v>0.12875363254762673</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX19" s="3">
+        <f t="shared" ref="AX19:AX21" si="43">AQ19/$AV$18</f>
+        <v>-1.4346613211480535E-3</v>
+      </c>
+      <c r="AY19" s="3">
+        <f>AR19/$AV$18</f>
+        <v>3.8774630301298642E-6</v>
+      </c>
+      <c r="AZ19" s="3">
+        <f t="shared" si="37"/>
+        <v>1.5897598423532486E-3</v>
+      </c>
+      <c r="BA19" s="3">
+        <f t="shared" si="37"/>
+        <v>1.3429088020375434E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -13555,24 +15663,40 @@
         <f t="shared" si="8"/>
         <v>0.30545973655181363</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AQ20" s="3">
         <f>($AI$18-L20)/48</f>
         <v>-2.4164287413752081E-2</v>
       </c>
-      <c r="AO20" s="3">
-        <f t="shared" si="33"/>
+      <c r="AR20" s="3">
+        <f t="shared" si="40"/>
         <v>3.3458244111349056E-4</v>
       </c>
-      <c r="AP20" s="3">
-        <f t="shared" si="34"/>
+      <c r="AS20" s="3">
+        <f t="shared" si="41"/>
         <v>5.6879014989293354E-2</v>
       </c>
-      <c r="AQ20" s="3">
-        <f t="shared" si="35"/>
+      <c r="AT20" s="3">
+        <f t="shared" si="42"/>
         <v>0.19467764503282745</v>
       </c>
-    </row>
-    <row r="21" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX20" s="3">
+        <f t="shared" si="43"/>
+        <v>-2.5203509695844182E-3</v>
+      </c>
+      <c r="AY20" s="3">
+        <f t="shared" si="37"/>
+        <v>3.4897167271168889E-5</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f t="shared" si="37"/>
+        <v>5.932518436098707E-3</v>
+      </c>
+      <c r="BA20" s="3">
+        <f t="shared" si="37"/>
+        <v>2.0305005606565573E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -13628,24 +15752,40 @@
         <f t="shared" si="8"/>
         <v>0.28305237254652182</v>
       </c>
-      <c r="AN21" s="3">
-        <f t="shared" si="32"/>
+      <c r="AQ21" s="3">
+        <f t="shared" si="39"/>
         <v>-1.226802284082798E-2</v>
       </c>
-      <c r="AO21" s="3">
-        <f t="shared" si="33"/>
+      <c r="AR21" s="3">
+        <f t="shared" si="40"/>
         <v>-5.5763740185581798E-4</v>
       </c>
-      <c r="AP21" s="3">
-        <f t="shared" si="34"/>
+      <c r="AS21" s="3">
+        <f t="shared" si="41"/>
         <v>4.6469783487984771E-2</v>
       </c>
-      <c r="AQ21" s="3">
-        <f t="shared" si="35"/>
+      <c r="AT21" s="3">
+        <f t="shared" si="42"/>
         <v>0.17920568291895381</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX21" s="3">
+        <f t="shared" si="43"/>
+        <v>-1.2795627999428586E-3</v>
+      </c>
+      <c r="AY21" s="3">
+        <f t="shared" si="37"/>
+        <v>-5.8161945451948191E-5</v>
+      </c>
+      <c r="AZ21" s="3">
+        <f t="shared" si="37"/>
+        <v>4.8468287876623434E-3</v>
+      </c>
+      <c r="BA21" s="3">
+        <f t="shared" si="37"/>
+        <v>1.8691269846541354E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -13706,79 +15846,102 @@
         <v>1.7309064953604567</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:AF22" si="36">AVERAGE(M22:M25)</f>
+        <f t="shared" ref="X22:AF22" si="44">AVERAGE(M22:M25)</f>
         <v>0.3640256959314776</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>1.4632405424696646</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>2.0949321912919343</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>3.5581727337615989</v>
       </c>
       <c r="AF22" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI22" s="11">
+      <c r="AI22">
         <f>AI2+10</f>
         <v>11.195574589578872</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AJ22">
         <f>AJ2</f>
         <v>0.34439685938615272</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AK22">
         <f>AK2+10</f>
         <v>13.301213418986439</v>
       </c>
-      <c r="AL22" s="11">
+      <c r="AL22">
         <f>AL2+5</f>
         <v>5</v>
       </c>
-      <c r="AN22" s="11">
+      <c r="AN22" s="3">
+        <f>(AI22+AJ22+AK22)/AL22</f>
+        <v>4.968236973590292</v>
+      </c>
+      <c r="AQ22">
         <f>($AI$22-L22)/48</f>
         <v>0.20498750892219841</v>
       </c>
-      <c r="AO22" s="11">
+      <c r="AR22">
         <f>($AJ$22-M22)/48</f>
         <v>1.2268022840827969E-3</v>
       </c>
-      <c r="AP22" s="11">
+      <c r="AS22">
         <f>($AK$22-N22)/48</f>
         <v>0.25034201760647162</v>
       </c>
-      <c r="AQ22" s="11">
+      <c r="AT22">
         <f>($AL$22-O22)/48</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="AS22">
-        <f>AVERAGE(AN22:AN25)</f>
-        <v>0.19718058529621699</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" ref="AT22:AV22" si="37">AVERAGE(AO22:AO25)</f>
-        <v>-4.0893409469426682E-4</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="37"/>
-        <v>0.24662443492743283</v>
-      </c>
       <c r="AV22">
-        <f t="shared" si="37"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+        <v>36.640658089004219</v>
+      </c>
+      <c r="AX22">
+        <f>AQ22/$AV$22</f>
+        <v>5.5945367690793391E-3</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" ref="AY22:BA25" si="45">AR22/$AV$22</f>
+        <v>3.3481993721367075E-5</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="45"/>
+        <v>6.8323559308995797E-3</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="45"/>
+        <v>2.8429256487051704E-3</v>
+      </c>
+      <c r="BD22">
+        <f>AVERAGE(AX22:AX25)</f>
+        <v>5.3814695363070039E-3</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" ref="BE22:BG22" si="46">AVERAGE(AY22:AY25)</f>
+        <v>-1.1160664573789056E-5</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="46"/>
+        <v>6.7308953438651332E-3</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="46"/>
+        <v>2.8429256487051704E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -13834,28 +15997,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AN23" s="11">
-        <f t="shared" ref="AN23:AN25" si="38">($AI$22-L23)/48</f>
+      <c r="AQ23">
+        <f t="shared" ref="AQ23:AQ25" si="47">($AI$22-L23)/48</f>
         <v>0.19606531049250533</v>
       </c>
-      <c r="AO23" s="11">
-        <f t="shared" ref="AO23:AO25" si="39">($AJ$22-M23)/48</f>
+      <c r="AR23">
+        <f t="shared" ref="AR23:AR25" si="48">($AJ$22-M23)/48</f>
         <v>-8.5504401617892084E-4</v>
       </c>
-      <c r="AP23" s="11">
-        <f t="shared" ref="AP23:AP25" si="40">($AK$22-N23)/48</f>
+      <c r="AS23">
+        <f t="shared" ref="AS23:AS25" si="49">($AK$22-N23)/48</f>
         <v>0.24736795146324056</v>
       </c>
-      <c r="AQ23" s="11">
-        <f t="shared" ref="AQ23:AQ25" si="41">($AL$22-O23)/48</f>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT25" si="50">($AL$22-O23)/48</f>
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX23">
+        <f t="shared" ref="AX23:AX25" si="51">AQ23/$AV$22</f>
+        <v>5.3510313601966694E-3</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="45"/>
+        <v>-2.3335935017922553E-5</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="45"/>
+        <v>6.751187461272022E-3</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="45"/>
+        <v>2.8429256487051704E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -13911,28 +16086,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AN24" s="11">
-        <f t="shared" si="38"/>
+      <c r="AQ24">
+        <f t="shared" si="47"/>
         <v>0.18416904591958125</v>
       </c>
-      <c r="AO24" s="11">
-        <f t="shared" si="39"/>
+      <c r="AR24">
+        <f t="shared" si="48"/>
         <v>-2.6023078753271517E-4</v>
       </c>
-      <c r="AP24" s="11">
-        <f t="shared" si="40"/>
+      <c r="AS24">
+        <f t="shared" si="49"/>
         <v>0.27116048060908876</v>
       </c>
-      <c r="AQ24" s="11">
-        <f t="shared" si="41"/>
+      <c r="AT24">
+        <f t="shared" si="50"/>
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX24">
+        <f t="shared" si="51"/>
+        <v>5.0263574816864429E-3</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="45"/>
+        <v>-7.1022410924112158E-6</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="45"/>
+        <v>7.4005352182924741E-3</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="45"/>
+        <v>2.8429256487051704E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -13988,24 +16175,40 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN25" s="11">
-        <f t="shared" si="38"/>
+      <c r="AQ25">
+        <f t="shared" si="47"/>
         <v>0.20350047585058292</v>
       </c>
-      <c r="AO25" s="11">
-        <f t="shared" si="39"/>
+      <c r="AR25">
+        <f t="shared" si="48"/>
         <v>-1.7472638591482282E-3</v>
       </c>
-      <c r="AP25" s="11">
-        <f t="shared" si="40"/>
+      <c r="AS25">
+        <f t="shared" si="49"/>
         <v>0.21762729003093031</v>
       </c>
-      <c r="AQ25" s="11">
-        <f t="shared" si="41"/>
+      <c r="AT25">
+        <f t="shared" si="50"/>
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX25">
+        <f t="shared" si="51"/>
+        <v>5.5539525342655615E-3</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="45"/>
+        <v>-4.7686475906189528E-5</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="45"/>
+        <v>5.9395027649964561E-3</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="45"/>
+        <v>2.8429256487051704E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -14066,27 +16269,27 @@
         <v>1.85581727337616</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" ref="X26:AF26" si="42">AVERAGE(M26:M29)</f>
+        <f t="shared" ref="X26:AF26" si="52">AVERAGE(M26:M29)</f>
         <v>0.39257673090649536</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>7.2448251249107791</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>14.086212463674524</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>2.2483940042826553</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>9.4932191291934345</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0.66135489529193792</v>
       </c>
       <c r="AI26" s="3">
@@ -14106,39 +16309,62 @@
         <v>20</v>
       </c>
       <c r="AN26" s="3">
+        <f>(AI26+AJ26+AK26)/AL26</f>
+        <v>1.242059243397573</v>
+      </c>
+      <c r="AQ26" s="3">
         <f>($AI$26-L26)/48</f>
         <v>0.20350047585058292</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AR26" s="3">
         <f>($AJ$26-M26)/48</f>
         <v>-1.7472638591482282E-3</v>
       </c>
-      <c r="AP26" s="3">
+      <c r="AS26" s="3">
         <f>($AK$26-N26)/48</f>
         <v>0.22654948846062339</v>
       </c>
-      <c r="AQ26" s="3">
+      <c r="AT26" s="3">
         <f>($AL$26-O26)/48</f>
         <v>0.13884404262189218</v>
       </c>
-      <c r="AS26" s="3">
-        <f>AVERAGE(AN26:AN29)</f>
-        <v>0.19457827742088984</v>
-      </c>
-      <c r="AT26" s="3">
-        <f t="shared" ref="AT26:AV26" si="43">AVERAGE(AO26:AO29)</f>
-        <v>-1.0037473233404717E-3</v>
-      </c>
-      <c r="AU26" s="3">
-        <f t="shared" si="43"/>
-        <v>0.12617475612657625</v>
-      </c>
       <c r="AV26" s="3">
-        <f t="shared" si="43"/>
-        <v>0.12320390700678074</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36.78862183564614</v>
+      </c>
+      <c r="AX26" s="3">
+        <f>AQ26/$AV$26</f>
+        <v>5.5316145508175086E-3</v>
+      </c>
+      <c r="AY26" s="3">
+        <f t="shared" ref="AY26:BA29" si="53">AR26/$AV$26</f>
+        <v>-4.7494681017249364E-5</v>
+      </c>
+      <c r="AZ26" s="3">
+        <f t="shared" si="53"/>
+        <v>6.1581401301939905E-3</v>
+      </c>
+      <c r="BA26" s="3">
+        <f t="shared" si="53"/>
+        <v>3.7741028528380472E-3</v>
+      </c>
+      <c r="BD26" s="3">
+        <f>AVERAGE(AX26:AX29)</f>
+        <v>5.289088520091129E-3</v>
+      </c>
+      <c r="BE26" s="3">
+        <f>AVERAGE(AY26:AY29)</f>
+        <v>-2.7284178456717724E-5</v>
+      </c>
+      <c r="BF26" s="3">
+        <f t="shared" ref="BF26:BG26" si="54">AVERAGE(AZ26:AZ29)</f>
+        <v>3.4297222845222188E-3</v>
+      </c>
+      <c r="BG26" s="3">
+        <f t="shared" si="54"/>
+        <v>3.3489677204325977E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -14194,24 +16420,40 @@
         <f t="shared" si="8"/>
         <v>0.47278567257153981</v>
       </c>
-      <c r="AN27" s="3">
-        <f t="shared" ref="AN27:AN29" si="44">($AI$26-L27)/48</f>
+      <c r="AQ27" s="3">
+        <f t="shared" ref="AQ27:AQ29" si="55">($AI$26-L27)/48</f>
         <v>0.19457827742088982</v>
       </c>
-      <c r="AO27" s="3">
-        <f t="shared" ref="AO27:AO29" si="45">($AJ$26-M27)/48</f>
+      <c r="AR27" s="3">
+        <f t="shared" ref="AR27:AR29" si="56">($AJ$26-M27)/48</f>
         <v>-2.3420770877944329E-3</v>
       </c>
-      <c r="AP27" s="3">
-        <f t="shared" ref="AP27:AP29" si="46">($AK$26-N27)/48</f>
+      <c r="AS27" s="3">
+        <f t="shared" ref="AS27:AS29" si="57">($AK$26-N27)/48</f>
         <v>0.19234772781346657</v>
       </c>
-      <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27:AQ29" si="47">($AL$26-O27)/48</f>
+      <c r="AT27" s="3">
+        <f t="shared" ref="AT27:AT29" si="58">($AL$26-O27)/48</f>
         <v>0.135480572597137</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX27" s="3">
+        <f t="shared" ref="AX27:AX29" si="59">AQ27/$AV$26</f>
+        <v>5.2890885200911281E-3</v>
+      </c>
+      <c r="AY27" s="3">
+        <f t="shared" si="53"/>
+        <v>-6.3663083065674663E-5</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f t="shared" si="53"/>
+        <v>5.2284570124095341E-3</v>
+      </c>
+      <c r="BA27" s="3">
+        <f t="shared" si="53"/>
+        <v>3.6826759426433261E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -14267,24 +16509,40 @@
         <f t="shared" si="8"/>
         <v>0.94872084686566549</v>
       </c>
-      <c r="AN28" s="3">
-        <f t="shared" si="44"/>
+      <c r="AQ28" s="3">
+        <f t="shared" si="55"/>
         <v>0.17524684748988817</v>
       </c>
-      <c r="AO28" s="3">
-        <f t="shared" si="45"/>
+      <c r="AR28" s="3">
+        <f t="shared" si="56"/>
         <v>1.8587913395193856E-4</v>
       </c>
-      <c r="AP28" s="3">
-        <f t="shared" si="46"/>
+      <c r="AS28" s="3">
+        <f t="shared" si="57"/>
         <v>5.5540685224839424E-2</v>
       </c>
-      <c r="AQ28" s="3">
-        <f t="shared" si="47"/>
+      <c r="AT28" s="3">
+        <f t="shared" si="58"/>
         <v>0.11462705844365513</v>
       </c>
-    </row>
-    <row r="29" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX28" s="3">
+        <f t="shared" si="59"/>
+        <v>4.7636154535173067E-3</v>
+      </c>
+      <c r="AY28" s="3">
+        <f t="shared" si="53"/>
+        <v>5.0526256401328948E-6</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f t="shared" si="53"/>
+        <v>1.5097245412717139E-3</v>
+      </c>
+      <c r="BA28" s="3">
+        <f t="shared" si="53"/>
+        <v>3.1158290994360615E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -14340,30 +16598,46 @@
         <f>S29/O29</f>
         <v>0.90276576638806372</v>
       </c>
-      <c r="AN29" s="3">
-        <f t="shared" si="44"/>
+      <c r="AQ29" s="3">
+        <f t="shared" si="55"/>
         <v>0.20498750892219841</v>
       </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="45"/>
+      <c r="AR29" s="3">
+        <f t="shared" si="56"/>
         <v>-1.1152748037116429E-4</v>
       </c>
-      <c r="AP29" s="3">
-        <f t="shared" si="46"/>
+      <c r="AS29" s="3">
+        <f t="shared" si="57"/>
         <v>3.0261123007375674E-2</v>
       </c>
-      <c r="AQ29" s="3">
-        <f t="shared" si="47"/>
+      <c r="AT29" s="3">
+        <f t="shared" si="58"/>
         <v>0.10386395436443867</v>
       </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AX29" s="3">
+        <f t="shared" si="59"/>
+        <v>5.5720355559385716E-3</v>
+      </c>
+      <c r="AY29" s="3">
+        <f t="shared" si="53"/>
+        <v>-3.031575384079768E-6</v>
+      </c>
+      <c r="AZ29" s="3">
+        <f t="shared" si="53"/>
+        <v>8.2256745421363726E-4</v>
+      </c>
+      <c r="BA29" s="3">
+        <f t="shared" si="53"/>
+        <v>2.8232629868129564E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">

--- a/data/Final_nutrient_data.xlsx
+++ b/data/Final_nutrient_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\OneDrive\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F10991-E5B2-42D2-AA4D-D9E4970BDCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167E395-F470-4CFF-88FF-39682C1471B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EE80FFE4-52A9-4067-882B-EC09130D2648}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EE80FFE4-52A9-4067-882B-EC09130D2648}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="B2" sheetId="3" r:id="rId3"/>
     <sheet name="B3" sheetId="4" r:id="rId4"/>
     <sheet name="B4" sheetId="5" r:id="rId5"/>
+    <sheet name="all_concentrations" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2867,7 +2868,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="90">
   <si>
     <t>T0</t>
   </si>
@@ -3090,12 +3091,60 @@
   <si>
     <t>intital_DIN:DIP</t>
   </si>
+  <si>
+    <t>B1_NO3</t>
+  </si>
+  <si>
+    <t>B1_NO2</t>
+  </si>
+  <si>
+    <t>B1_NH3</t>
+  </si>
+  <si>
+    <t>B1_PO4</t>
+  </si>
+  <si>
+    <t>B2_NO3</t>
+  </si>
+  <si>
+    <t>B2_NO2</t>
+  </si>
+  <si>
+    <t>B2_NH3</t>
+  </si>
+  <si>
+    <t>B2_PO4</t>
+  </si>
+  <si>
+    <t>B3_NO3</t>
+  </si>
+  <si>
+    <t>B3_NO2</t>
+  </si>
+  <si>
+    <t>B3_NH3</t>
+  </si>
+  <si>
+    <t>B3_PO4</t>
+  </si>
+  <si>
+    <t>B4_NO3</t>
+  </si>
+  <si>
+    <t>B4_NO2</t>
+  </si>
+  <si>
+    <t>B4_NH3</t>
+  </si>
+  <si>
+    <t>B4_PO4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3135,6 +3184,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4738,8 +4793,8 @@
   <dimension ref="A1:BN29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ37" sqref="AJ37"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5603,7 +5658,7 @@
         <v>1.1241970021413277</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" ref="X10:AF10" si="18">AVERAGE(M10:M13)</f>
+        <f t="shared" ref="X10:AD10" si="18">AVERAGE(M10:M13)</f>
         <v>0.67630264097073522</v>
       </c>
       <c r="Y10" s="3">
@@ -7614,8 +7669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62A7E5F-9F35-4270-A2C5-2A0758E25CBF}">
   <dimension ref="A1:BG56"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10650,8 +10705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8257607C-E753-4F63-B3B1-003646E65911}">
   <dimension ref="A1:BG56"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11181,19 +11236,19 @@
         <v>4.1503204500146857</v>
       </c>
       <c r="AX6">
-        <f>AQ6/$AV$6</f>
+        <f t="shared" ref="AX6:BA9" si="11">AQ6/$AV$6</f>
         <v>0</v>
       </c>
       <c r="AY6">
-        <f>AR6/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>1.6123210009593651E-4</v>
       </c>
       <c r="AZ6">
-        <f>AS6/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>-1.0748806673062446E-3</v>
       </c>
       <c r="BA6">
-        <f>AT6/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BD6">
@@ -11205,7 +11260,7 @@
         <v>3.5829355576874665E-5</v>
       </c>
       <c r="BF6">
-        <f t="shared" ref="BF6" si="11">AVERAGE(AZ6:AZ9)</f>
+        <f t="shared" ref="BF6" si="12">AVERAGE(AZ6:AZ9)</f>
         <v>-2.6872016682656115E-4</v>
       </c>
       <c r="BG6">
@@ -11270,35 +11325,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ7">
-        <f t="shared" ref="AQ7:AQ9" si="12">($AI$6-L7)/48</f>
+        <f t="shared" ref="AQ7:AQ9" si="13">($AI$6-L7)/48</f>
         <v>0</v>
       </c>
       <c r="AR7">
-        <f t="shared" ref="AR7:AR9" si="13">($AJ$6-M7)/48</f>
+        <f t="shared" ref="AR7:AR9" si="14">($AJ$6-M7)/48</f>
         <v>8.1786818938853201E-4</v>
       </c>
       <c r="AS7">
-        <f t="shared" ref="AS7:AS8" si="14">($AK$6-N7)/48</f>
+        <f t="shared" ref="AS7:AS8" si="15">($AK$6-N7)/48</f>
         <v>0</v>
       </c>
       <c r="AT7">
-        <f t="shared" ref="AT7:AT9" si="15">($AL$6-O7)/48</f>
+        <f t="shared" ref="AT7:AT9" si="16">($AL$6-O7)/48</f>
         <v>0</v>
       </c>
       <c r="AX7">
-        <f>AQ7/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY7">
-        <f>AR7/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>1.970614556728115E-4</v>
       </c>
       <c r="AZ7">
-        <f>AS7/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA7">
-        <f>AT7/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11359,35 +11414,35 @@
         <v>0.20126029381997934</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1.4126814180347388E-3</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.5070498331718868E-2</v>
       </c>
       <c r="AX8">
-        <f>AQ8/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY8">
-        <f>AR8/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>-3.4037887798031113E-4</v>
       </c>
       <c r="AZ8">
-        <f>AS8/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA8">
-        <f>AT8/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>-1.0859522505439161E-2</v>
       </c>
     </row>
@@ -11448,11 +11503,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.2046157506542914E-4</v>
       </c>
       <c r="AS9">
@@ -11460,23 +11515,23 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AX9">
-        <f>AQ9/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY9">
-        <f>AR9/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>1.2540274451906179E-4</v>
       </c>
       <c r="AZ9">
-        <f>AS9/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA9">
-        <f>AT9/$AV$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11541,27 +11596,27 @@
         <v>2.5695931477516059</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" ref="X10:AF10" si="16">AVERAGE(M10:M13)</f>
+        <f t="shared" ref="X10:AF10" si="17">AVERAGE(M10:M13)</f>
         <v>0.40328336902212703</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.7301927194860811</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.972876516773733</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.7030692362598145</v>
       </c>
       <c r="AF10" s="3" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" s="3">
@@ -11604,19 +11659,19 @@
         <v>26.545525015867288</v>
       </c>
       <c r="AX10" s="3">
-        <f>AQ10/$AV$10</f>
+        <f t="shared" ref="AX10:BA13" si="18">AQ10/$AV$10</f>
         <v>5.383350982767589E-3</v>
       </c>
       <c r="AY10" s="3">
-        <f>AR10/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>-4.201366531816538E-5</v>
       </c>
       <c r="AZ10" s="3">
-        <f>AS10/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>7.8481526814332906E-3</v>
       </c>
       <c r="BA10" s="3">
-        <f>AT10/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD10" s="3">
@@ -11624,15 +11679,15 @@
         <v>5.8314967461613534E-3</v>
       </c>
       <c r="BE10" s="3">
-        <f t="shared" ref="BE10:BG10" si="17">AVERAGE(AY10:AY13)</f>
+        <f t="shared" ref="BE10:BG10" si="19">AVERAGE(AY10:AY13)</f>
         <v>-2.8009110212110274E-5</v>
       </c>
       <c r="BF10" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.7054557502068557E-3</v>
       </c>
       <c r="BG10" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -11693,35 +11748,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ11" s="3">
-        <f t="shared" ref="AQ11:AQ13" si="18">($AI$10-L11)/48</f>
+        <f t="shared" ref="AQ11:AQ13" si="20">($AI$10-L11)/48</f>
         <v>0.14587794432548182</v>
       </c>
       <c r="AR11" s="3">
-        <f t="shared" ref="AR11:AR13" si="19">($AJ$10-M11)/48</f>
+        <f t="shared" ref="AR11:AR13" si="21">($AJ$10-M11)/48</f>
         <v>-6.6916488222698112E-4</v>
       </c>
       <c r="AS11" s="3">
-        <f t="shared" ref="AS11:AS13" si="20">($AK$10-N11)/48</f>
+        <f t="shared" ref="AS11:AS13" si="22">($AK$10-N11)/48</f>
         <v>0.20684630026171782</v>
       </c>
       <c r="AT11" s="3">
-        <f t="shared" ref="AT11:AT13" si="21">($AL$10-O11)/48</f>
+        <f t="shared" ref="AT11:AT13" si="23">($AL$10-O11)/48</f>
         <v>0</v>
       </c>
       <c r="AX11" s="3">
-        <f>AQ11/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>5.4953874236160303E-3</v>
       </c>
       <c r="AY11" s="3">
-        <f>AR11/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>-2.5208199190899235E-5</v>
       </c>
       <c r="AZ11" s="3">
-        <f>AS11/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>7.7921344610090695E-3</v>
       </c>
       <c r="BA11" s="3">
-        <f>AT11/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11782,35 +11837,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ12" s="3">
+        <f t="shared" si="20"/>
+        <v>0.16223530811325246</v>
+      </c>
+      <c r="AR12" s="3">
+        <f t="shared" si="21"/>
+        <v>-8.178681893885332E-4</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="22"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="AT12" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="3">
         <f t="shared" si="18"/>
-        <v>0.16223530811325246</v>
-      </c>
-      <c r="AR12" s="3">
-        <f t="shared" si="19"/>
-        <v>-8.178681893885332E-4</v>
-      </c>
-      <c r="AS12" s="3">
-        <f t="shared" si="20"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="AT12" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AX12" s="3">
-        <f>AQ12/$AV$10</f>
         <v>6.1115878482824555E-3</v>
       </c>
       <c r="AY12" s="3">
-        <f>AR12/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>-3.0810021233321313E-5</v>
       </c>
       <c r="AZ12" s="3">
-        <f>AS12/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>7.8481526814332906E-3</v>
       </c>
       <c r="BA12" s="3">
-        <f>AT12/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11871,35 +11926,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ13" s="3">
+        <f t="shared" si="20"/>
+        <v>0.16818344039971447</v>
+      </c>
+      <c r="AR13" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.7175826790387945E-4</v>
+      </c>
+      <c r="AS13" s="3">
+        <f t="shared" si="22"/>
+        <v>-1.7695693552224594E-2</v>
+      </c>
+      <c r="AT13" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="3">
         <f t="shared" si="18"/>
-        <v>0.16818344039971447</v>
-      </c>
-      <c r="AR13" s="3">
-        <f t="shared" si="19"/>
-        <v>-3.7175826790387945E-4</v>
-      </c>
-      <c r="AS13" s="3">
-        <f t="shared" si="20"/>
-        <v>-1.7695693552224594E-2</v>
-      </c>
-      <c r="AT13" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AX13" s="3">
-        <f>AQ13/$AV$10</f>
         <v>6.3356607299793364E-3</v>
       </c>
       <c r="AY13" s="3">
-        <f>AR13/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>-1.4004555106055169E-5</v>
       </c>
       <c r="AZ13" s="3">
-        <f>AS13/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>-6.6661682304822352E-4</v>
       </c>
       <c r="BA13" s="3">
-        <f>AT13/$AV$10</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11964,11 +12019,11 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14:AF14" si="22">AVERAGE(M14:M17)</f>
+        <f t="shared" ref="X14:AF14" si="24">AVERAGE(M14:M17)</f>
         <v>0.34439685938615278</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z14">
@@ -11976,15 +12031,15 @@
         <v>4.0442363577655795</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.34439685938615278</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.34439685938615278</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.5230453327545863E-2</v>
       </c>
       <c r="AI14">
@@ -11992,11 +12047,11 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" ref="AJ14:AK14" si="23">AJ2</f>
+        <f t="shared" ref="AJ14:AK14" si="25">AJ2</f>
         <v>0.36759457530335471</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AL14">
@@ -12027,19 +12082,19 @@
         <v>5.2414275985992758</v>
       </c>
       <c r="AX14">
-        <f>AQ14/$AV$14</f>
+        <f t="shared" ref="AX14:BA17" si="26">AQ14/$AV$14</f>
         <v>0</v>
       </c>
       <c r="AY14">
-        <f>AR14/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>2.1278073248778246E-4</v>
       </c>
       <c r="AZ14">
-        <f>AS14/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BA14">
-        <f>AT14/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>3.7026595670278011E-3</v>
       </c>
       <c r="BD14">
@@ -12047,15 +12102,15 @@
         <v>0</v>
       </c>
       <c r="BE14">
-        <f t="shared" ref="BE14:BG14" si="24">AVERAGE(AY14:AY17)</f>
+        <f t="shared" ref="BE14:BG14" si="27">AVERAGE(AY14:AY17)</f>
         <v>9.2204984078039028E-5</v>
       </c>
       <c r="BF14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BG14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3.7989158815952473E-3</v>
       </c>
     </row>
@@ -12116,35 +12171,35 @@
         <v>8.289614561027836E-2</v>
       </c>
       <c r="AQ15">
-        <f t="shared" ref="AQ15:AQ17" si="25">($AI$14-L15)/48</f>
+        <f t="shared" ref="AQ15:AQ17" si="28">($AI$14-L15)/48</f>
         <v>0</v>
       </c>
       <c r="AR15">
-        <f t="shared" ref="AR15:AR16" si="26">($AJ$14-M15)/48</f>
+        <f t="shared" ref="AR15:AR16" si="29">($AJ$14-M15)/48</f>
         <v>5.2046157506542914E-4</v>
       </c>
       <c r="AS15">
-        <f t="shared" ref="AS15:AS17" si="27">($AK$14-N15)/48</f>
+        <f t="shared" ref="AS15:AS17" si="30">($AK$14-N15)/48</f>
         <v>0</v>
       </c>
       <c r="AT15">
-        <f t="shared" ref="AT15:AT17" si="28">($AL$14-O15)/48</f>
+        <f t="shared" ref="AT15:AT17" si="31">($AL$14-O15)/48</f>
         <v>1.8061834032935098E-2</v>
       </c>
       <c r="AX15">
-        <f>AQ15/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AY15">
-        <f>AR15/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>9.929767516096527E-5</v>
       </c>
       <c r="AZ15">
-        <f>AS15/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BA15">
-        <f>AT15/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>3.4459760615146071E-3</v>
       </c>
     </row>
@@ -12205,35 +12260,35 @@
         <v>8.8422555317630255E-2</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AR16">
+        <f t="shared" si="29"/>
+        <v>2.2305496074232628E-4</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="31"/>
+        <v>2.0079916047788176E-2</v>
+      </c>
+      <c r="AX16">
         <f t="shared" si="26"/>
-        <v>2.2305496074232628E-4</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="28"/>
-        <v>2.0079916047788176E-2</v>
-      </c>
-      <c r="AX16">
-        <f>AQ16/$AV$14</f>
         <v>0</v>
       </c>
       <c r="AY16">
-        <f>AR16/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>4.2556146497556447E-5</v>
       </c>
       <c r="AZ16">
-        <f>AS16/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BA16">
-        <f>AT16/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>3.8310013197843948E-3</v>
       </c>
     </row>
@@ -12294,7 +12349,7 @@
         <v>9.240881805735951E-2</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AR17">
@@ -12302,27 +12357,27 @@
         <v>7.4351653580774266E-5</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.2097998062641271E-2</v>
       </c>
       <c r="AX17">
-        <f>AQ17/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AY17">
-        <f>AR17/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>1.4185382165851928E-5</v>
       </c>
       <c r="AZ17">
-        <f>AS17/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BA17">
-        <f>AT17/$AV$14</f>
+        <f t="shared" si="26"/>
         <v>4.2160265780541856E-3</v>
       </c>
     </row>
@@ -12387,27 +12442,27 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" ref="X18:AF18" si="29">AVERAGE(M18:M21)</f>
+        <f t="shared" ref="X18:AF18" si="32">AVERAGE(M18:M21)</f>
         <v>0.40685224839400425</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>18.130448821440108</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.40685224839400425</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.40685224839400425</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.2506517887322053E-2</v>
       </c>
       <c r="AI18" s="3">
@@ -12415,11 +12470,11 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" ref="AJ18:AK18" si="30">AJ2</f>
+        <f t="shared" ref="AJ18:AK18" si="33">AJ2</f>
         <v>0.36759457530335471</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AL18" s="3">
@@ -12450,19 +12505,19 @@
         <v>4.0845546209712316</v>
       </c>
       <c r="AX18" s="3">
-        <f>AQ18/$AV$18</f>
+        <f t="shared" ref="AX18:BA21" si="34">AQ18/$AV$18</f>
         <v>0</v>
       </c>
       <c r="AY18" s="3">
-        <f>AR18/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>-5.6429683891850697E-4</v>
       </c>
       <c r="AZ18" s="3">
-        <f>AS18/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BA18" s="3">
-        <f>AT18/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>1.1759018157549475E-2</v>
       </c>
       <c r="BD18" s="3">
@@ -12470,11 +12525,11 @@
         <v>0</v>
       </c>
       <c r="BE18" s="3">
-        <f t="shared" ref="BE18:BF18" si="31">AVERAGE(AY18:AY21)</f>
+        <f t="shared" ref="BE18:BF18" si="35">AVERAGE(AY18:AY21)</f>
         <v>-2.0023436219688965E-4</v>
       </c>
       <c r="BF18" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BG18" s="3">
@@ -12539,35 +12594,35 @@
         <v>2.5002787185864926E-2</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" ref="AQ19:AQ21" si="32">($AI$18-L19)/48</f>
+        <f t="shared" ref="AQ19:AQ21" si="36">($AI$18-L19)/48</f>
         <v>0</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" ref="AR19:AR21" si="33">($AJ$18-M19)/48</f>
+        <f t="shared" ref="AR19:AR21" si="37">($AJ$18-M19)/48</f>
         <v>-1.7100880323578406E-3</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" ref="AS19:AS21" si="34">($AK$18-N19)/48</f>
+        <f t="shared" ref="AS19:AS21" si="38">($AK$18-N19)/48</f>
         <v>0</v>
       </c>
       <c r="AT19" s="3">
-        <f t="shared" ref="AT19:AT21" si="35">($AL$18-O19)/48</f>
+        <f t="shared" ref="AT19:AT21" si="39">($AL$18-O19)/48</f>
         <v>4.1976105908944072E-2</v>
       </c>
       <c r="AX19" s="3">
-        <f>AQ19/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AY19" s="3">
-        <f>AR19/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>-4.1867184822985996E-4</v>
       </c>
       <c r="AZ19" s="3">
-        <f>AS19/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BA19" s="3">
-        <f>AT19/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>1.0276788978026429E-2</v>
       </c>
     </row>
@@ -12632,31 +12687,31 @@
         <v>0</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2.2305496074232628E-4</v>
       </c>
       <c r="AS20" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="3">
+        <f t="shared" si="39"/>
+        <v>3.9285329889139943E-2</v>
+      </c>
+      <c r="AX20" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AT20" s="3">
-        <f t="shared" si="35"/>
-        <v>3.9285329889139943E-2</v>
-      </c>
-      <c r="AX20" s="3">
-        <f>AQ20/$AV$18</f>
-        <v>0</v>
-      </c>
       <c r="AY20" s="3">
-        <f>AR20/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>5.4609371508242415E-5</v>
       </c>
       <c r="AZ20" s="3">
-        <f>AS20/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BA20" s="3">
-        <f>AT20/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>9.6180204537939604E-3</v>
       </c>
     </row>
@@ -12717,35 +12772,35 @@
         <v>1.8294321789854538E-2</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.2046157506542914E-4</v>
       </c>
       <c r="AS21" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3">
+        <f t="shared" si="39"/>
+        <v>2.6504143795070528E-2</v>
+      </c>
+      <c r="AX21" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AT21" s="3">
-        <f t="shared" si="35"/>
-        <v>2.6504143795070528E-2</v>
-      </c>
-      <c r="AX21" s="3">
-        <f>AQ21/$AV$18</f>
-        <v>0</v>
-      </c>
       <c r="AY21" s="3">
-        <f>AR21/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>1.2742186685256592E-4</v>
       </c>
       <c r="AZ21" s="3">
-        <f>AS21/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BA21" s="3">
-        <f>AT21/$AV$18</f>
+        <f t="shared" si="34"/>
         <v>6.488869963689782E-3</v>
       </c>
     </row>
@@ -12810,27 +12865,27 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:AF22" si="36">AVERAGE(M22:M25)</f>
+        <f t="shared" ref="X22:AF22" si="40">AVERAGE(M22:M25)</f>
         <v>0.43004996431120623</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.12491077801570308</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2.1230222796254443</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.43004996431120623</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.5549607423269094</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.26083232652953758</v>
       </c>
       <c r="AI22">
@@ -12873,19 +12928,19 @@
         <v>23.700686163793598</v>
       </c>
       <c r="AX22">
-        <f>AQ22/$AV$22</f>
+        <f t="shared" ref="AX22:BA25" si="41">AQ22/$AV$22</f>
         <v>8.7901815117738744E-3</v>
       </c>
       <c r="AY22">
-        <f>AR22/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>-5.3330865703124901E-5</v>
       </c>
       <c r="AZ22">
-        <f>AS22/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>8.7901815117738744E-3</v>
       </c>
       <c r="BA22">
-        <f>AT22/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>2.6637343715853346E-3</v>
       </c>
       <c r="BD22">
@@ -12893,15 +12948,15 @@
         <v>8.7901815117738744E-3</v>
       </c>
       <c r="BE22">
-        <f t="shared" ref="BE22:BG22" si="37">AVERAGE(AY22:AY25)</f>
+        <f t="shared" ref="BE22:BG22" si="42">AVERAGE(AY22:AY25)</f>
         <v>-5.4899420576746211E-5</v>
       </c>
       <c r="BF22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>8.6803826706203825E-3</v>
       </c>
       <c r="BG22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2.5289156367421768E-3</v>
       </c>
     </row>
@@ -12962,35 +13017,35 @@
         <v>0.23978998052238715</v>
       </c>
       <c r="AQ23">
-        <f t="shared" ref="AQ23:AQ25" si="38">($AI$22-L23)/48</f>
+        <f t="shared" ref="AQ23:AQ25" si="43">($AI$22-L23)/48</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="AR23">
-        <f t="shared" ref="AR23:AR25" si="39">($AJ$22-M23)/48</f>
+        <f t="shared" ref="AR23:AR25" si="44">($AJ$22-M23)/48</f>
         <v>-1.8587913395193914E-3</v>
       </c>
       <c r="AS23">
-        <f t="shared" ref="AS23:AS25" si="40">($AK$22-N23)/48</f>
+        <f t="shared" ref="AS23:AS25" si="45">($AK$22-N23)/48</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:AT25" si="41">($AL$22-O23)/48</f>
+        <f t="shared" ref="AT23:AT25" si="46">($AL$22-O23)/48</f>
         <v>6.4477720374556027E-2</v>
       </c>
       <c r="AX23">
-        <f>AQ23/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>8.7901815117738744E-3</v>
       </c>
       <c r="AY23">
-        <f>AR23/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>-7.8427743681065988E-5</v>
       </c>
       <c r="AZ23">
-        <f>AS23/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>8.7901815117738744E-3</v>
       </c>
       <c r="BA23">
-        <f>AT23/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>2.7205001546771902E-3</v>
       </c>
     </row>
@@ -13051,35 +13106,35 @@
         <v>0.1792349094276289</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>-1.263978110873187E-3</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="AT24">
+        <f t="shared" si="46"/>
+        <v>5.4387310300290599E-2</v>
+      </c>
+      <c r="AX24">
         <f t="shared" si="41"/>
-        <v>5.4387310300290599E-2</v>
-      </c>
-      <c r="AX24">
-        <f>AQ24/$AV$22</f>
         <v>8.7901815117738744E-3</v>
       </c>
       <c r="AY24">
-        <f>AR24/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>-5.3330865703124901E-5</v>
       </c>
       <c r="AZ24">
-        <f>AS24/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>8.7901815117738744E-3</v>
       </c>
       <c r="BA24">
-        <f>AT24/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>2.294756781488271E-3</v>
       </c>
     </row>
@@ -13140,35 +13195,35 @@
         <v>0.40687190309199428</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>-8.178681893885332E-4</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.19792410183202472</v>
       </c>
       <c r="AT25">
+        <f t="shared" si="46"/>
+        <v>5.7750780325045735E-2</v>
+      </c>
+      <c r="AX25">
         <f t="shared" si="41"/>
-        <v>5.7750780325045735E-2</v>
-      </c>
-      <c r="AX25">
-        <f>AQ25/$AV$22</f>
         <v>8.7901815117738744E-3</v>
       </c>
       <c r="AY25">
-        <f>AR25/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>-3.4508207219669072E-5</v>
       </c>
       <c r="AZ25">
-        <f>AS25/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>8.3509861471599035E-3</v>
       </c>
       <c r="BA25">
-        <f>AT25/$AV$22</f>
+        <f t="shared" si="41"/>
         <v>2.4366712392179107E-3</v>
       </c>
     </row>
@@ -13233,27 +13288,27 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" ref="X26:AF26" si="42">AVERAGE(M26:M29)</f>
+        <f t="shared" ref="X26:AF26" si="47">AVERAGE(M26:M29)</f>
         <v>0.40149892933618841</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.78515346181299062</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>14.909589925734583</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.40149892933618841</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1.1866523911491791</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>7.3580822576209723E-2</v>
       </c>
       <c r="AI26" s="3">
@@ -13320,11 +13375,11 @@
         <v>-2.5744985477103692E-5</v>
       </c>
       <c r="BF26" s="3">
-        <f t="shared" ref="BF26:BG26" si="43">AVERAGE(AZ26:AZ29)</f>
+        <f t="shared" ref="BF26:BG26" si="48">AVERAGE(AZ26:AZ29)</f>
         <v>6.9972160528296483E-3</v>
       </c>
       <c r="BG26" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>3.8653599861407555E-3</v>
       </c>
     </row>
@@ -13385,35 +13440,35 @@
         <v>2.2358756831271011E-2</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27:AQ29" si="44">($AI$26-L27)/48</f>
+        <f t="shared" ref="AQ27:AQ29" si="49">($AI$26-L27)/48</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" ref="AR27:AR29" si="45">($AJ$26-M27)/48</f>
+        <f t="shared" ref="AR27:AR29" si="50">($AJ$26-M27)/48</f>
         <v>-2.2305496074232858E-4</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" ref="AS27:AS29" si="46">($AK$26-N27)/48</f>
+        <f t="shared" ref="AS27:AS29" si="51">($AK$26-N27)/48</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="AT27" s="3">
-        <f t="shared" ref="AT27:AT29" si="47">($AL$26-O27)/48</f>
+        <f t="shared" ref="AT27:AT29" si="52">($AL$26-O27)/48</f>
         <v>6.417500807232801E-2</v>
       </c>
       <c r="AX27" s="3">
-        <f t="shared" ref="AX27:AX29" si="48">AQ27/$AV$26</f>
+        <f t="shared" ref="AX27:AX29" si="53">AQ27/$AV$26</f>
         <v>7.5934157165099435E-3</v>
       </c>
       <c r="AY27" s="3">
-        <f>AR27/$AV$26</f>
+        <f t="shared" ref="AY27:BA29" si="54">AR27/$AV$26</f>
         <v>-8.1299954138222694E-6</v>
       </c>
       <c r="AZ27" s="3">
-        <f>AS27/$AV$26</f>
+        <f t="shared" si="54"/>
         <v>7.5934157165099435E-3</v>
       </c>
       <c r="BA27" s="3">
-        <f>AT27/$AV$26</f>
+        <f t="shared" si="54"/>
         <v>2.3390760715371263E-3</v>
       </c>
     </row>
@@ -13474,35 +13529,35 @@
         <v>3.4349614221134556E-2</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-1.5613847251962885E-3</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="AT28" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.1482617586912065</v>
       </c>
       <c r="AX28" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>7.5934157165099435E-3</v>
       </c>
       <c r="AY28" s="3">
-        <f>AR28/$AV$26</f>
+        <f t="shared" si="54"/>
         <v>-5.6909967896755467E-5</v>
       </c>
       <c r="AZ28" s="3">
-        <f>AS28/$AV$26</f>
+        <f t="shared" si="54"/>
         <v>7.5934157165099435E-3</v>
       </c>
       <c r="BA28" s="3">
-        <f>AT28/$AV$26</f>
+        <f t="shared" si="54"/>
         <v>5.4039032092954176E-3</v>
       </c>
     </row>
@@ -13563,35 +13618,35 @@
         <v>3.6842731382345943E-2</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-2.0074946466809435E-3</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="AT29" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.15431600473576579</v>
       </c>
       <c r="AX29" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>7.5934157165099435E-3</v>
       </c>
       <c r="AY29" s="3">
-        <f>AR29/$AV$26</f>
+        <f t="shared" si="54"/>
         <v>-7.3169958724399921E-5</v>
       </c>
       <c r="AZ29" s="3">
-        <f>AS29/$AV$26</f>
+        <f t="shared" si="54"/>
         <v>7.5934157165099435E-3</v>
       </c>
       <c r="BA29" s="3">
-        <f>AT29/$AV$26</f>
+        <f t="shared" si="54"/>
         <v>5.624570763214016E-3</v>
       </c>
     </row>
@@ -13686,8 +13741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D472A6C-8D31-4F86-B9CD-C9829547809C}">
   <dimension ref="A1:BG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16716,4 +16771,1557 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1B6083-1786-4D0C-A30B-573FFDF56816}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.65667380442541035</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.19373587342589604</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.69236259814418277</v>
+      </c>
+      <c r="H2">
+        <v>2.1413276231263385</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.85653104925053536</v>
+      </c>
+      <c r="O2">
+        <v>0.34975017844396861</v>
+      </c>
+      <c r="P2">
+        <v>4.4967880085653107</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.5638829407566025</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.19373587342589604</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.65667380442541035</v>
+      </c>
+      <c r="H3">
+        <v>5.0678087080656669</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.3997144896502498</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.2134189864382585</v>
+      </c>
+      <c r="O3">
+        <v>0.32119914346895073</v>
+      </c>
+      <c r="P3">
+        <v>3.8543897216274092</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1.2847965738758029</v>
+      </c>
+      <c r="C4">
+        <v>0.62812276945039269</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.19373587342589604</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.64953604568165602</v>
+      </c>
+      <c r="H4">
+        <v>0.92790863668807999</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.34975017844396861</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.1420413990007139</v>
+      </c>
+      <c r="O4">
+        <v>0.37116345467523199</v>
+      </c>
+      <c r="P4">
+        <v>3.0692362598144181</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1.2134189864382585</v>
+      </c>
+      <c r="C5">
+        <v>0.55674518201284795</v>
+      </c>
+      <c r="D5">
+        <v>0.7137758743754461</v>
+      </c>
+      <c r="E5">
+        <v>0.19373587342589604</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="H5">
+        <v>2.9978586723768736</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.37830121341898648</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.5703069236259812</v>
+      </c>
+      <c r="O5">
+        <v>0.33547466095645967</v>
+      </c>
+      <c r="P5">
+        <v>1.7844396859386153</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="C6">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>6.4578624475298677E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="G6">
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="H6">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.33547466095645967</v>
+      </c>
+      <c r="L6">
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.9271948608137046</v>
+      </c>
+      <c r="O6">
+        <v>0.31406138472519635</v>
+      </c>
+      <c r="P6">
+        <v>8.4225553176302643</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="C7">
+        <v>0.57815845824411138</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.12915724895059735</v>
+      </c>
+      <c r="F7">
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="G7">
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="H7">
+        <v>1.9271948608137046</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.32833690221270517</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.85581727337616</v>
+      </c>
+      <c r="O7">
+        <v>0.28551034975017847</v>
+      </c>
+      <c r="P7">
+        <v>9.9214846538187018</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>9.6867936712948022E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="G8">
+        <v>0.59243397573162027</v>
+      </c>
+      <c r="H8">
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.43540328336902218</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.1633839199225058</v>
+      </c>
+      <c r="N8">
+        <v>2.0699500356887941</v>
+      </c>
+      <c r="O8">
+        <v>0.24268379728765166</v>
+      </c>
+      <c r="P8">
+        <v>7.0663811563169165</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.57815845824411138</v>
+      </c>
+      <c r="D9">
+        <v>5.6388294075660239</v>
+      </c>
+      <c r="E9">
+        <v>9.6867936712948022E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="H9">
+        <v>2.0699500356887941</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.5703069236259812</v>
+      </c>
+      <c r="O9">
+        <v>0.32833690221270517</v>
+      </c>
+      <c r="P9">
+        <v>4.5681655960028555</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.0706638115631693</v>
+      </c>
+      <c r="C10">
+        <v>0.72805139186295509</v>
+      </c>
+      <c r="D10">
+        <v>8.8508208422555317</v>
+      </c>
+      <c r="E10">
+        <v>9.6867936712948022E-2</v>
+      </c>
+      <c r="F10">
+        <v>7.2805139186295502</v>
+      </c>
+      <c r="G10">
+        <v>0.70663811563169177</v>
+      </c>
+      <c r="H10">
+        <v>3.6402569593147751</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3.1406138472519625</v>
+      </c>
+      <c r="K10">
+        <v>0.42112776588151318</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.6416845110635259</v>
+      </c>
+      <c r="O10">
+        <v>0.30692362598144185</v>
+      </c>
+      <c r="P10">
+        <v>2.4982155603140614</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="C11">
+        <v>0.65667380442541035</v>
+      </c>
+      <c r="D11">
+        <v>10.206995003568879</v>
+      </c>
+      <c r="E11">
+        <v>0.12915724895059735</v>
+      </c>
+      <c r="F11">
+        <v>7.4946466809421848</v>
+      </c>
+      <c r="G11">
+        <v>0.72805139186295509</v>
+      </c>
+      <c r="H11">
+        <v>2.8551034975017844</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2.9978586723768736</v>
+      </c>
+      <c r="K11">
+        <v>0.3997144896502498</v>
+      </c>
+      <c r="L11">
+        <v>7.1377587437544618E-2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.7844396859386153</v>
+      </c>
+      <c r="O11">
+        <v>0.38543897216274092</v>
+      </c>
+      <c r="P11">
+        <v>3.0692362598144181</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1.2134189864382585</v>
+      </c>
+      <c r="C12">
+        <v>0.67094932191291934</v>
+      </c>
+      <c r="D12">
+        <v>28.408279800142754</v>
+      </c>
+      <c r="E12">
+        <v>0.12915724895059735</v>
+      </c>
+      <c r="F12">
+        <v>7.2091363311920063</v>
+      </c>
+      <c r="G12">
+        <v>0.69236259814418277</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2.2127052105638829</v>
+      </c>
+      <c r="K12">
+        <v>0.4068522483940043</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.4275517487508922</v>
+      </c>
+      <c r="O12">
+        <v>0.32119914346895073</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.7130620985010707</v>
+      </c>
+      <c r="C13">
+        <v>0.64953604568165602</v>
+      </c>
+      <c r="D13">
+        <v>14.204139900071377</v>
+      </c>
+      <c r="E13">
+        <v>0.12915724895059735</v>
+      </c>
+      <c r="F13">
+        <v>7.7801570306923633</v>
+      </c>
+      <c r="G13">
+        <v>0.72091363311920054</v>
+      </c>
+      <c r="H13">
+        <v>2.2840827980014278</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.9271948608137046</v>
+      </c>
+      <c r="K13">
+        <v>0.38543897216274092</v>
+      </c>
+      <c r="L13">
+        <v>10.84939329050678</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.7130620985010707</v>
+      </c>
+      <c r="O13">
+        <v>0.31406138472519635</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.14275517487508924</v>
+      </c>
+      <c r="C14">
+        <v>0.79942897930049961</v>
+      </c>
+      <c r="D14">
+        <v>32.548179871520347</v>
+      </c>
+      <c r="E14">
+        <v>3.0029060381013886</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.63526052819414702</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2.647723603487246</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.31406138472519635</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4.0684533419438162</v>
+      </c>
+      <c r="N14">
+        <v>1.7844396859386153</v>
+      </c>
+      <c r="O14">
+        <v>0.30692362598144185</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.4207297384565707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="C15">
+        <v>0.8137044967880086</v>
+      </c>
+      <c r="D15">
+        <v>6.209850107066381</v>
+      </c>
+      <c r="E15">
+        <v>3.0674846625766872</v>
+      </c>
+      <c r="F15">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="G15">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="H15">
+        <v>4.9964311206281229</v>
+      </c>
+      <c r="I15">
+        <v>2.292541168873103</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4.1330319664191153</v>
+      </c>
+      <c r="N15">
+        <v>2.426837972876517</v>
+      </c>
+      <c r="O15">
+        <v>0.24982155603140616</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.4853083629318695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.77801570306923629</v>
+      </c>
+      <c r="D16">
+        <v>15.845824411134906</v>
+      </c>
+      <c r="E16">
+        <v>2.2279625443978048</v>
+      </c>
+      <c r="F16">
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="G16">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="H16">
+        <v>1.85581727337616</v>
+      </c>
+      <c r="I16">
+        <v>2.647723603487246</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.0361640297061676</v>
+      </c>
+      <c r="N16">
+        <v>1.2847965738758029</v>
+      </c>
+      <c r="O16">
+        <v>0.29264810849393291</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.1624152405553763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.79229122055674528</v>
+      </c>
+      <c r="D17">
+        <v>3.2833690221270517</v>
+      </c>
+      <c r="E17">
+        <v>2.3894091055860511</v>
+      </c>
+      <c r="F17">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="G17">
+        <v>0.62812276945039269</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2.1633839199225058</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.36402569593147754</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3.939296092993219</v>
+      </c>
+      <c r="N17">
+        <v>0.92790863668807999</v>
+      </c>
+      <c r="O17">
+        <v>0.31406138472519635</v>
+      </c>
+      <c r="P17">
+        <v>1.7130620985010707</v>
+      </c>
+      <c r="Q17">
+        <v>1.0655473038424281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0.7137758743754461</v>
+      </c>
+      <c r="C18">
+        <v>0.73518915060670953</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>14.497901194704554</v>
+      </c>
+      <c r="F18">
+        <v>3.7830121341898644</v>
+      </c>
+      <c r="G18">
+        <v>0.64953604568165602</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>16.370681304488215</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.47822983583154893</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>17.694543106231841</v>
+      </c>
+      <c r="N18">
+        <v>1.85581727337616</v>
+      </c>
+      <c r="O18">
+        <v>0.38543897216274092</v>
+      </c>
+      <c r="P18">
+        <v>4.5681655960028555</v>
+      </c>
+      <c r="Q18">
+        <v>13.109460768485633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="C19">
+        <v>0.74946466809421841</v>
+      </c>
+      <c r="D19">
+        <v>2.7123483226266951</v>
+      </c>
+      <c r="E19">
+        <v>14.627058443655152</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>15.305134000645785</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.44967880085653106</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>17.985146916370685</v>
+      </c>
+      <c r="N19">
+        <v>1.85581727337616</v>
+      </c>
+      <c r="O19">
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="P19">
+        <v>2.5695931477516059</v>
+      </c>
+      <c r="Q19">
+        <v>13.819825637713917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.77801570306923629</v>
+      </c>
+      <c r="D20">
+        <v>3.4975017844396858</v>
+      </c>
+      <c r="E20">
+        <v>16.176945431062318</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.65667380442541035</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>14.497901194704554</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>18.114304165321283</v>
+      </c>
+      <c r="N20">
+        <v>2.3554603854389722</v>
+      </c>
+      <c r="O20">
+        <v>0.32833690221270517</v>
+      </c>
+      <c r="P20">
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="Q20">
+        <v>10.655473038424283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.78515346181299062</v>
+      </c>
+      <c r="D21">
+        <v>28.551034975017846</v>
+      </c>
+      <c r="E21">
+        <v>16.402970616725863</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.60670949321912926</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>17.888278979657734</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>18.727801097836615</v>
+      </c>
+      <c r="N21">
+        <v>1.7844396859386153</v>
+      </c>
+      <c r="O21">
+        <v>0.37116345467523199</v>
+      </c>
+      <c r="P21">
+        <v>1.0706638115631693</v>
+      </c>
+      <c r="Q21">
+        <v>11.398127219890217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="D22">
+        <v>2.0699500356887941</v>
+      </c>
+      <c r="E22">
+        <v>0.67807555699063626</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.68522483940042822</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1.7436228608330644</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.9696480464966095</v>
+      </c>
+      <c r="N22">
+        <v>1.3561741613133476</v>
+      </c>
+      <c r="O22">
+        <v>0.28551034975017847</v>
+      </c>
+      <c r="P22">
+        <v>1.2847965738758029</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="D23">
+        <v>8.0656673804425409</v>
+      </c>
+      <c r="E23">
+        <v>0.58120762027768813</v>
+      </c>
+      <c r="F23">
+        <v>7.1377587437544618E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1.7113335485954149</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.4568165596002855</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.9050694220213109</v>
+      </c>
+      <c r="N23">
+        <v>1.7844396859386153</v>
+      </c>
+      <c r="O23">
+        <v>0.38543897216274092</v>
+      </c>
+      <c r="P23">
+        <v>1.4275517487508922</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.60670949321912926</v>
+      </c>
+      <c r="D24">
+        <v>8.2084225553176307</v>
+      </c>
+      <c r="E24">
+        <v>1.7436228608330644</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1.9050694220213109</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2.3894091055860511</v>
+      </c>
+      <c r="N24">
+        <v>2.3554603854389722</v>
+      </c>
+      <c r="O24">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="P24">
+        <v>0.28551034975017847</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.63526052819414702</v>
+      </c>
+      <c r="D25">
+        <v>11.920057102069951</v>
+      </c>
+      <c r="E25">
+        <v>1.8404907975460125</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2.0665159832095576</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.4068522483940043</v>
+      </c>
+      <c r="L25">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="M25">
+        <v>2.2279625443978048</v>
+      </c>
+      <c r="N25">
+        <v>1.4275517487508922</v>
+      </c>
+      <c r="O25">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="P25">
+        <v>2.8551034975017844</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="C26">
+        <v>0.62812276945039269</v>
+      </c>
+      <c r="D26">
+        <v>0.7137758743754461</v>
+      </c>
+      <c r="E26">
+        <v>9.2993219244430101</v>
+      </c>
+      <c r="F26">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="G26">
+        <v>0.67808708065667378</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>14.17500807232806</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.32119914346895073</v>
+      </c>
+      <c r="L26">
+        <v>3.1406138472519625</v>
+      </c>
+      <c r="M26">
+        <v>17.242492734904751</v>
+      </c>
+      <c r="N26">
+        <v>1.4275517487508922</v>
+      </c>
+      <c r="O26">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="P26">
+        <v>2.426837972876517</v>
+      </c>
+      <c r="Q26">
+        <v>13.335485954149176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0.14275517487508924</v>
+      </c>
+      <c r="C27">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="D27">
+        <v>1.7130620985010707</v>
+      </c>
+      <c r="E27">
+        <v>10.171133354859542</v>
+      </c>
+      <c r="F27">
+        <v>0.28551034975017847</v>
+      </c>
+      <c r="G27">
+        <v>0.64953604568165602</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>14.788505004843399</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.37830121341898648</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>16.919599612528256</v>
+      </c>
+      <c r="N27">
+        <v>1.85581727337616</v>
+      </c>
+      <c r="O27">
+        <v>0.4568165596002855</v>
+      </c>
+      <c r="P27">
+        <v>4.0685224839400433</v>
+      </c>
+      <c r="Q27">
+        <v>13.496932515337424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.62812276945039269</v>
+      </c>
+      <c r="D28">
+        <v>0.14275517487508924</v>
+      </c>
+      <c r="E28">
+        <v>14.853083629318697</v>
+      </c>
+      <c r="F28">
+        <v>2.1413276231263385</v>
+      </c>
+      <c r="G28">
+        <v>0.67808708065667378</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>13.626089764288022</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.44254104211277656</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>12.883435582822088</v>
+      </c>
+      <c r="N28">
+        <v>2.78372591006424</v>
+      </c>
+      <c r="O28">
+        <v>0.33547466095645967</v>
+      </c>
+      <c r="P28">
+        <v>10.635260528194147</v>
+      </c>
+      <c r="Q28">
+        <v>14.497901194704554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.64953604568165602</v>
+      </c>
+      <c r="D29">
+        <v>2.6409707351891503</v>
+      </c>
+      <c r="E29">
+        <v>14.7239263803681</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>15.434291249596383</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.46395431834404</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>12.592831772683242</v>
+      </c>
+      <c r="N29">
+        <v>1.3561741613133476</v>
+      </c>
+      <c r="O29">
+        <v>0.34975017844396861</v>
+      </c>
+      <c r="P29">
+        <v>11.848679514632407</v>
+      </c>
+      <c r="Q29">
+        <v>15.014530190506944</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>